--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0A178-E518-48D4-89A4-FDEC202AA5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2EFB7-FEF9-49EC-A3B0-7594AC9FB08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
   <si>
     <t>Zone</t>
   </si>
@@ -1713,9 +1713,6 @@
   </si>
   <si>
     <t>Rw- Indore</t>
-  </si>
-  <si>
-    <t>TBS</t>
   </si>
   <si>
     <t>Boat Running Vendors</t>
@@ -4721,6 +4718,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4816,12 +4819,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -5677,7 +5674,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="299"/>
@@ -5735,7 +5732,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="297"/>
@@ -5765,7 +5762,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="297"/>
@@ -5803,7 +5800,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I11" s="374"/>
       <c r="J11" s="295"/>
@@ -5857,7 +5854,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F13" s="281" t="s">
         <v>370</v>
@@ -5866,7 +5863,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -5895,13 +5892,13 @@
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -5937,7 +5934,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -6035,7 +6032,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6065,7 +6062,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6193,7 +6190,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6313,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6383,7 +6380,7 @@
       <c r="B2" s="549" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="593" t="s">
+      <c r="C2" s="561" t="s">
         <v>365</v>
       </c>
       <c r="D2" s="551" t="s">
@@ -6429,7 +6426,7 @@
     <row r="3" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="548"/>
       <c r="B3" s="550"/>
-      <c r="C3" s="594"/>
+      <c r="C3" s="562"/>
       <c r="D3" s="552"/>
       <c r="E3" s="554"/>
       <c r="G3" s="560"/>
@@ -6578,7 +6575,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="525"/>
       <c r="I10" s="542"/>
@@ -6664,13 +6661,13 @@
         <v>44</v>
       </c>
       <c r="R12" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" s="24">
         <v>3</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>558</v>
+        <v>486</v>
       </c>
       <c r="V12" s="6">
         <v>1</v>
@@ -6691,7 +6688,7 @@
       <c r="G13" s="525"/>
       <c r="I13" s="542"/>
       <c r="J13" s="108" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
@@ -6706,16 +6703,16 @@
         <v>547</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="V13" s="6">
+        <v>352</v>
+      </c>
+      <c r="V13" s="19">
         <v>1</v>
       </c>
       <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
@@ -6736,10 +6733,14 @@
       </c>
       <c r="I14" s="542"/>
       <c r="U14" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+        <v>580</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
@@ -6767,15 +6768,6 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
@@ -6789,13 +6781,6 @@
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="U16" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="V16" s="19">
-        <v>1</v>
-      </c>
-      <c r="W16" s="6"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="244" t="s">
@@ -6823,22 +6808,13 @@
       <c r="M17" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="V17" s="6">
-        <v>1</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>581</v>
-      </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="496" t="s">
         <v>155</v>
@@ -6862,7 +6838,9 @@
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="V19" s="6">
         <v>1</v>
       </c>
@@ -6872,7 +6850,7 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -6881,7 +6859,7 @@
         <v>445</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E20" s="428">
         <v>-1</v>
@@ -6898,6 +6876,12 @@
       </c>
       <c r="M20" s="21" t="s">
         <v>417</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6917,7 +6901,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E22" s="382">
         <v>1</v>
@@ -6929,7 +6913,7 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -6942,12 +6926,8 @@
         <v>540</v>
       </c>
       <c r="P23" s="540"/>
-      <c r="V23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>204</v>
-      </c>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="542"/>
@@ -6955,7 +6935,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" s="24">
         <v>1</v>
@@ -7225,7 +7205,7 @@
         <v>156</v>
       </c>
       <c r="Y1" s="605" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Z1" s="463">
         <v>1</v>
@@ -7249,7 +7229,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="458"/>
-      <c r="AN1" s="588"/>
+      <c r="AN1" s="590"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7265,16 +7245,16 @@
       <c r="B2" s="616" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="593" t="s">
+      <c r="C2" s="561" t="s">
         <v>365</v>
       </c>
       <c r="D2" s="618" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="561" t="s">
+      <c r="E2" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="569" t="s">
+      <c r="F2" s="571" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="446" t="s">
@@ -7287,11 +7267,11 @@
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="563" t="s">
+      <c r="K2" s="565" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="564"/>
-      <c r="M2" s="569" t="s">
+      <c r="L2" s="566"/>
+      <c r="M2" s="571" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
@@ -7303,11 +7283,11 @@
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="593" t="s">
+      <c r="Q2" s="561" t="s">
         <v>144</v>
       </c>
       <c r="R2" s="524"/>
-      <c r="S2" s="582" t="s">
+      <c r="S2" s="584" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7340,15 +7320,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="485"/>
-      <c r="AN2" s="589"/>
+      <c r="AN2" s="591"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="615"/>
       <c r="B3" s="617"/>
-      <c r="C3" s="594"/>
+      <c r="C3" s="562"/>
       <c r="D3" s="619"/>
-      <c r="E3" s="562"/>
-      <c r="F3" s="570"/>
+      <c r="E3" s="564"/>
+      <c r="F3" s="572"/>
       <c r="G3" s="447" t="s">
         <v>28</v>
       </c>
@@ -7367,7 +7347,7 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="570"/>
+      <c r="M3" s="572"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
@@ -7375,9 +7355,9 @@
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="594"/>
+      <c r="Q3" s="562"/>
       <c r="R3" s="526"/>
-      <c r="S3" s="584"/>
+      <c r="S3" s="586"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7394,7 +7374,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="579" t="s">
+      <c r="AD3" s="581" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7406,7 +7386,7 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="485"/>
-      <c r="AN3" s="589"/>
+      <c r="AN3" s="591"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
@@ -7415,7 +7395,7 @@
       <c r="B4" s="630" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="593" t="s">
+      <c r="C4" s="561" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7424,7 +7404,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="570"/>
+      <c r="F4" s="572"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7441,7 +7421,7 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="570"/>
+      <c r="M4" s="572"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
@@ -7472,7 +7452,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="579"/>
+      <c r="AD4" s="581"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7482,7 +7462,7 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="485"/>
-      <c r="AN4" s="589"/>
+      <c r="AN4" s="591"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
@@ -7492,14 +7472,14 @@
         <v>435</v>
       </c>
       <c r="B5" s="631"/>
-      <c r="C5" s="594"/>
+      <c r="C5" s="562"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="570"/>
+      <c r="F5" s="572"/>
       <c r="G5" s="622" t="s">
         <v>193</v>
       </c>
@@ -7508,7 +7488,7 @@
       <c r="J5" s="622"/>
       <c r="K5" s="622"/>
       <c r="L5" s="623"/>
-      <c r="M5" s="570"/>
+      <c r="M5" s="572"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
@@ -7543,7 +7523,7 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="485"/>
-      <c r="AN5" s="589"/>
+      <c r="AN5" s="591"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="560"/>
@@ -7552,14 +7532,14 @@
       </c>
       <c r="C6" s="557"/>
       <c r="D6" s="558"/>
-      <c r="F6" s="570"/>
+      <c r="F6" s="572"/>
       <c r="G6" s="624"/>
       <c r="H6" s="624"/>
       <c r="I6" s="624"/>
       <c r="J6" s="624"/>
       <c r="K6" s="624"/>
       <c r="L6" s="625"/>
-      <c r="M6" s="570"/>
+      <c r="M6" s="572"/>
       <c r="O6" s="598"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
@@ -7584,16 +7564,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="578"/>
+      <c r="AI6" s="580"/>
       <c r="AJ6" s="498" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="578" t="s">
+      <c r="AK6" s="580" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="485"/>
-      <c r="AN6" s="589"/>
+      <c r="AN6" s="591"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7612,7 +7592,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="570"/>
+      <c r="F7" s="572"/>
       <c r="G7" s="448">
         <v>0</v>
       </c>
@@ -7631,7 +7611,7 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="570"/>
+      <c r="M7" s="572"/>
       <c r="O7" s="598"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
@@ -7656,18 +7636,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="579" t="s">
+      <c r="AG7" s="581" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="578"/>
+      <c r="AI7" s="580"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="578"/>
+      <c r="AK7" s="580"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="485"/>
-      <c r="AN7" s="589"/>
+      <c r="AN7" s="591"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7684,7 +7664,7 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="570"/>
+      <c r="F8" s="572"/>
       <c r="G8" s="623">
         <v>0</v>
       </c>
@@ -7696,9 +7676,9 @@
         <v>105</v>
       </c>
       <c r="K8" s="626"/>
-      <c r="L8" s="580"/>
+      <c r="L8" s="582"/>
       <c r="M8" s="595"/>
-      <c r="N8" s="585">
+      <c r="N8" s="587">
         <f>N5+N11</f>
         <v>15</v>
       </c>
@@ -7720,14 +7700,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="579"/>
+      <c r="AG8" s="581"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="578"/>
+      <c r="AI8" s="580"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="485"/>
-      <c r="AN8" s="589"/>
+      <c r="AN8" s="591"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7742,17 +7722,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="570"/>
+      <c r="F9" s="572"/>
       <c r="G9" s="625"/>
       <c r="H9" s="621"/>
       <c r="I9" s="526"/>
       <c r="J9" s="621"/>
       <c r="K9" s="627"/>
-      <c r="L9" s="581"/>
+      <c r="L9" s="583"/>
       <c r="M9" s="596"/>
-      <c r="N9" s="586"/>
+      <c r="N9" s="588"/>
       <c r="O9" s="599"/>
-      <c r="S9" s="582" t="s">
+      <c r="S9" s="584" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7774,16 +7754,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="579"/>
+      <c r="AG9" s="581"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="578"/>
+      <c r="AI9" s="580"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="578" t="s">
+      <c r="AK9" s="580" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="485"/>
-      <c r="AN9" s="589"/>
+      <c r="AN9" s="591"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -7798,13 +7778,13 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>41</v>
-      </c>
-      <c r="F10" s="570"/>
+        <v>42</v>
+      </c>
+      <c r="F10" s="572"/>
       <c r="N10" s="475" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="572" t="s">
+      <c r="O10" s="574" t="s">
         <v>103</v>
       </c>
       <c r="P10" s="600" t="s">
@@ -7813,7 +7793,7 @@
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="583"/>
+      <c r="S10" s="585"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7843,16 +7823,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="579"/>
+      <c r="AG10" s="581"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="578"/>
+      <c r="AI10" s="580"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="578"/>
+      <c r="AK10" s="580"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="589"/>
+      <c r="AN10" s="591"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7870,18 +7850,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="570"/>
+      <c r="F11" s="572"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="573"/>
+      <c r="O11" s="575"/>
       <c r="P11" s="601"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="583"/>
+      <c r="S11" s="585"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7905,14 +7885,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="579"/>
+      <c r="AG11" s="581"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="485"/>
-      <c r="AN11" s="589"/>
+      <c r="AN11" s="591"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7931,7 +7911,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="570"/>
+      <c r="F12" s="572"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -7940,16 +7920,16 @@
       </c>
       <c r="I12" s="530"/>
       <c r="J12" s="530"/>
-      <c r="K12" s="577"/>
+      <c r="K12" s="579"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="573"/>
+      <c r="O12" s="575"/>
       <c r="P12" s="601"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="584"/>
+      <c r="S12" s="586"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7970,16 +7950,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="587" t="s">
+      <c r="AD12" s="589" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="498" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="579" t="s">
+      <c r="AF12" s="581" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="579"/>
+      <c r="AG12" s="581"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -7992,7 +7972,7 @@
       <c r="AM12" s="603" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="589"/>
+      <c r="AN12" s="591"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8004,16 +7984,16 @@
       <c r="E13" s="505">
         <v>-3</v>
       </c>
-      <c r="F13" s="570"/>
+      <c r="F13" s="572"/>
       <c r="G13" s="530" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="530"/>
       <c r="I13" s="530"/>
-      <c r="J13" s="577"/>
+      <c r="J13" s="579"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="573"/>
+      <c r="O13" s="575"/>
       <c r="P13" s="602"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
@@ -8035,8 +8015,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="587"/>
-      <c r="AF13" s="579"/>
+      <c r="AD13" s="589"/>
+      <c r="AF13" s="581"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8048,7 +8028,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="603"/>
-      <c r="AN13" s="589"/>
+      <c r="AN13" s="591"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="507"/>
@@ -8056,20 +8036,20 @@
       <c r="C14" s="516"/>
       <c r="D14" s="509"/>
       <c r="E14" s="510"/>
-      <c r="F14" s="570"/>
+      <c r="F14" s="572"/>
       <c r="G14" s="530" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="530"/>
       <c r="I14" s="530"/>
-      <c r="J14" s="577"/>
+      <c r="J14" s="579"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="573"/>
+      <c r="O14" s="575"/>
       <c r="Q14" s="61" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="S14" s="169" t="s">
         <v>28</v>
@@ -8088,9 +8068,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="587"/>
+      <c r="AD14" s="589"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="579"/>
+      <c r="AF14" s="581"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8098,7 +8078,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="603"/>
-      <c r="AN14" s="589"/>
+      <c r="AN14" s="591"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="506" t="s">
@@ -8107,8 +8087,8 @@
       <c r="C15" s="524" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="570"/>
-      <c r="O15" s="573"/>
+      <c r="F15" s="572"/>
+      <c r="O15" s="575"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8130,8 +8110,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="587"/>
-      <c r="AF15" s="579"/>
+      <c r="AD15" s="589"/>
+      <c r="AF15" s="581"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8145,7 +8125,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="603"/>
-      <c r="AN15" s="589"/>
+      <c r="AN15" s="591"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8155,7 +8135,7 @@
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>417</v>
@@ -8167,13 +8147,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="570"/>
+      <c r="F16" s="572"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="573"/>
+      <c r="O16" s="575"/>
       <c r="R16" s="492" t="s">
         <v>185</v>
       </c>
@@ -8205,20 +8185,20 @@
       <c r="AM16" s="485" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="589"/>
+      <c r="AN16" s="591"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="570"/>
+      <c r="F17" s="572"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="573"/>
+      <c r="O17" s="575"/>
       <c r="Q17" s="21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S17" s="169" t="s">
         <v>183</v>
@@ -8261,7 +8241,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="485"/>
-      <c r="AN17" s="589"/>
+      <c r="AN17" s="591"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8271,10 +8251,10 @@
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="511" t="s">
         <v>540</v>
@@ -8285,16 +8265,16 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="570"/>
+      <c r="F18" s="572"/>
       <c r="G18" s="374" t="s">
         <v>557</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="573"/>
+      <c r="O18" s="575"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="565" t="s">
-        <v>566</v>
+      <c r="R18" s="567" t="s">
+        <v>565</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
@@ -8320,7 +8300,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="578" t="s">
+      <c r="AF18" s="580" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8332,17 +8312,17 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="485"/>
-      <c r="AN18" s="589"/>
+      <c r="AN18" s="591"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="570"/>
-      <c r="O19" s="573"/>
-      <c r="R19" s="566"/>
+      <c r="F19" s="572"/>
+      <c r="O19" s="575"/>
+      <c r="R19" s="568"/>
       <c r="S19" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="U19" s="612"/>
       <c r="V19" s="146"/>
@@ -8359,7 +8339,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="578"/>
+      <c r="AF19" s="580"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8369,14 +8349,14 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="485"/>
-      <c r="AN19" s="589"/>
+      <c r="AN19" s="591"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -8385,17 +8365,17 @@
         <v>504</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E20" s="494">
         <v>-1</v>
       </c>
-      <c r="F20" s="570"/>
+      <c r="F20" s="572"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="573"/>
-      <c r="Q20" s="575" t="s">
+      <c r="O20" s="575"/>
+      <c r="Q20" s="577" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="461" t="s">
@@ -8431,7 +8411,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="589"/>
+      <c r="AN20" s="591"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8441,10 +8421,10 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="244" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C21" s="513" t="s">
         <v>504</v>
@@ -8455,9 +8435,9 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="570"/>
-      <c r="O21" s="573"/>
-      <c r="Q21" s="576"/>
+      <c r="F21" s="572"/>
+      <c r="O21" s="575"/>
+      <c r="Q21" s="578"/>
       <c r="T21" s="479"/>
       <c r="U21" s="14"/>
       <c r="V21" s="608"/>
@@ -8481,7 +8461,7 @@
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="251" t="s">
@@ -8496,16 +8476,16 @@
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="485" t="s">
-        <v>576</v>
-      </c>
-      <c r="AN21" s="589"/>
+        <v>575</v>
+      </c>
+      <c r="AN21" s="591"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="570"/>
+      <c r="F22" s="572"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="573"/>
+      <c r="O22" s="575"/>
       <c r="R22" s="491" t="s">
         <v>44</v>
       </c>
@@ -8531,7 +8511,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="578" t="s">
+      <c r="AJ22" s="580" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8539,11 +8519,11 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="589"/>
+      <c r="AN22" s="591"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
@@ -8557,9 +8537,9 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="570"/>
-      <c r="O23" s="573"/>
-      <c r="Q23" s="575" t="s">
+      <c r="F23" s="572"/>
+      <c r="O23" s="575"/>
+      <c r="Q23" s="577" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
@@ -8582,13 +8562,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="578"/>
+      <c r="AJ23" s="580"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="589"/>
+      <c r="AN23" s="591"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="497" t="s">
@@ -8606,12 +8586,12 @@
       <c r="E24" s="493">
         <v>1</v>
       </c>
-      <c r="F24" s="570"/>
+      <c r="F24" s="572"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="573"/>
-      <c r="Q24" s="576"/>
+      <c r="O24" s="575"/>
+      <c r="Q24" s="578"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
@@ -8640,11 +8620,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="589"/>
+      <c r="AN24" s="591"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="570"/>
-      <c r="O25" s="573"/>
+      <c r="F25" s="572"/>
+      <c r="O25" s="575"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8679,7 +8659,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="589"/>
+      <c r="AN25" s="591"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8692,22 +8672,22 @@
         <v>504</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="570"/>
+      <c r="F26" s="572"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="573"/>
-      <c r="P26" s="591" t="s">
+      <c r="O26" s="575"/>
+      <c r="P26" s="593" t="s">
         <v>551</v>
       </c>
-      <c r="Q26" s="592"/>
-      <c r="R26" s="567" t="s">
-        <v>565</v>
+      <c r="Q26" s="594"/>
+      <c r="R26" s="569" t="s">
+        <v>564</v>
       </c>
       <c r="T26" s="183"/>
       <c r="U26" s="476"/>
@@ -8745,24 +8725,24 @@
       <c r="AM26" s="499" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="589"/>
+      <c r="AN26" s="591"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>418</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="571"/>
+      <c r="F27" s="573"/>
       <c r="G27" s="61" t="s">
-        <v>575</v>
-      </c>
-      <c r="O27" s="574"/>
-      <c r="R27" s="568"/>
+        <v>574</v>
+      </c>
+      <c r="O27" s="576"/>
+      <c r="R27" s="570"/>
       <c r="S27" s="478" t="s">
         <v>54</v>
       </c>
@@ -8773,7 +8753,7 @@
       <c r="V27" s="481"/>
       <c r="W27" s="149"/>
       <c r="X27" s="486" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Y27" s="607"/>
       <c r="Z27" s="163"/>
@@ -8792,7 +8772,7 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="590"/>
+      <c r="AN27" s="592"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8859,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8875,7 +8855,7 @@
     <col min="11" max="11" width="3.85546875" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8995,17 +8975,17 @@
       </c>
       <c r="J2" s="646">
         <f>SUM(J5:J30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="648">
         <f>SUM(K4:K29)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="650">
         <f>SUM(L4:L29)</f>
-        <v>7</v>
-      </c>
-      <c r="M2" s="585">
+        <v>6</v>
+      </c>
+      <c r="M2" s="587">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9091,7 +9071,7 @@
       <c r="J3" s="647"/>
       <c r="K3" s="649"/>
       <c r="L3" s="651"/>
-      <c r="M3" s="586"/>
+      <c r="M3" s="588"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9101,11 +9081,11 @@
       </c>
       <c r="Q3" s="150">
         <f>SUM(Q4:Q29)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="653"/>
       <c r="T3" s="560"/>
@@ -9119,7 +9099,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9127,15 +9107,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9143,7 +9123,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9155,7 +9135,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9167,15 +9147,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9592,7 +9572,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9758,7 +9738,7 @@
       </c>
       <c r="L10" s="311">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="655"/>
       <c r="N10" s="20"/>
@@ -9787,45 +9767,43 @@
       <c r="X10" s="314"/>
       <c r="Y10" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="308">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC10" s="312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="318"/>
       <c r="AE10" s="314"/>
       <c r="AF10" s="314">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="373"/>
       <c r="AH10" s="158"/>
       <c r="AI10" s="326">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="327">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="328">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="6"/>
       <c r="AM10" s="231"/>
       <c r="AN10" s="80"/>
     </row>
@@ -9912,14 +9890,14 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="575" t="s">
+      <c r="E12" s="577" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I12" s="431" t="s">
         <v>302</v>
@@ -10013,7 +9991,7 @@
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="576"/>
+      <c r="E13" s="578"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10629,7 +10607,7 @@
       <c r="N20" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="577"/>
+      <c r="O20" s="579"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10962,10 +10940,10 @@
         <v>301</v>
       </c>
       <c r="J24" s="361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="311">
         <f t="shared" si="10"/>
@@ -10974,15 +10952,15 @@
       <c r="N24" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="577"/>
+      <c r="O24" s="579"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
       <c r="Q24" s="164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="338">
         <v>-2</v>
@@ -10994,7 +10972,7 @@
       <c r="V24" s="345"/>
       <c r="W24" s="190">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X24" s="314"/>
       <c r="Y24" s="117">
@@ -11003,7 +10981,7 @@
       </c>
       <c r="Z24" s="308">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="308">
         <v>1</v>
@@ -12097,12 +12075,12 @@
       <c r="B1" s="529" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="577"/>
+      <c r="C1" s="579"/>
       <c r="D1" s="214"/>
       <c r="J1" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="577"/>
+      <c r="K1" s="579"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12493,7 +12471,7 @@
       <c r="V1" s="529" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="577"/>
+      <c r="W1" s="579"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12651,7 +12629,7 @@
         <v>195</v>
       </c>
       <c r="Z4" s="530"/>
-      <c r="AA4" s="577"/>
+      <c r="AA4" s="579"/>
       <c r="AD4" s="671"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12934,7 +12912,7 @@
       <c r="Q13" s="700" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="592"/>
+      <c r="R13" s="594"/>
       <c r="S13" s="525"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -13012,7 +12990,7 @@
       <c r="Q15" s="700" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="592"/>
+      <c r="R15" s="594"/>
       <c r="S15" s="525"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2EFB7-FEF9-49EC-A3B0-7594AC9FB08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2582D2-4BB5-431F-83EB-6D7F31BB1A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="585">
   <si>
     <t>Zone</t>
   </si>
@@ -4724,6 +4724,168 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4748,12 +4910,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4775,161 +4931,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4973,39 +5006,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5024,25 +5024,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5120,46 +5141,25 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6311,7 +6311,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6575,7 +6575,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="525"/>
       <c r="I10" s="542"/>
@@ -6708,7 +6708,9 @@
       <c r="V13" s="19">
         <v>1</v>
       </c>
-      <c r="W13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
@@ -6732,15 +6734,9 @@
         <v>220</v>
       </c>
       <c r="I14" s="542"/>
-      <c r="U14" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="V14" s="6">
-        <v>1</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>580</v>
-      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
@@ -6987,13 +6983,13 @@
       </c>
       <c r="P26" s="444"/>
       <c r="Q26" s="451">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="T26" s="455" t="s">
         <v>542</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W26" s="19" t="s">
         <v>543</v>
@@ -7229,7 +7225,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="458"/>
-      <c r="AN1" s="590"/>
+      <c r="AN1" s="587"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7238,23 +7234,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="614">
+      <c r="A2" s="569">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="616" t="s">
+      <c r="B2" s="571" t="s">
         <v>379</v>
       </c>
       <c r="C2" s="561" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="618" t="s">
+      <c r="D2" s="573" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="563" t="s">
+      <c r="E2" s="617" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="571" t="s">
+      <c r="F2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="446" t="s">
@@ -7267,17 +7263,17 @@
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="565" t="s">
+      <c r="K2" s="619" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="566"/>
-      <c r="M2" s="571" t="s">
+      <c r="L2" s="620"/>
+      <c r="M2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="597" t="s">
+      <c r="O2" s="596" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
@@ -7287,7 +7283,7 @@
         <v>144</v>
       </c>
       <c r="R2" s="524"/>
-      <c r="S2" s="584" t="s">
+      <c r="S2" s="609" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7320,15 +7316,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="485"/>
-      <c r="AN2" s="591"/>
+      <c r="AN2" s="588"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="615"/>
-      <c r="B3" s="617"/>
+      <c r="A3" s="570"/>
+      <c r="B3" s="572"/>
       <c r="C3" s="562"/>
-      <c r="D3" s="619"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="572"/>
+      <c r="D3" s="574"/>
+      <c r="E3" s="618"/>
+      <c r="F3" s="593"/>
       <c r="G3" s="447" t="s">
         <v>28</v>
       </c>
@@ -7347,17 +7343,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="572"/>
+      <c r="M3" s="593"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="598"/>
+      <c r="O3" s="597"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="Q3" s="562"/>
       <c r="R3" s="526"/>
-      <c r="S3" s="586"/>
+      <c r="S3" s="610"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7374,7 +7370,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="581" t="s">
+      <c r="AD3" s="608" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7386,13 +7382,13 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="485"/>
-      <c r="AN3" s="591"/>
+      <c r="AN3" s="588"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="630" t="s">
+      <c r="B4" s="585" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="561" t="s">
@@ -7404,7 +7400,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="572"/>
+      <c r="F4" s="593"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7421,11 +7417,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="572"/>
+      <c r="M4" s="593"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="598"/>
+      <c r="O4" s="597"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7452,7 +7448,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="581"/>
+      <c r="AD4" s="608"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7462,7 +7458,7 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="485"/>
-      <c r="AN4" s="591"/>
+      <c r="AN4" s="588"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
@@ -7471,7 +7467,7 @@
       <c r="A5" s="559" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="631"/>
+      <c r="B5" s="586"/>
       <c r="C5" s="562"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
@@ -7479,20 +7475,20 @@
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="572"/>
-      <c r="G5" s="622" t="s">
+      <c r="F5" s="593"/>
+      <c r="G5" s="577" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="622"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="622"/>
-      <c r="L5" s="623"/>
-      <c r="M5" s="572"/>
+      <c r="H5" s="577"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="577"/>
+      <c r="L5" s="578"/>
+      <c r="M5" s="593"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="598"/>
+      <c r="O5" s="597"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7523,24 +7519,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="485"/>
-      <c r="AN5" s="591"/>
+      <c r="AN5" s="588"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="560"/>
-      <c r="B6" s="628" t="s">
+      <c r="B6" s="583" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="557"/>
       <c r="D6" s="558"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="624"/>
-      <c r="H6" s="624"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="625"/>
-      <c r="M6" s="572"/>
-      <c r="O6" s="598"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="579"/>
+      <c r="J6" s="579"/>
+      <c r="K6" s="579"/>
+      <c r="L6" s="580"/>
+      <c r="M6" s="593"/>
+      <c r="O6" s="597"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7564,16 +7560,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="580"/>
+      <c r="AI6" s="602"/>
       <c r="AJ6" s="498" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="580" t="s">
+      <c r="AK6" s="602" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="485"/>
-      <c r="AN6" s="591"/>
+      <c r="AN6" s="588"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7582,7 +7578,7 @@
       <c r="A7" s="245" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="629"/>
+      <c r="B7" s="584"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7592,7 +7588,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="572"/>
+      <c r="F7" s="593"/>
       <c r="G7" s="448">
         <v>0</v>
       </c>
@@ -7611,8 +7607,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="572"/>
-      <c r="O7" s="598"/>
+      <c r="M7" s="593"/>
+      <c r="O7" s="597"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7636,18 +7632,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="581" t="s">
+      <c r="AG7" s="608" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="580"/>
+      <c r="AI7" s="602"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="580"/>
+      <c r="AK7" s="602"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="485"/>
-      <c r="AN7" s="591"/>
+      <c r="AN7" s="588"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7664,25 +7660,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="572"/>
-      <c r="G8" s="623">
-        <v>0</v>
-      </c>
-      <c r="H8" s="620" t="s">
+      <c r="F8" s="593"/>
+      <c r="G8" s="578">
+        <v>0</v>
+      </c>
+      <c r="H8" s="575" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="524"/>
-      <c r="J8" s="620" t="s">
+      <c r="J8" s="575" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="626"/>
-      <c r="L8" s="582"/>
-      <c r="M8" s="595"/>
-      <c r="N8" s="587">
+      <c r="K8" s="581"/>
+      <c r="L8" s="611"/>
+      <c r="M8" s="594"/>
+      <c r="N8" s="614">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="598"/>
+      <c r="O8" s="597"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7700,14 +7696,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="581"/>
+      <c r="AG8" s="608"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="580"/>
+      <c r="AI8" s="602"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="485"/>
-      <c r="AN8" s="591"/>
+      <c r="AN8" s="588"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7722,17 +7718,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="572"/>
-      <c r="G9" s="625"/>
-      <c r="H9" s="621"/>
+      <c r="F9" s="593"/>
+      <c r="G9" s="580"/>
+      <c r="H9" s="576"/>
       <c r="I9" s="526"/>
-      <c r="J9" s="621"/>
-      <c r="K9" s="627"/>
-      <c r="L9" s="583"/>
-      <c r="M9" s="596"/>
-      <c r="N9" s="588"/>
-      <c r="O9" s="599"/>
-      <c r="S9" s="584" t="s">
+      <c r="J9" s="576"/>
+      <c r="K9" s="582"/>
+      <c r="L9" s="612"/>
+      <c r="M9" s="595"/>
+      <c r="N9" s="615"/>
+      <c r="O9" s="598"/>
+      <c r="S9" s="609" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7754,16 +7750,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="581"/>
+      <c r="AG9" s="608"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="580"/>
+      <c r="AI9" s="602"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="580" t="s">
+      <c r="AK9" s="602" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="485"/>
-      <c r="AN9" s="591"/>
+      <c r="AN9" s="588"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -7778,22 +7774,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>42</v>
-      </c>
-      <c r="F10" s="572"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="593"/>
       <c r="N10" s="475" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="574" t="s">
+      <c r="O10" s="626" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="600" t="s">
+      <c r="P10" s="599" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="585"/>
+      <c r="S10" s="613"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7823,16 +7819,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="581"/>
+      <c r="AG10" s="608"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="580"/>
+      <c r="AI10" s="602"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="580"/>
+      <c r="AK10" s="602"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="591"/>
+      <c r="AN10" s="588"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7850,18 +7846,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="572"/>
+      <c r="F11" s="593"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="575"/>
-      <c r="P11" s="601"/>
+      <c r="O11" s="627"/>
+      <c r="P11" s="600"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="585"/>
+      <c r="S11" s="613"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7885,14 +7881,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="581"/>
+      <c r="AG11" s="608"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="485"/>
-      <c r="AN11" s="591"/>
+      <c r="AN11" s="588"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7911,7 +7907,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="572"/>
+      <c r="F12" s="593"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -7920,16 +7916,16 @@
       </c>
       <c r="I12" s="530"/>
       <c r="J12" s="530"/>
-      <c r="K12" s="579"/>
+      <c r="K12" s="631"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="575"/>
-      <c r="P12" s="601"/>
+      <c r="O12" s="627"/>
+      <c r="P12" s="600"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="586"/>
+      <c r="S12" s="610"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7950,16 +7946,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="589" t="s">
+      <c r="AD12" s="616" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="498" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="581" t="s">
+      <c r="AF12" s="608" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="581"/>
+      <c r="AG12" s="608"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -7972,7 +7968,7 @@
       <c r="AM12" s="603" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="591"/>
+      <c r="AN12" s="588"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -7984,17 +7980,17 @@
       <c r="E13" s="505">
         <v>-3</v>
       </c>
-      <c r="F13" s="572"/>
+      <c r="F13" s="593"/>
       <c r="G13" s="530" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="530"/>
       <c r="I13" s="530"/>
-      <c r="J13" s="579"/>
+      <c r="J13" s="631"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="575"/>
-      <c r="P13" s="602"/>
+      <c r="O13" s="627"/>
+      <c r="P13" s="601"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8015,8 +8011,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="589"/>
-      <c r="AF13" s="581"/>
+      <c r="AD13" s="616"/>
+      <c r="AF13" s="608"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8028,7 +8024,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="603"/>
-      <c r="AN13" s="591"/>
+      <c r="AN13" s="588"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="507"/>
@@ -8036,18 +8032,18 @@
       <c r="C14" s="516"/>
       <c r="D14" s="509"/>
       <c r="E14" s="510"/>
-      <c r="F14" s="572"/>
+      <c r="F14" s="593"/>
       <c r="G14" s="530" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="530"/>
       <c r="I14" s="530"/>
-      <c r="J14" s="579"/>
+      <c r="J14" s="631"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="575"/>
+      <c r="O14" s="627"/>
       <c r="Q14" s="61" t="s">
         <v>562</v>
       </c>
@@ -8068,9 +8064,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="589"/>
+      <c r="AD14" s="616"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="581"/>
+      <c r="AF14" s="608"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8078,7 +8074,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="603"/>
-      <c r="AN14" s="591"/>
+      <c r="AN14" s="588"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="506" t="s">
@@ -8087,8 +8083,8 @@
       <c r="C15" s="524" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="572"/>
-      <c r="O15" s="575"/>
+      <c r="F15" s="593"/>
+      <c r="O15" s="627"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8110,8 +8106,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="589"/>
-      <c r="AF15" s="581"/>
+      <c r="AD15" s="616"/>
+      <c r="AF15" s="608"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8125,7 +8121,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="603"/>
-      <c r="AN15" s="591"/>
+      <c r="AN15" s="588"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8147,13 +8143,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="572"/>
+      <c r="F16" s="593"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="575"/>
+      <c r="O16" s="627"/>
       <c r="R16" s="492" t="s">
         <v>185</v>
       </c>
@@ -8185,18 +8181,18 @@
       <c r="AM16" s="485" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="591"/>
+      <c r="AN16" s="588"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="572"/>
+      <c r="F17" s="593"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="575"/>
+      <c r="O17" s="627"/>
       <c r="Q17" s="21" t="s">
         <v>560</v>
       </c>
@@ -8241,7 +8237,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="485"/>
-      <c r="AN17" s="591"/>
+      <c r="AN17" s="588"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8265,21 +8261,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="572"/>
+      <c r="F18" s="593"/>
       <c r="G18" s="374" t="s">
         <v>557</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="575"/>
+      <c r="O18" s="627"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="567" t="s">
+      <c r="R18" s="621" t="s">
         <v>565</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="611" t="s">
+      <c r="U18" s="566" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8300,7 +8296,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="580" t="s">
+      <c r="AF18" s="602" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8312,19 +8308,19 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="485"/>
-      <c r="AN18" s="591"/>
+      <c r="AN18" s="588"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="572"/>
-      <c r="O19" s="575"/>
-      <c r="R19" s="568"/>
+      <c r="F19" s="593"/>
+      <c r="O19" s="627"/>
+      <c r="R19" s="622"/>
       <c r="S19" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="U19" s="612"/>
+      <c r="U19" s="567"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="488" t="s">
@@ -8339,7 +8335,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="580"/>
+      <c r="AF19" s="602"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8349,7 +8345,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="485"/>
-      <c r="AN19" s="591"/>
+      <c r="AN19" s="588"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8370,18 +8366,18 @@
       <c r="E20" s="494">
         <v>-1</v>
       </c>
-      <c r="F20" s="572"/>
+      <c r="F20" s="593"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="575"/>
-      <c r="Q20" s="577" t="s">
+      <c r="O20" s="627"/>
+      <c r="Q20" s="629" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="613"/>
+      <c r="U20" s="568"/>
       <c r="W20" s="462"/>
       <c r="X20" s="489" t="s">
         <v>175</v>
@@ -8411,7 +8407,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="591"/>
+      <c r="AN20" s="588"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8435,12 +8431,12 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="572"/>
-      <c r="O21" s="575"/>
-      <c r="Q21" s="578"/>
+      <c r="F21" s="593"/>
+      <c r="O21" s="627"/>
+      <c r="Q21" s="630"/>
       <c r="T21" s="479"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="608"/>
+      <c r="V21" s="563"/>
       <c r="W21" s="483" t="s">
         <v>176</v>
       </c>
@@ -8478,14 +8474,14 @@
       <c r="AM21" s="485" t="s">
         <v>575</v>
       </c>
-      <c r="AN21" s="591"/>
+      <c r="AN21" s="588"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="572"/>
+      <c r="F22" s="593"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="575"/>
+      <c r="O22" s="627"/>
       <c r="R22" s="491" t="s">
         <v>44</v>
       </c>
@@ -8493,7 +8489,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="609"/>
+      <c r="V22" s="564"/>
       <c r="W22" s="483" t="s">
         <v>176</v>
       </c>
@@ -8511,7 +8507,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="580" t="s">
+      <c r="AJ22" s="602" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8519,7 +8515,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="591"/>
+      <c r="AN22" s="588"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8537,16 +8533,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="572"/>
-      <c r="O23" s="575"/>
-      <c r="Q23" s="577" t="s">
+      <c r="F23" s="593"/>
+      <c r="O23" s="627"/>
+      <c r="Q23" s="629" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="477" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="609"/>
+      <c r="V23" s="564"/>
       <c r="W23" s="148"/>
       <c r="X23" s="486" t="s">
         <v>189</v>
@@ -8562,13 +8558,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="580"/>
+      <c r="AJ23" s="602"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="591"/>
+      <c r="AN23" s="588"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="497" t="s">
@@ -8586,17 +8582,17 @@
       <c r="E24" s="493">
         <v>1</v>
       </c>
-      <c r="F24" s="572"/>
+      <c r="F24" s="593"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="575"/>
-      <c r="Q24" s="578"/>
+      <c r="O24" s="627"/>
+      <c r="Q24" s="630"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="609"/>
+      <c r="V24" s="564"/>
       <c r="W24" s="148"/>
       <c r="X24" s="486" t="s">
         <v>186</v>
@@ -8620,11 +8616,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="591"/>
+      <c r="AN24" s="588"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="572"/>
-      <c r="O25" s="575"/>
+      <c r="F25" s="593"/>
+      <c r="O25" s="627"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8637,7 +8633,7 @@
       <c r="U25" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="610"/>
+      <c r="V25" s="565"/>
       <c r="W25" s="148"/>
       <c r="X25" s="486" t="s">
         <v>190</v>
@@ -8659,7 +8655,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="591"/>
+      <c r="AN25" s="588"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8677,16 +8673,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="572"/>
+      <c r="F26" s="593"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="575"/>
-      <c r="P26" s="593" t="s">
+      <c r="O26" s="627"/>
+      <c r="P26" s="590" t="s">
         <v>551</v>
       </c>
-      <c r="Q26" s="594"/>
-      <c r="R26" s="569" t="s">
+      <c r="Q26" s="591"/>
+      <c r="R26" s="623" t="s">
         <v>564</v>
       </c>
       <c r="T26" s="183"/>
@@ -8725,7 +8721,7 @@
       <c r="AM26" s="499" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="591"/>
+      <c r="AN26" s="588"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8737,12 +8733,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="573"/>
+      <c r="F27" s="625"/>
       <c r="G27" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="O27" s="576"/>
-      <c r="R27" s="570"/>
+      <c r="O27" s="628"/>
+      <c r="R27" s="624"/>
       <c r="S27" s="478" t="s">
         <v>54</v>
       </c>
@@ -8772,10 +8768,48 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="592"/>
+      <c r="AN27" s="589"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8792,44 +8826,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8839,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="P18" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8930,13 +8926,13 @@
       <c r="T1" s="559" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="636" t="s">
+      <c r="U1" s="647" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="638" t="s">
+      <c r="V1" s="649" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="639"/>
+      <c r="W1" s="650"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -8952,40 +8948,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="640" t="s">
+      <c r="AC1" s="651" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="641"/>
-      <c r="AE1" s="642"/>
-      <c r="AF1" s="643" t="s">
+      <c r="AD1" s="652"/>
+      <c r="AE1" s="653"/>
+      <c r="AF1" s="654" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="644"/>
-      <c r="AH1" s="645"/>
-      <c r="AI1" s="632" t="s">
+      <c r="AG1" s="655"/>
+      <c r="AH1" s="656"/>
+      <c r="AI1" s="643" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="633"/>
-      <c r="AK1" s="634"/>
+      <c r="AJ1" s="644"/>
+      <c r="AK1" s="645"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="646">
+      <c r="J2" s="635">
         <f>SUM(J5:J30)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="648">
+      <c r="K2" s="637">
         <f>SUM(K4:K29)</f>
-        <v>6</v>
-      </c>
-      <c r="L2" s="650">
+        <v>4</v>
+      </c>
+      <c r="L2" s="639">
         <f>SUM(L4:L29)</f>
-        <v>6</v>
-      </c>
-      <c r="M2" s="587">
+        <v>5</v>
+      </c>
+      <c r="M2" s="614">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9004,11 +9000,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="652" t="s">
+      <c r="S2" s="641" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="635"/>
-      <c r="U2" s="637"/>
+      <c r="T2" s="646"/>
+      <c r="U2" s="648"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9068,10 +9064,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="647"/>
-      <c r="K3" s="649"/>
-      <c r="L3" s="651"/>
-      <c r="M3" s="588"/>
+      <c r="J3" s="636"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="640"/>
+      <c r="M3" s="615"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9081,13 +9077,13 @@
       </c>
       <c r="Q3" s="150">
         <f>SUM(Q4:Q29)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>42</v>
-      </c>
-      <c r="S3" s="653"/>
+        <v>43</v>
+      </c>
+      <c r="S3" s="642"/>
       <c r="T3" s="560"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
@@ -9099,7 +9095,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9107,15 +9103,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9123,7 +9119,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9135,7 +9131,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9143,19 +9139,19 @@
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9189,7 +9185,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="654" t="s">
+      <c r="M4" s="632" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9268,7 +9264,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="655"/>
+      <c r="M5" s="633"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9356,7 +9352,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="655"/>
+      <c r="M6" s="633"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9446,7 +9442,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="655"/>
+      <c r="M7" s="633"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9554,7 +9550,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="655"/>
+      <c r="M8" s="633"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9572,7 +9568,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9640,7 +9636,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="655"/>
+      <c r="M9" s="633"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9740,7 +9736,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="655"/>
+      <c r="M10" s="633"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -9819,7 +9815,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="655"/>
+      <c r="M11" s="633"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -9881,7 +9877,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="623" t="s">
+      <c r="A12" s="578" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -9890,7 +9886,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="577" t="s">
+      <c r="E12" s="629" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -9910,7 +9906,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="655"/>
+      <c r="M12" s="633"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -9984,14 +9980,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="625"/>
+      <c r="A13" s="580"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="578"/>
+      <c r="E13" s="630"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10012,7 +10008,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="655"/>
+      <c r="M13" s="633"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10087,7 +10083,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="655"/>
+      <c r="M14" s="633"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10170,7 +10166,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M15" s="655"/>
+      <c r="M15" s="633"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10257,7 +10253,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M16" s="655"/>
+      <c r="M16" s="633"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10344,7 +10340,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="655"/>
+      <c r="M17" s="633"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10427,7 +10423,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="655"/>
+      <c r="M18" s="633"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10514,7 +10510,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M19" s="655"/>
+      <c r="M19" s="633"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10603,11 +10599,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="656"/>
+      <c r="M20" s="634"/>
       <c r="N20" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="579"/>
+      <c r="O20" s="631"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10691,11 +10687,11 @@
       </c>
       <c r="J21" s="365"/>
       <c r="K21" s="107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="311">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="2" t="s">
@@ -10705,10 +10701,10 @@
         <v>250</v>
       </c>
       <c r="Q21" s="164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="338">
         <v>-1</v>
@@ -10718,50 +10714,50 @@
       <c r="V21" s="343"/>
       <c r="W21" s="190">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="314"/>
       <c r="Y21" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="308">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC21" s="312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="318"/>
       <c r="AE21" s="314"/>
       <c r="AF21" s="314">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="373">
         <v>0</v>
       </c>
       <c r="AH21" s="158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="326">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="327">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="328">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="6" t="s">
         <v>84</v>
@@ -10848,7 +10844,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="630" t="s">
+      <c r="E23" s="585" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -10934,7 +10930,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="631"/>
+      <c r="E24" s="586"/>
       <c r="F24" s="177"/>
       <c r="I24" s="431" t="s">
         <v>301</v>
@@ -10952,7 +10948,7 @@
       <c r="N24" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="579"/>
+      <c r="O24" s="631"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12022,23 +12018,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12075,12 +12071,12 @@
       <c r="B1" s="529" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="579"/>
+      <c r="C1" s="631"/>
       <c r="D1" s="214"/>
       <c r="J1" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="579"/>
+      <c r="K1" s="631"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12471,7 +12467,7 @@
       <c r="V1" s="529" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="579"/>
+      <c r="W1" s="631"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12490,7 +12486,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="670" t="s">
+      <c r="AD1" s="677" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12507,10 +12503,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="669" t="s">
+      <c r="F2" s="708" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="697" t="s">
+      <c r="G2" s="665" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12538,10 +12534,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="638" t="s">
+      <c r="V2" s="649" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="639"/>
+      <c r="W2" s="650"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12560,7 +12556,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="671"/>
+      <c r="AD2" s="678"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12579,8 +12575,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="627"/>
-      <c r="G3" s="698"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="666"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12591,13 +12587,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="707" t="s">
+      <c r="O3" s="675" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="689" t="s">
+      <c r="P3" s="696" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="690"/>
+      <c r="Q3" s="697"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12607,15 +12603,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="671"/>
+      <c r="AD3" s="678"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="698"/>
+      <c r="G4" s="666"/>
       <c r="H4" s="6"/>
       <c r="L4" s="660" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="708"/>
+      <c r="O4" s="676"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12629,8 +12625,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="530"/>
-      <c r="AA4" s="579"/>
-      <c r="AD4" s="671"/>
+      <c r="AA4" s="631"/>
+      <c r="AD4" s="678"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12645,21 +12641,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="698"/>
+      <c r="G5" s="666"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="676" t="s">
+      <c r="K5" s="683" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="691"/>
+      <c r="L5" s="698"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="708"/>
+      <c r="O5" s="676"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12675,11 +12671,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="679" t="s">
+      <c r="Y5" s="686" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="680"/>
-      <c r="AD5" s="671"/>
+      <c r="Z5" s="687"/>
+      <c r="AD5" s="678"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12689,16 +12685,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="698"/>
+      <c r="G6" s="666"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="677"/>
-      <c r="L6" s="691"/>
-      <c r="O6" s="708"/>
+      <c r="K6" s="684"/>
+      <c r="L6" s="698"/>
+      <c r="O6" s="676"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12711,20 +12707,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="671"/>
+      <c r="AD6" s="678"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="698"/>
+      <c r="G7" s="666"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="677"/>
-      <c r="L7" s="691"/>
+      <c r="K7" s="684"/>
+      <c r="L7" s="698"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="708"/>
+      <c r="O7" s="676"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="671"/>
+      <c r="AD7" s="678"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12737,7 +12733,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="698"/>
+      <c r="G8" s="666"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12747,41 +12743,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="677"/>
-      <c r="L8" s="691"/>
-      <c r="O8" s="708"/>
+      <c r="K8" s="684"/>
+      <c r="L8" s="698"/>
+      <c r="O8" s="676"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="673" t="s">
+      <c r="S8" s="680" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="674"/>
-      <c r="U8" s="674"/>
-      <c r="V8" s="674"/>
-      <c r="W8" s="674"/>
-      <c r="X8" s="674"/>
-      <c r="Y8" s="674"/>
-      <c r="Z8" s="674"/>
-      <c r="AA8" s="674"/>
-      <c r="AB8" s="674"/>
-      <c r="AC8" s="675"/>
-      <c r="AD8" s="671"/>
+      <c r="T8" s="681"/>
+      <c r="U8" s="681"/>
+      <c r="V8" s="681"/>
+      <c r="W8" s="681"/>
+      <c r="X8" s="681"/>
+      <c r="Y8" s="681"/>
+      <c r="Z8" s="681"/>
+      <c r="AA8" s="681"/>
+      <c r="AB8" s="681"/>
+      <c r="AC8" s="682"/>
+      <c r="AD8" s="678"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="663"/>
-      <c r="G9" s="698"/>
+      <c r="C9" s="702"/>
+      <c r="G9" s="666"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="677"/>
-      <c r="L9" s="701" t="s">
+      <c r="K9" s="684"/>
+      <c r="L9" s="669" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="702"/>
-      <c r="N9" s="703"/>
-      <c r="O9" s="708"/>
+      <c r="M9" s="670"/>
+      <c r="N9" s="671"/>
+      <c r="O9" s="676"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="671"/>
+      <c r="AD9" s="678"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="664"/>
+      <c r="C10" s="703"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -12789,7 +12785,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="698"/>
+      <c r="G10" s="666"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -12797,33 +12793,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="677"/>
-      <c r="M10" s="666" t="s">
+      <c r="K10" s="684"/>
+      <c r="M10" s="705" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="667"/>
-      <c r="O10" s="667"/>
-      <c r="P10" s="667"/>
-      <c r="Q10" s="667"/>
-      <c r="R10" s="667"/>
-      <c r="S10" s="667"/>
-      <c r="T10" s="667"/>
-      <c r="U10" s="667"/>
-      <c r="V10" s="667"/>
-      <c r="W10" s="667"/>
-      <c r="X10" s="667"/>
-      <c r="Y10" s="667"/>
-      <c r="Z10" s="667"/>
-      <c r="AA10" s="667"/>
-      <c r="AB10" s="667"/>
-      <c r="AC10" s="668"/>
-      <c r="AD10" s="671"/>
+      <c r="N10" s="706"/>
+      <c r="O10" s="706"/>
+      <c r="P10" s="706"/>
+      <c r="Q10" s="706"/>
+      <c r="R10" s="706"/>
+      <c r="S10" s="706"/>
+      <c r="T10" s="706"/>
+      <c r="U10" s="706"/>
+      <c r="V10" s="706"/>
+      <c r="W10" s="706"/>
+      <c r="X10" s="706"/>
+      <c r="Y10" s="706"/>
+      <c r="Z10" s="706"/>
+      <c r="AA10" s="706"/>
+      <c r="AB10" s="706"/>
+      <c r="AC10" s="707"/>
+      <c r="AD10" s="678"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="665"/>
-      <c r="G11" s="698"/>
+      <c r="C11" s="704"/>
+      <c r="G11" s="666"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="677"/>
+      <c r="K11" s="684"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -12831,17 +12827,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="687" t="s">
+      <c r="Z11" s="694" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="688"/>
+      <c r="AA11" s="695"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="671"/>
+      <c r="AD11" s="678"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -12854,7 +12850,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="698"/>
+      <c r="G12" s="666"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -12862,8 +12858,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="677"/>
-      <c r="L12" s="692" t="s">
+      <c r="K12" s="684"/>
+      <c r="L12" s="699" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -12894,25 +12890,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="681" t="s">
+      <c r="AA12" s="688" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="682"/>
+      <c r="AB12" s="689"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="671"/>
+      <c r="AD12" s="678"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="663"/>
-      <c r="G13" s="698"/>
-      <c r="K13" s="677"/>
-      <c r="L13" s="693"/>
+      <c r="C13" s="702"/>
+      <c r="G13" s="666"/>
+      <c r="K13" s="684"/>
+      <c r="L13" s="700"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="700" t="s">
+      <c r="Q13" s="668" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="594"/>
+      <c r="R13" s="591"/>
       <c r="S13" s="525"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -12921,17 +12917,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="683"/>
-      <c r="AB13" s="684"/>
-      <c r="AD13" s="671"/>
+      <c r="AA13" s="690"/>
+      <c r="AB13" s="691"/>
+      <c r="AD13" s="678"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="665"/>
+      <c r="C14" s="704"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="698"/>
+      <c r="G14" s="666"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -12939,8 +12935,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="677"/>
-      <c r="L14" s="693"/>
+      <c r="K14" s="684"/>
+      <c r="L14" s="700"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -12961,9 +12957,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="683"/>
-      <c r="AB14" s="684"/>
-      <c r="AD14" s="671"/>
+      <c r="AA14" s="690"/>
+      <c r="AB14" s="691"/>
+      <c r="AD14" s="678"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -12978,19 +12974,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="698"/>
+      <c r="G15" s="666"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="677"/>
-      <c r="L15" s="694"/>
-      <c r="Q15" s="700" t="s">
+      <c r="K15" s="684"/>
+      <c r="L15" s="701"/>
+      <c r="Q15" s="668" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="594"/>
+      <c r="R15" s="591"/>
       <c r="S15" s="525"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -12999,14 +12995,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="683"/>
-      <c r="AB15" s="684"/>
-      <c r="AD15" s="671"/>
+      <c r="AA15" s="690"/>
+      <c r="AB15" s="691"/>
+      <c r="AD15" s="678"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="698"/>
-      <c r="K16" s="677"/>
+      <c r="G16" s="666"/>
+      <c r="K16" s="684"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13025,24 +13021,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="683"/>
-      <c r="AB16" s="684"/>
-      <c r="AD16" s="671"/>
+      <c r="AA16" s="690"/>
+      <c r="AB16" s="691"/>
+      <c r="AD16" s="678"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="695" t="s">
+      <c r="F17" s="663" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="698"/>
+      <c r="G17" s="666"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="677"/>
+      <c r="K17" s="684"/>
       <c r="S17" s="525"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13050,9 +13046,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="683"/>
-      <c r="AB17" s="684"/>
-      <c r="AD17" s="671"/>
+      <c r="AA17" s="690"/>
+      <c r="AB17" s="691"/>
+      <c r="AD17" s="678"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13062,15 +13058,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="696"/>
-      <c r="G18" s="698"/>
+      <c r="F18" s="664"/>
+      <c r="G18" s="666"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="677"/>
+      <c r="K18" s="684"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13081,42 +13077,39 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="685"/>
-      <c r="AB18" s="686"/>
-      <c r="AD18" s="671"/>
+      <c r="AA18" s="692"/>
+      <c r="AB18" s="693"/>
+      <c r="AD18" s="678"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="699"/>
-      <c r="K19" s="678"/>
+      <c r="G19" s="667"/>
+      <c r="K19" s="685"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="704" t="s">
+      <c r="R19" s="672" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="705"/>
-      <c r="T19" s="706"/>
+      <c r="S19" s="673"/>
+      <c r="T19" s="674"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="672"/>
+      <c r="AD19" s="679"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13128,11 +13121,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2582D2-4BB5-431F-83EB-6D7F31BB1A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDBC42-C7CC-4212-9E82-EF1B2547168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BoardRW" sheetId="1" r:id="rId1"/>
@@ -4724,6 +4724,141 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4796,140 +4931,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4940,130 +5006,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5141,25 +5120,46 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6310,8 +6310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6575,7 +6575,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="525"/>
       <c r="I10" s="542"/>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="Q29" s="457"/>
       <c r="R29" s="460">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S29" s="521">
         <v>-1</v>
@@ -7068,7 +7068,7 @@
         <v>418</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>235</v>
@@ -7225,7 +7225,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="458"/>
-      <c r="AN1" s="587"/>
+      <c r="AN1" s="590"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7234,23 +7234,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569">
+      <c r="A2" s="614">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="571" t="s">
+      <c r="B2" s="616" t="s">
         <v>379</v>
       </c>
       <c r="C2" s="561" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="573" t="s">
+      <c r="D2" s="618" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="617" t="s">
+      <c r="E2" s="563" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="592" t="s">
+      <c r="F2" s="571" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="446" t="s">
@@ -7263,17 +7263,17 @@
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="619" t="s">
+      <c r="K2" s="565" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="620"/>
-      <c r="M2" s="592" t="s">
+      <c r="L2" s="566"/>
+      <c r="M2" s="571" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="596" t="s">
+      <c r="O2" s="597" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
@@ -7283,7 +7283,7 @@
         <v>144</v>
       </c>
       <c r="R2" s="524"/>
-      <c r="S2" s="609" t="s">
+      <c r="S2" s="584" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7316,15 +7316,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="485"/>
-      <c r="AN2" s="588"/>
+      <c r="AN2" s="591"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="570"/>
-      <c r="B3" s="572"/>
+      <c r="A3" s="615"/>
+      <c r="B3" s="617"/>
       <c r="C3" s="562"/>
-      <c r="D3" s="574"/>
-      <c r="E3" s="618"/>
-      <c r="F3" s="593"/>
+      <c r="D3" s="619"/>
+      <c r="E3" s="564"/>
+      <c r="F3" s="572"/>
       <c r="G3" s="447" t="s">
         <v>28</v>
       </c>
@@ -7343,17 +7343,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="593"/>
+      <c r="M3" s="572"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="597"/>
+      <c r="O3" s="598"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="Q3" s="562"/>
       <c r="R3" s="526"/>
-      <c r="S3" s="610"/>
+      <c r="S3" s="586"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7370,7 +7370,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="608" t="s">
+      <c r="AD3" s="581" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7382,13 +7382,13 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="485"/>
-      <c r="AN3" s="588"/>
+      <c r="AN3" s="591"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="585" t="s">
+      <c r="B4" s="630" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="561" t="s">
@@ -7400,7 +7400,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="593"/>
+      <c r="F4" s="572"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7417,11 +7417,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="593"/>
+      <c r="M4" s="572"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="597"/>
+      <c r="O4" s="598"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7448,7 +7448,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="608"/>
+      <c r="AD4" s="581"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7458,7 +7458,7 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="485"/>
-      <c r="AN4" s="588"/>
+      <c r="AN4" s="591"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="A5" s="559" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="586"/>
+      <c r="B5" s="631"/>
       <c r="C5" s="562"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
@@ -7475,20 +7475,20 @@
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="593"/>
-      <c r="G5" s="577" t="s">
+      <c r="F5" s="572"/>
+      <c r="G5" s="622" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="577"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="577"/>
-      <c r="L5" s="578"/>
-      <c r="M5" s="593"/>
+      <c r="H5" s="622"/>
+      <c r="I5" s="622"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="622"/>
+      <c r="L5" s="623"/>
+      <c r="M5" s="572"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="597"/>
+      <c r="O5" s="598"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7519,24 +7519,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="485"/>
-      <c r="AN5" s="588"/>
+      <c r="AN5" s="591"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="560"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="628" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="557"/>
       <c r="D6" s="558"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="579"/>
-      <c r="L6" s="580"/>
-      <c r="M6" s="593"/>
-      <c r="O6" s="597"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="624"/>
+      <c r="H6" s="624"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="624"/>
+      <c r="L6" s="625"/>
+      <c r="M6" s="572"/>
+      <c r="O6" s="598"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7560,16 +7560,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="602"/>
+      <c r="AI6" s="580"/>
       <c r="AJ6" s="498" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="602" t="s">
+      <c r="AK6" s="580" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="485"/>
-      <c r="AN6" s="588"/>
+      <c r="AN6" s="591"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7578,7 +7578,7 @@
       <c r="A7" s="245" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="584"/>
+      <c r="B7" s="629"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="593"/>
+      <c r="F7" s="572"/>
       <c r="G7" s="448">
         <v>0</v>
       </c>
@@ -7607,8 +7607,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="593"/>
-      <c r="O7" s="597"/>
+      <c r="M7" s="572"/>
+      <c r="O7" s="598"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7632,18 +7632,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="608" t="s">
+      <c r="AG7" s="581" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="602"/>
+      <c r="AI7" s="580"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="602"/>
+      <c r="AK7" s="580"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="485"/>
-      <c r="AN7" s="588"/>
+      <c r="AN7" s="591"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7660,25 +7660,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="593"/>
-      <c r="G8" s="578">
-        <v>0</v>
-      </c>
-      <c r="H8" s="575" t="s">
+      <c r="F8" s="572"/>
+      <c r="G8" s="623">
+        <v>0</v>
+      </c>
+      <c r="H8" s="620" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="524"/>
-      <c r="J8" s="575" t="s">
+      <c r="J8" s="620" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="581"/>
-      <c r="L8" s="611"/>
-      <c r="M8" s="594"/>
-      <c r="N8" s="614">
+      <c r="K8" s="626"/>
+      <c r="L8" s="582"/>
+      <c r="M8" s="595"/>
+      <c r="N8" s="587">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="597"/>
+      <c r="O8" s="598"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7696,14 +7696,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="608"/>
+      <c r="AG8" s="581"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="602"/>
+      <c r="AI8" s="580"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="485"/>
-      <c r="AN8" s="588"/>
+      <c r="AN8" s="591"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7718,17 +7718,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="593"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="576"/>
+      <c r="F9" s="572"/>
+      <c r="G9" s="625"/>
+      <c r="H9" s="621"/>
       <c r="I9" s="526"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="582"/>
-      <c r="L9" s="612"/>
-      <c r="M9" s="595"/>
-      <c r="N9" s="615"/>
-      <c r="O9" s="598"/>
-      <c r="S9" s="609" t="s">
+      <c r="J9" s="621"/>
+      <c r="K9" s="627"/>
+      <c r="L9" s="583"/>
+      <c r="M9" s="596"/>
+      <c r="N9" s="588"/>
+      <c r="O9" s="599"/>
+      <c r="S9" s="584" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7750,16 +7750,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="608"/>
+      <c r="AG9" s="581"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="602"/>
+      <c r="AI9" s="580"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="602" t="s">
+      <c r="AK9" s="580" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="485"/>
-      <c r="AN9" s="588"/>
+      <c r="AN9" s="591"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -7774,22 +7774,22 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>43</v>
-      </c>
-      <c r="F10" s="593"/>
+        <v>44</v>
+      </c>
+      <c r="F10" s="572"/>
       <c r="N10" s="475" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="626" t="s">
+      <c r="O10" s="574" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="599" t="s">
+      <c r="P10" s="600" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="613"/>
+      <c r="S10" s="585"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7819,16 +7819,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="608"/>
+      <c r="AG10" s="581"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="602"/>
+      <c r="AI10" s="580"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="602"/>
+      <c r="AK10" s="580"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="588"/>
+      <c r="AN10" s="591"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7846,18 +7846,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="593"/>
+      <c r="F11" s="572"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="627"/>
-      <c r="P11" s="600"/>
+      <c r="O11" s="575"/>
+      <c r="P11" s="601"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="613"/>
+      <c r="S11" s="585"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7881,14 +7881,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="608"/>
+      <c r="AG11" s="581"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="485"/>
-      <c r="AN11" s="588"/>
+      <c r="AN11" s="591"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="593"/>
+      <c r="F12" s="572"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -7916,16 +7916,16 @@
       </c>
       <c r="I12" s="530"/>
       <c r="J12" s="530"/>
-      <c r="K12" s="631"/>
+      <c r="K12" s="579"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="627"/>
-      <c r="P12" s="600"/>
+      <c r="O12" s="575"/>
+      <c r="P12" s="601"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="610"/>
+      <c r="S12" s="586"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7946,16 +7946,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="616" t="s">
+      <c r="AD12" s="589" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="498" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="608" t="s">
+      <c r="AF12" s="581" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="608"/>
+      <c r="AG12" s="581"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -7968,7 +7968,7 @@
       <c r="AM12" s="603" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="588"/>
+      <c r="AN12" s="591"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -7980,17 +7980,17 @@
       <c r="E13" s="505">
         <v>-3</v>
       </c>
-      <c r="F13" s="593"/>
+      <c r="F13" s="572"/>
       <c r="G13" s="530" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="530"/>
       <c r="I13" s="530"/>
-      <c r="J13" s="631"/>
+      <c r="J13" s="579"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="627"/>
-      <c r="P13" s="601"/>
+      <c r="O13" s="575"/>
+      <c r="P13" s="602"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8011,8 +8011,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="616"/>
-      <c r="AF13" s="608"/>
+      <c r="AD13" s="589"/>
+      <c r="AF13" s="581"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8024,7 +8024,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="603"/>
-      <c r="AN13" s="588"/>
+      <c r="AN13" s="591"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="507"/>
@@ -8032,18 +8032,18 @@
       <c r="C14" s="516"/>
       <c r="D14" s="509"/>
       <c r="E14" s="510"/>
-      <c r="F14" s="593"/>
+      <c r="F14" s="572"/>
       <c r="G14" s="530" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="530"/>
       <c r="I14" s="530"/>
-      <c r="J14" s="631"/>
+      <c r="J14" s="579"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="627"/>
+      <c r="O14" s="575"/>
       <c r="Q14" s="61" t="s">
         <v>562</v>
       </c>
@@ -8064,9 +8064,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="616"/>
+      <c r="AD14" s="589"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="608"/>
+      <c r="AF14" s="581"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8074,7 +8074,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="603"/>
-      <c r="AN14" s="588"/>
+      <c r="AN14" s="591"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="506" t="s">
@@ -8083,8 +8083,8 @@
       <c r="C15" s="524" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="593"/>
-      <c r="O15" s="627"/>
+      <c r="F15" s="572"/>
+      <c r="O15" s="575"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8106,8 +8106,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="616"/>
-      <c r="AF15" s="608"/>
+      <c r="AD15" s="589"/>
+      <c r="AF15" s="581"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8121,7 +8121,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="603"/>
-      <c r="AN15" s="588"/>
+      <c r="AN15" s="591"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8143,13 +8143,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="593"/>
+      <c r="F16" s="572"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="627"/>
+      <c r="O16" s="575"/>
       <c r="R16" s="492" t="s">
         <v>185</v>
       </c>
@@ -8181,18 +8181,18 @@
       <c r="AM16" s="485" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="588"/>
+      <c r="AN16" s="591"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="593"/>
+      <c r="F17" s="572"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="627"/>
+      <c r="O17" s="575"/>
       <c r="Q17" s="21" t="s">
         <v>560</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="485"/>
-      <c r="AN17" s="588"/>
+      <c r="AN17" s="591"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8261,21 +8261,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="593"/>
+      <c r="F18" s="572"/>
       <c r="G18" s="374" t="s">
         <v>557</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="627"/>
+      <c r="O18" s="575"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
+      <c r="R18" s="567" t="s">
         <v>565</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="566" t="s">
+      <c r="U18" s="611" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8296,7 +8296,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="602" t="s">
+      <c r="AF18" s="580" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8308,19 +8308,19 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="485"/>
-      <c r="AN18" s="588"/>
+      <c r="AN18" s="591"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="593"/>
-      <c r="O19" s="627"/>
-      <c r="R19" s="622"/>
+      <c r="F19" s="572"/>
+      <c r="O19" s="575"/>
+      <c r="R19" s="568"/>
       <c r="S19" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="U19" s="567"/>
+      <c r="U19" s="612"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="488" t="s">
@@ -8335,7 +8335,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="602"/>
+      <c r="AF19" s="580"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="485"/>
-      <c r="AN19" s="588"/>
+      <c r="AN19" s="591"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8366,18 +8366,18 @@
       <c r="E20" s="494">
         <v>-1</v>
       </c>
-      <c r="F20" s="593"/>
+      <c r="F20" s="572"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="627"/>
-      <c r="Q20" s="629" t="s">
+      <c r="O20" s="575"/>
+      <c r="Q20" s="577" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="568"/>
+      <c r="U20" s="613"/>
       <c r="W20" s="462"/>
       <c r="X20" s="489" t="s">
         <v>175</v>
@@ -8407,7 +8407,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="588"/>
+      <c r="AN20" s="591"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8431,12 +8431,12 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="593"/>
-      <c r="O21" s="627"/>
-      <c r="Q21" s="630"/>
+      <c r="F21" s="572"/>
+      <c r="O21" s="575"/>
+      <c r="Q21" s="578"/>
       <c r="T21" s="479"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="563"/>
+      <c r="V21" s="608"/>
       <c r="W21" s="483" t="s">
         <v>176</v>
       </c>
@@ -8474,14 +8474,14 @@
       <c r="AM21" s="485" t="s">
         <v>575</v>
       </c>
-      <c r="AN21" s="588"/>
+      <c r="AN21" s="591"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="593"/>
+      <c r="F22" s="572"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="627"/>
+      <c r="O22" s="575"/>
       <c r="R22" s="491" t="s">
         <v>44</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="564"/>
+      <c r="V22" s="609"/>
       <c r="W22" s="483" t="s">
         <v>176</v>
       </c>
@@ -8507,7 +8507,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="602" t="s">
+      <c r="AJ22" s="580" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8515,7 +8515,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="588"/>
+      <c r="AN22" s="591"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8533,16 +8533,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="593"/>
-      <c r="O23" s="627"/>
-      <c r="Q23" s="629" t="s">
+      <c r="F23" s="572"/>
+      <c r="O23" s="575"/>
+      <c r="Q23" s="577" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="477" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="564"/>
+      <c r="V23" s="609"/>
       <c r="W23" s="148"/>
       <c r="X23" s="486" t="s">
         <v>189</v>
@@ -8558,13 +8558,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="602"/>
+      <c r="AJ23" s="580"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="588"/>
+      <c r="AN23" s="591"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="497" t="s">
@@ -8582,17 +8582,17 @@
       <c r="E24" s="493">
         <v>1</v>
       </c>
-      <c r="F24" s="593"/>
+      <c r="F24" s="572"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="627"/>
-      <c r="Q24" s="630"/>
+      <c r="O24" s="575"/>
+      <c r="Q24" s="578"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="564"/>
+      <c r="V24" s="609"/>
       <c r="W24" s="148"/>
       <c r="X24" s="486" t="s">
         <v>186</v>
@@ -8616,11 +8616,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="588"/>
+      <c r="AN24" s="591"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="593"/>
-      <c r="O25" s="627"/>
+      <c r="F25" s="572"/>
+      <c r="O25" s="575"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8633,7 +8633,7 @@
       <c r="U25" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="565"/>
+      <c r="V25" s="610"/>
       <c r="W25" s="148"/>
       <c r="X25" s="486" t="s">
         <v>190</v>
@@ -8655,7 +8655,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="588"/>
+      <c r="AN25" s="591"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8673,16 +8673,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="593"/>
+      <c r="F26" s="572"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="627"/>
-      <c r="P26" s="590" t="s">
+      <c r="O26" s="575"/>
+      <c r="P26" s="593" t="s">
         <v>551</v>
       </c>
-      <c r="Q26" s="591"/>
-      <c r="R26" s="623" t="s">
+      <c r="Q26" s="594"/>
+      <c r="R26" s="569" t="s">
         <v>564</v>
       </c>
       <c r="T26" s="183"/>
@@ -8721,7 +8721,7 @@
       <c r="AM26" s="499" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="588"/>
+      <c r="AN26" s="591"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8733,12 +8733,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="625"/>
+      <c r="F27" s="573"/>
       <c r="G27" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="O27" s="628"/>
-      <c r="R27" s="624"/>
+      <c r="O27" s="576"/>
+      <c r="R27" s="570"/>
       <c r="S27" s="478" t="s">
         <v>54</v>
       </c>
@@ -8768,32 +8768,26 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="589"/>
+      <c r="AN27" s="592"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8810,22 +8804,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8835,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="O5" workbookViewId="0">
-      <selection activeCell="AG25" sqref="AG25"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8926,13 +8926,13 @@
       <c r="T1" s="559" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="647" t="s">
+      <c r="U1" s="636" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="649" t="s">
+      <c r="V1" s="638" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="650"/>
+      <c r="W1" s="639"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -8948,40 +8948,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="651" t="s">
+      <c r="AC1" s="640" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="652"/>
-      <c r="AE1" s="653"/>
-      <c r="AF1" s="654" t="s">
+      <c r="AD1" s="641"/>
+      <c r="AE1" s="642"/>
+      <c r="AF1" s="643" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="655"/>
-      <c r="AH1" s="656"/>
-      <c r="AI1" s="643" t="s">
+      <c r="AG1" s="644"/>
+      <c r="AH1" s="645"/>
+      <c r="AI1" s="632" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="644"/>
-      <c r="AK1" s="645"/>
+      <c r="AJ1" s="633"/>
+      <c r="AK1" s="634"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="635">
+      <c r="J2" s="646">
         <f>SUM(J5:J30)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="637">
+      <c r="K2" s="648">
         <f>SUM(K4:K29)</f>
+        <v>3</v>
+      </c>
+      <c r="L2" s="650">
+        <f>SUM(L4:L29)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="639">
-        <f>SUM(L4:L29)</f>
-        <v>5</v>
-      </c>
-      <c r="M2" s="614">
+      <c r="M2" s="587">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9000,11 +9000,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="641" t="s">
+      <c r="S2" s="652" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="646"/>
-      <c r="U2" s="648"/>
+      <c r="T2" s="635"/>
+      <c r="U2" s="637"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9064,10 +9064,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="636"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="640"/>
-      <c r="M3" s="615"/>
+      <c r="J3" s="647"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="651"/>
+      <c r="M3" s="588"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9081,9 +9081,9 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>43</v>
-      </c>
-      <c r="S3" s="642"/>
+        <v>44</v>
+      </c>
+      <c r="S3" s="653"/>
       <c r="T3" s="560"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
@@ -9095,7 +9095,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9103,15 +9103,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9143,15 +9143,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9185,7 +9185,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="632" t="s">
+      <c r="M4" s="654" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9264,7 +9264,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="633"/>
+      <c r="M5" s="655"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9352,7 +9352,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="633"/>
+      <c r="M6" s="655"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9442,7 +9442,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="633"/>
+      <c r="M7" s="655"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9550,7 +9550,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="633"/>
+      <c r="M8" s="655"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -9636,7 +9636,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="633"/>
+      <c r="M9" s="655"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9736,7 +9736,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="633"/>
+      <c r="M10" s="655"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -9815,7 +9815,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="633"/>
+      <c r="M11" s="655"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="578" t="s">
+      <c r="A12" s="623" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -9886,7 +9886,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="629" t="s">
+      <c r="E12" s="577" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -9906,7 +9906,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="633"/>
+      <c r="M12" s="655"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -9980,14 +9980,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="580"/>
+      <c r="A13" s="625"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="630"/>
+      <c r="E13" s="578"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10008,7 +10008,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="633"/>
+      <c r="M13" s="655"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10083,7 +10083,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="633"/>
+      <c r="M14" s="655"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10166,7 +10166,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M15" s="633"/>
+      <c r="M15" s="655"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10247,13 +10247,13 @@
       <c r="I16" s="434"/>
       <c r="J16" s="363"/>
       <c r="K16" s="107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="311">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="633"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="655"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10265,7 +10265,7 @@
       </c>
       <c r="Q16" s="164"/>
       <c r="R16" s="157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S16" s="338">
         <v>-3</v>
@@ -10275,46 +10275,48 @@
       <c r="V16" s="345"/>
       <c r="W16" s="190">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="314"/>
       <c r="Y16" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="308">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC16" s="312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="318"/>
       <c r="AE16" s="314"/>
       <c r="AF16" s="314">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="373"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="373">
+        <v>0</v>
+      </c>
       <c r="AH16" s="158"/>
       <c r="AI16" s="326">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="327">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="328">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="6" t="s">
         <v>235</v>
@@ -10340,7 +10342,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="633"/>
+      <c r="M17" s="655"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10423,7 +10425,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="633"/>
+      <c r="M18" s="655"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10510,7 +10512,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M19" s="633"/>
+      <c r="M19" s="655"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10599,11 +10601,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="634"/>
+      <c r="M20" s="656"/>
       <c r="N20" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="631"/>
+      <c r="O20" s="579"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10844,7 +10846,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="585" t="s">
+      <c r="E23" s="630" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -10930,7 +10932,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="586"/>
+      <c r="E24" s="631"/>
       <c r="F24" s="177"/>
       <c r="I24" s="431" t="s">
         <v>301</v>
@@ -10948,7 +10950,7 @@
       <c r="N24" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="631"/>
+      <c r="O24" s="579"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12018,23 +12020,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12071,12 +12073,12 @@
       <c r="B1" s="529" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="631"/>
+      <c r="C1" s="579"/>
       <c r="D1" s="214"/>
       <c r="J1" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="631"/>
+      <c r="K1" s="579"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12467,7 +12469,7 @@
       <c r="V1" s="529" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="631"/>
+      <c r="W1" s="579"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12486,7 +12488,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="677" t="s">
+      <c r="AD1" s="670" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12503,10 +12505,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="708" t="s">
+      <c r="F2" s="669" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="697" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12534,10 +12536,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="649" t="s">
+      <c r="V2" s="638" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="650"/>
+      <c r="W2" s="639"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12556,7 +12558,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="678"/>
+      <c r="AD2" s="671"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12575,8 +12577,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="582"/>
-      <c r="G3" s="666"/>
+      <c r="F3" s="627"/>
+      <c r="G3" s="698"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12587,13 +12589,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="675" t="s">
+      <c r="O3" s="707" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="696" t="s">
+      <c r="P3" s="689" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="697"/>
+      <c r="Q3" s="690"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12603,15 +12605,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="678"/>
+      <c r="AD3" s="671"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="666"/>
+      <c r="G4" s="698"/>
       <c r="H4" s="6"/>
       <c r="L4" s="660" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="676"/>
+      <c r="O4" s="708"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12625,8 +12627,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="530"/>
-      <c r="AA4" s="631"/>
-      <c r="AD4" s="678"/>
+      <c r="AA4" s="579"/>
+      <c r="AD4" s="671"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12641,21 +12643,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="666"/>
+      <c r="G5" s="698"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="683" t="s">
+      <c r="K5" s="676" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="698"/>
+      <c r="L5" s="691"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="676"/>
+      <c r="O5" s="708"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12671,11 +12673,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="686" t="s">
+      <c r="Y5" s="679" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="687"/>
-      <c r="AD5" s="678"/>
+      <c r="Z5" s="680"/>
+      <c r="AD5" s="671"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12685,16 +12687,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="666"/>
+      <c r="G6" s="698"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="684"/>
-      <c r="L6" s="698"/>
-      <c r="O6" s="676"/>
+      <c r="K6" s="677"/>
+      <c r="L6" s="691"/>
+      <c r="O6" s="708"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12707,20 +12709,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="678"/>
+      <c r="AD6" s="671"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="666"/>
+      <c r="G7" s="698"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="684"/>
-      <c r="L7" s="698"/>
+      <c r="K7" s="677"/>
+      <c r="L7" s="691"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="676"/>
+      <c r="O7" s="708"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="678"/>
+      <c r="AD7" s="671"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12733,7 +12735,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="666"/>
+      <c r="G8" s="698"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12743,41 +12745,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="698"/>
-      <c r="O8" s="676"/>
+      <c r="K8" s="677"/>
+      <c r="L8" s="691"/>
+      <c r="O8" s="708"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="680" t="s">
+      <c r="S8" s="673" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="681"/>
-      <c r="U8" s="681"/>
-      <c r="V8" s="681"/>
-      <c r="W8" s="681"/>
-      <c r="X8" s="681"/>
-      <c r="Y8" s="681"/>
-      <c r="Z8" s="681"/>
-      <c r="AA8" s="681"/>
-      <c r="AB8" s="681"/>
-      <c r="AC8" s="682"/>
-      <c r="AD8" s="678"/>
+      <c r="T8" s="674"/>
+      <c r="U8" s="674"/>
+      <c r="V8" s="674"/>
+      <c r="W8" s="674"/>
+      <c r="X8" s="674"/>
+      <c r="Y8" s="674"/>
+      <c r="Z8" s="674"/>
+      <c r="AA8" s="674"/>
+      <c r="AB8" s="674"/>
+      <c r="AC8" s="675"/>
+      <c r="AD8" s="671"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="702"/>
-      <c r="G9" s="666"/>
+      <c r="C9" s="663"/>
+      <c r="G9" s="698"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="684"/>
-      <c r="L9" s="669" t="s">
+      <c r="K9" s="677"/>
+      <c r="L9" s="701" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="670"/>
-      <c r="N9" s="671"/>
-      <c r="O9" s="676"/>
+      <c r="M9" s="702"/>
+      <c r="N9" s="703"/>
+      <c r="O9" s="708"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="678"/>
+      <c r="AD9" s="671"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="703"/>
+      <c r="C10" s="664"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -12785,7 +12787,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="666"/>
+      <c r="G10" s="698"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -12793,33 +12795,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="684"/>
-      <c r="M10" s="705" t="s">
+      <c r="K10" s="677"/>
+      <c r="M10" s="666" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="706"/>
-      <c r="O10" s="706"/>
-      <c r="P10" s="706"/>
-      <c r="Q10" s="706"/>
-      <c r="R10" s="706"/>
-      <c r="S10" s="706"/>
-      <c r="T10" s="706"/>
-      <c r="U10" s="706"/>
-      <c r="V10" s="706"/>
-      <c r="W10" s="706"/>
-      <c r="X10" s="706"/>
-      <c r="Y10" s="706"/>
-      <c r="Z10" s="706"/>
-      <c r="AA10" s="706"/>
-      <c r="AB10" s="706"/>
-      <c r="AC10" s="707"/>
-      <c r="AD10" s="678"/>
+      <c r="N10" s="667"/>
+      <c r="O10" s="667"/>
+      <c r="P10" s="667"/>
+      <c r="Q10" s="667"/>
+      <c r="R10" s="667"/>
+      <c r="S10" s="667"/>
+      <c r="T10" s="667"/>
+      <c r="U10" s="667"/>
+      <c r="V10" s="667"/>
+      <c r="W10" s="667"/>
+      <c r="X10" s="667"/>
+      <c r="Y10" s="667"/>
+      <c r="Z10" s="667"/>
+      <c r="AA10" s="667"/>
+      <c r="AB10" s="667"/>
+      <c r="AC10" s="668"/>
+      <c r="AD10" s="671"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="704"/>
-      <c r="G11" s="666"/>
+      <c r="C11" s="665"/>
+      <c r="G11" s="698"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="684"/>
+      <c r="K11" s="677"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -12827,17 +12829,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="694" t="s">
+      <c r="Z11" s="687" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="695"/>
+      <c r="AA11" s="688"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="678"/>
+      <c r="AD11" s="671"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -12850,7 +12852,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="666"/>
+      <c r="G12" s="698"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -12858,8 +12860,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="684"/>
-      <c r="L12" s="699" t="s">
+      <c r="K12" s="677"/>
+      <c r="L12" s="692" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -12890,25 +12892,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="688" t="s">
+      <c r="AA12" s="681" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="689"/>
+      <c r="AB12" s="682"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="678"/>
+      <c r="AD12" s="671"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="702"/>
-      <c r="G13" s="666"/>
-      <c r="K13" s="684"/>
-      <c r="L13" s="700"/>
+      <c r="C13" s="663"/>
+      <c r="G13" s="698"/>
+      <c r="K13" s="677"/>
+      <c r="L13" s="693"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="668" t="s">
+      <c r="Q13" s="700" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="591"/>
+      <c r="R13" s="594"/>
       <c r="S13" s="525"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -12917,17 +12919,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="690"/>
-      <c r="AB13" s="691"/>
-      <c r="AD13" s="678"/>
+      <c r="AA13" s="683"/>
+      <c r="AB13" s="684"/>
+      <c r="AD13" s="671"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="704"/>
+      <c r="C14" s="665"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="666"/>
+      <c r="G14" s="698"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -12935,8 +12937,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="684"/>
-      <c r="L14" s="700"/>
+      <c r="K14" s="677"/>
+      <c r="L14" s="693"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -12957,9 +12959,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="690"/>
-      <c r="AB14" s="691"/>
-      <c r="AD14" s="678"/>
+      <c r="AA14" s="683"/>
+      <c r="AB14" s="684"/>
+      <c r="AD14" s="671"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -12974,19 +12976,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="666"/>
+      <c r="G15" s="698"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="684"/>
-      <c r="L15" s="701"/>
-      <c r="Q15" s="668" t="s">
+      <c r="K15" s="677"/>
+      <c r="L15" s="694"/>
+      <c r="Q15" s="700" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="591"/>
+      <c r="R15" s="594"/>
       <c r="S15" s="525"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -12995,14 +12997,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="690"/>
-      <c r="AB15" s="691"/>
-      <c r="AD15" s="678"/>
+      <c r="AA15" s="683"/>
+      <c r="AB15" s="684"/>
+      <c r="AD15" s="671"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="666"/>
-      <c r="K16" s="684"/>
+      <c r="G16" s="698"/>
+      <c r="K16" s="677"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13021,24 +13023,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="690"/>
-      <c r="AB16" s="691"/>
-      <c r="AD16" s="678"/>
+      <c r="AA16" s="683"/>
+      <c r="AB16" s="684"/>
+      <c r="AD16" s="671"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="663" t="s">
+      <c r="F17" s="695" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="666"/>
+      <c r="G17" s="698"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="684"/>
+      <c r="K17" s="677"/>
       <c r="S17" s="525"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13046,9 +13048,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="690"/>
-      <c r="AB17" s="691"/>
-      <c r="AD17" s="678"/>
+      <c r="AA17" s="683"/>
+      <c r="AB17" s="684"/>
+      <c r="AD17" s="671"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13058,15 +13060,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="664"/>
-      <c r="G18" s="666"/>
+      <c r="F18" s="696"/>
+      <c r="G18" s="698"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="684"/>
+      <c r="K18" s="677"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13077,39 +13079,42 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="692"/>
-      <c r="AB18" s="693"/>
-      <c r="AD18" s="678"/>
+      <c r="AA18" s="685"/>
+      <c r="AB18" s="686"/>
+      <c r="AD18" s="671"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="667"/>
-      <c r="K19" s="685"/>
+      <c r="G19" s="699"/>
+      <c r="K19" s="678"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="672" t="s">
+      <c r="R19" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="673"/>
-      <c r="T19" s="674"/>
+      <c r="S19" s="705"/>
+      <c r="T19" s="706"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="679"/>
+      <c r="AD19" s="672"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13121,14 +13126,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDBC42-C7CC-4212-9E82-EF1B2547168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E521CC-07D2-4C17-AEEB-9E9C6D433EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="586">
   <si>
     <t>Zone</t>
   </si>
@@ -1794,6 +1794,9 @@
   </si>
   <si>
     <t>BA - NBC_Left_Rejected - TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polimer </t>
   </si>
 </sst>
 </file>
@@ -3366,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="709">
+  <cellXfs count="710">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4724,6 +4727,168 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4748,12 +4913,6 @@
     <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4775,161 +4934,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="27" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4973,39 +5009,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5024,25 +5027,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5120,48 +5144,28 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6311,7 +6315,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6661,7 +6665,7 @@
         <v>44</v>
       </c>
       <c r="R12" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" s="24">
         <v>3</v>
@@ -6734,6 +6738,15 @@
         <v>220</v>
       </c>
       <c r="I14" s="542"/>
+      <c r="Q14" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="24">
+        <v>0</v>
+      </c>
+      <c r="S14" s="24">
+        <v>2</v>
+      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -6764,6 +6777,15 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="U15" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
@@ -6777,6 +6799,12 @@
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
+      <c r="U16" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="244" t="s">
@@ -6803,6 +6831,12 @@
       </c>
       <c r="M17" s="21" t="s">
         <v>441</v>
+      </c>
+      <c r="U17" s="709" t="s">
+        <v>247</v>
+      </c>
+      <c r="V17" s="709">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6834,15 +6868,9 @@
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="U19" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="V19" s="6">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>528</v>
-      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
@@ -6873,12 +6901,8 @@
       <c r="M20" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="V20" s="6">
-        <v>1</v>
-      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="542"/>
@@ -7225,7 +7249,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="458"/>
-      <c r="AN1" s="590"/>
+      <c r="AN1" s="587"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7234,23 +7258,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="614">
+      <c r="A2" s="569">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="616" t="s">
+      <c r="B2" s="571" t="s">
         <v>379</v>
       </c>
       <c r="C2" s="561" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="618" t="s">
+      <c r="D2" s="573" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="563" t="s">
+      <c r="E2" s="617" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="571" t="s">
+      <c r="F2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="446" t="s">
@@ -7263,17 +7287,17 @@
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="565" t="s">
+      <c r="K2" s="619" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="566"/>
-      <c r="M2" s="571" t="s">
+      <c r="L2" s="620"/>
+      <c r="M2" s="592" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="597" t="s">
+      <c r="O2" s="596" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
@@ -7283,7 +7307,7 @@
         <v>144</v>
       </c>
       <c r="R2" s="524"/>
-      <c r="S2" s="584" t="s">
+      <c r="S2" s="609" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7316,15 +7340,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="485"/>
-      <c r="AN2" s="591"/>
+      <c r="AN2" s="588"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="615"/>
-      <c r="B3" s="617"/>
+      <c r="A3" s="570"/>
+      <c r="B3" s="572"/>
       <c r="C3" s="562"/>
-      <c r="D3" s="619"/>
-      <c r="E3" s="564"/>
-      <c r="F3" s="572"/>
+      <c r="D3" s="574"/>
+      <c r="E3" s="618"/>
+      <c r="F3" s="593"/>
       <c r="G3" s="447" t="s">
         <v>28</v>
       </c>
@@ -7343,17 +7367,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="572"/>
+      <c r="M3" s="593"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="598"/>
+      <c r="O3" s="597"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="Q3" s="562"/>
       <c r="R3" s="526"/>
-      <c r="S3" s="586"/>
+      <c r="S3" s="610"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7370,7 +7394,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="581" t="s">
+      <c r="AD3" s="608" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7382,13 +7406,13 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="485"/>
-      <c r="AN3" s="591"/>
+      <c r="AN3" s="588"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="630" t="s">
+      <c r="B4" s="585" t="s">
         <v>382</v>
       </c>
       <c r="C4" s="561" t="s">
@@ -7400,7 +7424,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="572"/>
+      <c r="F4" s="593"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7417,11 +7441,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="572"/>
+      <c r="M4" s="593"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="598"/>
+      <c r="O4" s="597"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7448,7 +7472,7 @@
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="581"/>
+      <c r="AD4" s="608"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7458,7 +7482,7 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="485"/>
-      <c r="AN4" s="591"/>
+      <c r="AN4" s="588"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
@@ -7467,7 +7491,7 @@
       <c r="A5" s="559" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="631"/>
+      <c r="B5" s="586"/>
       <c r="C5" s="562"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
@@ -7475,20 +7499,20 @@
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="572"/>
-      <c r="G5" s="622" t="s">
+      <c r="F5" s="593"/>
+      <c r="G5" s="577" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="622"/>
-      <c r="I5" s="622"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="622"/>
-      <c r="L5" s="623"/>
-      <c r="M5" s="572"/>
+      <c r="H5" s="577"/>
+      <c r="I5" s="577"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="577"/>
+      <c r="L5" s="578"/>
+      <c r="M5" s="593"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="598"/>
+      <c r="O5" s="597"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7519,24 +7543,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="485"/>
-      <c r="AN5" s="591"/>
+      <c r="AN5" s="588"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="560"/>
-      <c r="B6" s="628" t="s">
+      <c r="B6" s="583" t="s">
         <v>178</v>
       </c>
       <c r="C6" s="557"/>
       <c r="D6" s="558"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="624"/>
-      <c r="H6" s="624"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="624"/>
-      <c r="L6" s="625"/>
-      <c r="M6" s="572"/>
-      <c r="O6" s="598"/>
+      <c r="F6" s="593"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="579"/>
+      <c r="J6" s="579"/>
+      <c r="K6" s="579"/>
+      <c r="L6" s="580"/>
+      <c r="M6" s="593"/>
+      <c r="O6" s="597"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7560,16 +7584,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="580"/>
+      <c r="AI6" s="602"/>
       <c r="AJ6" s="498" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="580" t="s">
+      <c r="AK6" s="602" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="485"/>
-      <c r="AN6" s="591"/>
+      <c r="AN6" s="588"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7578,7 +7602,7 @@
       <c r="A7" s="245" t="s">
         <v>554</v>
       </c>
-      <c r="B7" s="629"/>
+      <c r="B7" s="584"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7588,7 +7612,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="572"/>
+      <c r="F7" s="593"/>
       <c r="G7" s="448">
         <v>0</v>
       </c>
@@ -7607,8 +7631,8 @@
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="572"/>
-      <c r="O7" s="598"/>
+      <c r="M7" s="593"/>
+      <c r="O7" s="597"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7632,18 +7656,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="581" t="s">
+      <c r="AG7" s="608" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="580"/>
+      <c r="AI7" s="602"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="580"/>
+      <c r="AK7" s="602"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="485"/>
-      <c r="AN7" s="591"/>
+      <c r="AN7" s="588"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7660,25 +7684,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="572"/>
-      <c r="G8" s="623">
-        <v>0</v>
-      </c>
-      <c r="H8" s="620" t="s">
+      <c r="F8" s="593"/>
+      <c r="G8" s="578">
+        <v>0</v>
+      </c>
+      <c r="H8" s="575" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="524"/>
-      <c r="J8" s="620" t="s">
+      <c r="J8" s="575" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="626"/>
-      <c r="L8" s="582"/>
-      <c r="M8" s="595"/>
-      <c r="N8" s="587">
+      <c r="K8" s="581"/>
+      <c r="L8" s="611"/>
+      <c r="M8" s="594"/>
+      <c r="N8" s="614">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="598"/>
+      <c r="O8" s="597"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7696,14 +7720,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="581"/>
+      <c r="AG8" s="608"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="580"/>
+      <c r="AI8" s="602"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="485"/>
-      <c r="AN8" s="591"/>
+      <c r="AN8" s="588"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7718,17 +7742,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="572"/>
-      <c r="G9" s="625"/>
-      <c r="H9" s="621"/>
+      <c r="F9" s="593"/>
+      <c r="G9" s="580"/>
+      <c r="H9" s="576"/>
       <c r="I9" s="526"/>
-      <c r="J9" s="621"/>
-      <c r="K9" s="627"/>
-      <c r="L9" s="583"/>
-      <c r="M9" s="596"/>
-      <c r="N9" s="588"/>
-      <c r="O9" s="599"/>
-      <c r="S9" s="584" t="s">
+      <c r="J9" s="576"/>
+      <c r="K9" s="582"/>
+      <c r="L9" s="612"/>
+      <c r="M9" s="595"/>
+      <c r="N9" s="615"/>
+      <c r="O9" s="598"/>
+      <c r="S9" s="609" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7750,16 +7774,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="581"/>
+      <c r="AG9" s="608"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="580"/>
+      <c r="AI9" s="602"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="580" t="s">
+      <c r="AK9" s="602" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="485"/>
-      <c r="AN9" s="591"/>
+      <c r="AN9" s="588"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -7776,20 +7800,20 @@
         <f>Boat!S8</f>
         <v>44</v>
       </c>
-      <c r="F10" s="572"/>
+      <c r="F10" s="593"/>
       <c r="N10" s="475" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="574" t="s">
+      <c r="O10" s="626" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="600" t="s">
+      <c r="P10" s="599" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="585"/>
+      <c r="S10" s="613"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7819,16 +7843,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="581"/>
+      <c r="AG10" s="608"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="580"/>
+      <c r="AI10" s="602"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="580"/>
+      <c r="AK10" s="602"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="591"/>
+      <c r="AN10" s="588"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7846,18 +7870,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="572"/>
+      <c r="F11" s="593"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="575"/>
-      <c r="P11" s="601"/>
+      <c r="O11" s="627"/>
+      <c r="P11" s="600"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="585"/>
+      <c r="S11" s="613"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7881,14 +7905,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="581"/>
+      <c r="AG11" s="608"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="485"/>
-      <c r="AN11" s="591"/>
+      <c r="AN11" s="588"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7907,7 +7931,7 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="572"/>
+      <c r="F12" s="593"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
@@ -7916,16 +7940,16 @@
       </c>
       <c r="I12" s="530"/>
       <c r="J12" s="530"/>
-      <c r="K12" s="579"/>
+      <c r="K12" s="631"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="575"/>
-      <c r="P12" s="601"/>
+      <c r="O12" s="627"/>
+      <c r="P12" s="600"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="586"/>
+      <c r="S12" s="610"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7946,16 +7970,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="589" t="s">
+      <c r="AD12" s="616" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="498" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="581" t="s">
+      <c r="AF12" s="608" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="581"/>
+      <c r="AG12" s="608"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -7968,7 +7992,7 @@
       <c r="AM12" s="603" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="591"/>
+      <c r="AN12" s="588"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -7980,17 +8004,17 @@
       <c r="E13" s="505">
         <v>-3</v>
       </c>
-      <c r="F13" s="572"/>
+      <c r="F13" s="593"/>
       <c r="G13" s="530" t="s">
         <v>448</v>
       </c>
       <c r="H13" s="530"/>
       <c r="I13" s="530"/>
-      <c r="J13" s="579"/>
+      <c r="J13" s="631"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="575"/>
-      <c r="P13" s="602"/>
+      <c r="O13" s="627"/>
+      <c r="P13" s="601"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8011,8 +8035,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="589"/>
-      <c r="AF13" s="581"/>
+      <c r="AD13" s="616"/>
+      <c r="AF13" s="608"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8024,7 +8048,7 @@
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
       <c r="AM13" s="603"/>
-      <c r="AN13" s="591"/>
+      <c r="AN13" s="588"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="507"/>
@@ -8032,18 +8056,18 @@
       <c r="C14" s="516"/>
       <c r="D14" s="509"/>
       <c r="E14" s="510"/>
-      <c r="F14" s="572"/>
+      <c r="F14" s="593"/>
       <c r="G14" s="530" t="s">
         <v>447</v>
       </c>
       <c r="H14" s="530"/>
       <c r="I14" s="530"/>
-      <c r="J14" s="579"/>
+      <c r="J14" s="631"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="575"/>
+      <c r="O14" s="627"/>
       <c r="Q14" s="61" t="s">
         <v>562</v>
       </c>
@@ -8064,9 +8088,9 @@
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="589"/>
+      <c r="AD14" s="616"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="581"/>
+      <c r="AF14" s="608"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
@@ -8074,7 +8098,7 @@
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
       <c r="AM14" s="603"/>
-      <c r="AN14" s="591"/>
+      <c r="AN14" s="588"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="506" t="s">
@@ -8083,8 +8107,8 @@
       <c r="C15" s="524" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="572"/>
-      <c r="O15" s="575"/>
+      <c r="F15" s="593"/>
+      <c r="O15" s="627"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8106,8 +8130,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="589"/>
-      <c r="AF15" s="581"/>
+      <c r="AD15" s="616"/>
+      <c r="AF15" s="608"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8121,7 +8145,7 @@
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
       <c r="AM15" s="603"/>
-      <c r="AN15" s="591"/>
+      <c r="AN15" s="588"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8143,13 +8167,13 @@
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="572"/>
+      <c r="F16" s="593"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="575"/>
+      <c r="O16" s="627"/>
       <c r="R16" s="492" t="s">
         <v>185</v>
       </c>
@@ -8181,18 +8205,18 @@
       <c r="AM16" s="485" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="591"/>
+      <c r="AN16" s="588"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="572"/>
+      <c r="F17" s="593"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="575"/>
+      <c r="O17" s="627"/>
       <c r="Q17" s="21" t="s">
         <v>560</v>
       </c>
@@ -8237,7 +8261,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="485"/>
-      <c r="AN17" s="591"/>
+      <c r="AN17" s="588"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8261,21 +8285,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="572"/>
+      <c r="F18" s="593"/>
       <c r="G18" s="374" t="s">
         <v>557</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="575"/>
+      <c r="O18" s="627"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="567" t="s">
+      <c r="R18" s="621" t="s">
         <v>565</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="611" t="s">
+      <c r="U18" s="566" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8296,7 +8320,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="580" t="s">
+      <c r="AF18" s="602" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
@@ -8308,19 +8332,19 @@
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="485"/>
-      <c r="AN18" s="591"/>
+      <c r="AN18" s="588"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="572"/>
-      <c r="O19" s="575"/>
-      <c r="R19" s="568"/>
+      <c r="F19" s="593"/>
+      <c r="O19" s="627"/>
+      <c r="R19" s="622"/>
       <c r="S19" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="U19" s="612"/>
+      <c r="U19" s="567"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="488" t="s">
@@ -8335,7 +8359,7 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="580"/>
+      <c r="AF19" s="602"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
@@ -8345,7 +8369,7 @@
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="485"/>
-      <c r="AN19" s="591"/>
+      <c r="AN19" s="588"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8366,18 +8390,18 @@
       <c r="E20" s="494">
         <v>-1</v>
       </c>
-      <c r="F20" s="572"/>
+      <c r="F20" s="593"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="575"/>
-      <c r="Q20" s="577" t="s">
+      <c r="O20" s="627"/>
+      <c r="Q20" s="629" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="461" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="613"/>
+      <c r="U20" s="568"/>
       <c r="W20" s="462"/>
       <c r="X20" s="489" t="s">
         <v>175</v>
@@ -8407,7 +8431,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="591"/>
+      <c r="AN20" s="588"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8431,12 +8455,12 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="572"/>
-      <c r="O21" s="575"/>
-      <c r="Q21" s="578"/>
+      <c r="F21" s="593"/>
+      <c r="O21" s="627"/>
+      <c r="Q21" s="630"/>
       <c r="T21" s="479"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="608"/>
+      <c r="V21" s="563"/>
       <c r="W21" s="483" t="s">
         <v>176</v>
       </c>
@@ -8474,14 +8498,14 @@
       <c r="AM21" s="485" t="s">
         <v>575</v>
       </c>
-      <c r="AN21" s="591"/>
+      <c r="AN21" s="588"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="572"/>
+      <c r="F22" s="593"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="575"/>
+      <c r="O22" s="627"/>
       <c r="R22" s="491" t="s">
         <v>44</v>
       </c>
@@ -8489,7 +8513,7 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="609"/>
+      <c r="V22" s="564"/>
       <c r="W22" s="483" t="s">
         <v>176</v>
       </c>
@@ -8507,7 +8531,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="580" t="s">
+      <c r="AJ22" s="602" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8515,7 +8539,7 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="591"/>
+      <c r="AN22" s="588"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
@@ -8533,16 +8557,16 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="572"/>
-      <c r="O23" s="575"/>
-      <c r="Q23" s="577" t="s">
+      <c r="F23" s="593"/>
+      <c r="O23" s="627"/>
+      <c r="Q23" s="629" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="477" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="609"/>
+      <c r="V23" s="564"/>
       <c r="W23" s="148"/>
       <c r="X23" s="486" t="s">
         <v>189</v>
@@ -8558,13 +8582,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="580"/>
+      <c r="AJ23" s="602"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="591"/>
+      <c r="AN23" s="588"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="497" t="s">
@@ -8582,17 +8606,17 @@
       <c r="E24" s="493">
         <v>1</v>
       </c>
-      <c r="F24" s="572"/>
+      <c r="F24" s="593"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="575"/>
-      <c r="Q24" s="578"/>
+      <c r="O24" s="627"/>
+      <c r="Q24" s="630"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="609"/>
+      <c r="V24" s="564"/>
       <c r="W24" s="148"/>
       <c r="X24" s="486" t="s">
         <v>186</v>
@@ -8616,11 +8640,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="591"/>
+      <c r="AN24" s="588"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="572"/>
-      <c r="O25" s="575"/>
+      <c r="F25" s="593"/>
+      <c r="O25" s="627"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8633,7 +8657,7 @@
       <c r="U25" s="454" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="610"/>
+      <c r="V25" s="565"/>
       <c r="W25" s="148"/>
       <c r="X25" s="486" t="s">
         <v>190</v>
@@ -8655,7 +8679,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="591"/>
+      <c r="AN25" s="588"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8673,16 +8697,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="572"/>
+      <c r="F26" s="593"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="575"/>
-      <c r="P26" s="593" t="s">
+      <c r="O26" s="627"/>
+      <c r="P26" s="590" t="s">
         <v>551</v>
       </c>
-      <c r="Q26" s="594"/>
-      <c r="R26" s="569" t="s">
+      <c r="Q26" s="591"/>
+      <c r="R26" s="623" t="s">
         <v>564</v>
       </c>
       <c r="T26" s="183"/>
@@ -8721,7 +8745,7 @@
       <c r="AM26" s="499" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="591"/>
+      <c r="AN26" s="588"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8733,12 +8757,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="573"/>
+      <c r="F27" s="625"/>
       <c r="G27" s="61" t="s">
         <v>574</v>
       </c>
-      <c r="O27" s="576"/>
-      <c r="R27" s="570"/>
+      <c r="O27" s="628"/>
+      <c r="R27" s="624"/>
       <c r="S27" s="478" t="s">
         <v>54</v>
       </c>
@@ -8768,10 +8792,48 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="592"/>
+      <c r="AN27" s="589"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="AN1:AN27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="M2:M9"/>
+    <mergeCell ref="O2:O9"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AM12:AM15"/>
+    <mergeCell ref="AF18:AF19"/>
+    <mergeCell ref="AJ18:AJ19"/>
+    <mergeCell ref="Y1:Y27"/>
+    <mergeCell ref="AJ22:AJ23"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="V21:V25"/>
     <mergeCell ref="U18:U20"/>
     <mergeCell ref="C2:C3"/>
@@ -8788,44 +8850,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="AN1:AN27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="M2:M9"/>
-    <mergeCell ref="O2:O9"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AM12:AM15"/>
-    <mergeCell ref="AF18:AF19"/>
-    <mergeCell ref="AJ18:AJ19"/>
-    <mergeCell ref="Y1:Y27"/>
-    <mergeCell ref="AJ22:AJ23"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8835,8 +8859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8851,7 +8875,7 @@
     <col min="11" max="11" width="3.85546875" style="65" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -8926,13 +8950,13 @@
       <c r="T1" s="559" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="636" t="s">
+      <c r="U1" s="647" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="638" t="s">
+      <c r="V1" s="649" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="639"/>
+      <c r="W1" s="650"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -8948,40 +8972,40 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="640" t="s">
+      <c r="AC1" s="651" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="641"/>
-      <c r="AE1" s="642"/>
-      <c r="AF1" s="643" t="s">
+      <c r="AD1" s="652"/>
+      <c r="AE1" s="653"/>
+      <c r="AF1" s="654" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="644"/>
-      <c r="AH1" s="645"/>
-      <c r="AI1" s="632" t="s">
+      <c r="AG1" s="655"/>
+      <c r="AH1" s="656"/>
+      <c r="AI1" s="643" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="633"/>
-      <c r="AK1" s="634"/>
+      <c r="AJ1" s="644"/>
+      <c r="AK1" s="645"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="646">
+      <c r="J2" s="635">
         <f>SUM(J5:J30)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="648">
+        <v>2</v>
+      </c>
+      <c r="K2" s="637">
         <f>SUM(K4:K29)</f>
         <v>3</v>
       </c>
-      <c r="L2" s="650">
+      <c r="L2" s="639">
         <f>SUM(L4:L29)</f>
-        <v>4</v>
-      </c>
-      <c r="M2" s="587">
+        <v>5</v>
+      </c>
+      <c r="M2" s="614">
         <f>SUM(K30:K37)* (-1)</f>
         <v>1</v>
       </c>
@@ -9000,11 +9024,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="652" t="s">
+      <c r="S2" s="641" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="635"/>
-      <c r="U2" s="637"/>
+      <c r="T2" s="646"/>
+      <c r="U2" s="648"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9064,10 +9088,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="647"/>
-      <c r="K3" s="649"/>
-      <c r="L3" s="651"/>
-      <c r="M3" s="588"/>
+      <c r="J3" s="636"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="640"/>
+      <c r="M3" s="615"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9083,7 +9107,7 @@
         <f>SUM(R4:R29)</f>
         <v>44</v>
       </c>
-      <c r="S3" s="653"/>
+      <c r="S3" s="642"/>
       <c r="T3" s="560"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
@@ -9091,11 +9115,11 @@
       </c>
       <c r="V3" s="159">
         <f t="shared" ref="V3:AA3" si="0">SUM(V4:V29)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9103,15 +9127,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9119,7 +9143,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9131,7 +9155,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9143,15 +9167,15 @@
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9185,7 +9209,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="654" t="s">
+      <c r="M4" s="632" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9264,7 +9288,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="655"/>
+      <c r="M5" s="633"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9352,7 +9376,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="655"/>
+      <c r="M6" s="633"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9442,7 +9466,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="655"/>
+      <c r="M7" s="633"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9550,7 +9574,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="655"/>
+      <c r="M8" s="633"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9636,7 +9660,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="655"/>
+      <c r="M9" s="633"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9736,7 +9760,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="655"/>
+      <c r="M10" s="633"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -9815,7 +9839,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="655"/>
+      <c r="M11" s="633"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -9877,7 +9901,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="623" t="s">
+      <c r="A12" s="578" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -9886,7 +9910,7 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="577" t="s">
+      <c r="E12" s="629" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
@@ -9906,7 +9930,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="655"/>
+      <c r="M12" s="633"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -9980,14 +10004,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="625"/>
+      <c r="A13" s="580"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="578"/>
+      <c r="E13" s="630"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10008,7 +10032,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="655"/>
+      <c r="M13" s="633"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10083,7 +10107,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="655"/>
+      <c r="M14" s="633"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10166,7 +10190,7 @@
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="M15" s="655"/>
+      <c r="M15" s="633"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10253,7 +10277,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M16" s="655"/>
+      <c r="M16" s="633"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10342,7 +10366,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="655"/>
+      <c r="M17" s="633"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10425,7 +10449,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="655"/>
+      <c r="M18" s="633"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10503,16 +10527,16 @@
         <v>309</v>
       </c>
       <c r="J19" s="118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" s="107">
         <v>0</v>
       </c>
       <c r="L19" s="311">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="655"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="633"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10530,48 +10554,54 @@
       <c r="T19" s="17"/>
       <c r="U19" s="348"/>
       <c r="V19" s="118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="190">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="314"/>
       <c r="Y19" s="117">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="308">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="308"/>
+        <v>3</v>
+      </c>
+      <c r="AA19" s="308">
+        <v>1</v>
+      </c>
       <c r="AB19" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="312"/>
+      <c r="AC19" s="312">
+        <v>1</v>
+      </c>
       <c r="AD19" s="318"/>
       <c r="AE19" s="314"/>
       <c r="AF19" s="314">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="373"/>
       <c r="AH19" s="158"/>
       <c r="AI19" s="326">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="327">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="328">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>585</v>
+      </c>
       <c r="AN19" s="112"/>
     </row>
     <row r="20" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10601,11 +10631,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="656"/>
+      <c r="M20" s="634"/>
       <c r="N20" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="579"/>
+      <c r="O20" s="631"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10846,7 +10876,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="630" t="s">
+      <c r="E23" s="585" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -10932,7 +10962,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="631"/>
+      <c r="E24" s="586"/>
       <c r="F24" s="177"/>
       <c r="I24" s="431" t="s">
         <v>301</v>
@@ -10950,7 +10980,7 @@
       <c r="N24" s="529" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="579"/>
+      <c r="O24" s="631"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -12020,23 +12050,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="T1:T3"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="M4:M20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AF1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12073,12 +12103,12 @@
       <c r="B1" s="529" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="579"/>
+      <c r="C1" s="631"/>
       <c r="D1" s="214"/>
       <c r="J1" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="579"/>
+      <c r="K1" s="631"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12469,7 +12499,7 @@
       <c r="V1" s="529" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="579"/>
+      <c r="W1" s="631"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12488,7 +12518,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="670" t="s">
+      <c r="AD1" s="677" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12505,10 +12535,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="669" t="s">
+      <c r="F2" s="708" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="697" t="s">
+      <c r="G2" s="665" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12536,10 +12566,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="638" t="s">
+      <c r="V2" s="649" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="639"/>
+      <c r="W2" s="650"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12558,7 +12588,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="671"/>
+      <c r="AD2" s="678"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12577,8 +12607,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="627"/>
-      <c r="G3" s="698"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="666"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12589,13 +12619,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="707" t="s">
+      <c r="O3" s="675" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="689" t="s">
+      <c r="P3" s="696" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="690"/>
+      <c r="Q3" s="697"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12605,15 +12635,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="671"/>
+      <c r="AD3" s="678"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="698"/>
+      <c r="G4" s="666"/>
       <c r="H4" s="6"/>
       <c r="L4" s="660" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="708"/>
+      <c r="O4" s="676"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12627,8 +12657,8 @@
         <v>195</v>
       </c>
       <c r="Z4" s="530"/>
-      <c r="AA4" s="579"/>
-      <c r="AD4" s="671"/>
+      <c r="AA4" s="631"/>
+      <c r="AD4" s="678"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12643,21 +12673,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="698"/>
+      <c r="G5" s="666"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="676" t="s">
+      <c r="K5" s="683" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="691"/>
+      <c r="L5" s="698"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="708"/>
+      <c r="O5" s="676"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12673,11 +12703,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="679" t="s">
+      <c r="Y5" s="686" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="680"/>
-      <c r="AD5" s="671"/>
+      <c r="Z5" s="687"/>
+      <c r="AD5" s="678"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12687,16 +12717,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="698"/>
+      <c r="G6" s="666"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="677"/>
-      <c r="L6" s="691"/>
-      <c r="O6" s="708"/>
+      <c r="K6" s="684"/>
+      <c r="L6" s="698"/>
+      <c r="O6" s="676"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12709,20 +12739,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="671"/>
+      <c r="AD6" s="678"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="698"/>
+      <c r="G7" s="666"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="677"/>
-      <c r="L7" s="691"/>
+      <c r="K7" s="684"/>
+      <c r="L7" s="698"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="708"/>
+      <c r="O7" s="676"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="671"/>
+      <c r="AD7" s="678"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12735,7 +12765,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="698"/>
+      <c r="G8" s="666"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12745,41 +12775,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="677"/>
-      <c r="L8" s="691"/>
-      <c r="O8" s="708"/>
+      <c r="K8" s="684"/>
+      <c r="L8" s="698"/>
+      <c r="O8" s="676"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="673" t="s">
+      <c r="S8" s="680" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="674"/>
-      <c r="U8" s="674"/>
-      <c r="V8" s="674"/>
-      <c r="W8" s="674"/>
-      <c r="X8" s="674"/>
-      <c r="Y8" s="674"/>
-      <c r="Z8" s="674"/>
-      <c r="AA8" s="674"/>
-      <c r="AB8" s="674"/>
-      <c r="AC8" s="675"/>
-      <c r="AD8" s="671"/>
+      <c r="T8" s="681"/>
+      <c r="U8" s="681"/>
+      <c r="V8" s="681"/>
+      <c r="W8" s="681"/>
+      <c r="X8" s="681"/>
+      <c r="Y8" s="681"/>
+      <c r="Z8" s="681"/>
+      <c r="AA8" s="681"/>
+      <c r="AB8" s="681"/>
+      <c r="AC8" s="682"/>
+      <c r="AD8" s="678"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="663"/>
-      <c r="G9" s="698"/>
+      <c r="C9" s="702"/>
+      <c r="G9" s="666"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="677"/>
-      <c r="L9" s="701" t="s">
+      <c r="K9" s="684"/>
+      <c r="L9" s="669" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="702"/>
-      <c r="N9" s="703"/>
-      <c r="O9" s="708"/>
+      <c r="M9" s="670"/>
+      <c r="N9" s="671"/>
+      <c r="O9" s="676"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="671"/>
+      <c r="AD9" s="678"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="664"/>
+      <c r="C10" s="703"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -12787,7 +12817,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="698"/>
+      <c r="G10" s="666"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -12795,33 +12825,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="677"/>
-      <c r="M10" s="666" t="s">
+      <c r="K10" s="684"/>
+      <c r="M10" s="705" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="667"/>
-      <c r="O10" s="667"/>
-      <c r="P10" s="667"/>
-      <c r="Q10" s="667"/>
-      <c r="R10" s="667"/>
-      <c r="S10" s="667"/>
-      <c r="T10" s="667"/>
-      <c r="U10" s="667"/>
-      <c r="V10" s="667"/>
-      <c r="W10" s="667"/>
-      <c r="X10" s="667"/>
-      <c r="Y10" s="667"/>
-      <c r="Z10" s="667"/>
-      <c r="AA10" s="667"/>
-      <c r="AB10" s="667"/>
-      <c r="AC10" s="668"/>
-      <c r="AD10" s="671"/>
+      <c r="N10" s="706"/>
+      <c r="O10" s="706"/>
+      <c r="P10" s="706"/>
+      <c r="Q10" s="706"/>
+      <c r="R10" s="706"/>
+      <c r="S10" s="706"/>
+      <c r="T10" s="706"/>
+      <c r="U10" s="706"/>
+      <c r="V10" s="706"/>
+      <c r="W10" s="706"/>
+      <c r="X10" s="706"/>
+      <c r="Y10" s="706"/>
+      <c r="Z10" s="706"/>
+      <c r="AA10" s="706"/>
+      <c r="AB10" s="706"/>
+      <c r="AC10" s="707"/>
+      <c r="AD10" s="678"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="665"/>
-      <c r="G11" s="698"/>
+      <c r="C11" s="704"/>
+      <c r="G11" s="666"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="677"/>
+      <c r="K11" s="684"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -12829,17 +12859,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="687" t="s">
+      <c r="Z11" s="694" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="688"/>
+      <c r="AA11" s="695"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="671"/>
+      <c r="AD11" s="678"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -12852,7 +12882,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="698"/>
+      <c r="G12" s="666"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -12860,8 +12890,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="677"/>
-      <c r="L12" s="692" t="s">
+      <c r="K12" s="684"/>
+      <c r="L12" s="699" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -12892,25 +12922,25 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="681" t="s">
+      <c r="AA12" s="688" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="682"/>
+      <c r="AB12" s="689"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="671"/>
+      <c r="AD12" s="678"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="663"/>
-      <c r="G13" s="698"/>
-      <c r="K13" s="677"/>
-      <c r="L13" s="693"/>
+      <c r="C13" s="702"/>
+      <c r="G13" s="666"/>
+      <c r="K13" s="684"/>
+      <c r="L13" s="700"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="700" t="s">
+      <c r="Q13" s="668" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="594"/>
+      <c r="R13" s="591"/>
       <c r="S13" s="525"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
@@ -12919,17 +12949,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="683"/>
-      <c r="AB13" s="684"/>
-      <c r="AD13" s="671"/>
+      <c r="AA13" s="690"/>
+      <c r="AB13" s="691"/>
+      <c r="AD13" s="678"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="665"/>
+      <c r="C14" s="704"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="698"/>
+      <c r="G14" s="666"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -12937,8 +12967,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="677"/>
-      <c r="L14" s="693"/>
+      <c r="K14" s="684"/>
+      <c r="L14" s="700"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -12959,9 +12989,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="683"/>
-      <c r="AB14" s="684"/>
-      <c r="AD14" s="671"/>
+      <c r="AA14" s="690"/>
+      <c r="AB14" s="691"/>
+      <c r="AD14" s="678"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -12976,19 +13006,19 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="698"/>
+      <c r="G15" s="666"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="677"/>
-      <c r="L15" s="694"/>
-      <c r="Q15" s="700" t="s">
+      <c r="K15" s="684"/>
+      <c r="L15" s="701"/>
+      <c r="Q15" s="668" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="594"/>
+      <c r="R15" s="591"/>
       <c r="S15" s="525"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
@@ -12997,14 +13027,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="683"/>
-      <c r="AB15" s="684"/>
-      <c r="AD15" s="671"/>
+      <c r="AA15" s="690"/>
+      <c r="AB15" s="691"/>
+      <c r="AD15" s="678"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="698"/>
-      <c r="K16" s="677"/>
+      <c r="G16" s="666"/>
+      <c r="K16" s="684"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13023,24 +13053,24 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="683"/>
-      <c r="AB16" s="684"/>
-      <c r="AD16" s="671"/>
+      <c r="AA16" s="690"/>
+      <c r="AB16" s="691"/>
+      <c r="AD16" s="678"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="695" t="s">
+      <c r="F17" s="663" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="698"/>
+      <c r="G17" s="666"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="677"/>
+      <c r="K17" s="684"/>
       <c r="S17" s="525"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
@@ -13048,9 +13078,9 @@
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="683"/>
-      <c r="AB17" s="684"/>
-      <c r="AD17" s="671"/>
+      <c r="AA17" s="690"/>
+      <c r="AB17" s="691"/>
+      <c r="AD17" s="678"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13060,15 +13090,15 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="696"/>
-      <c r="G18" s="698"/>
+      <c r="F18" s="664"/>
+      <c r="G18" s="666"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="677"/>
+      <c r="K18" s="684"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
@@ -13079,42 +13109,39 @@
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="685"/>
-      <c r="AB18" s="686"/>
-      <c r="AD18" s="671"/>
+      <c r="AA18" s="692"/>
+      <c r="AB18" s="693"/>
+      <c r="AD18" s="678"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="699"/>
-      <c r="K19" s="678"/>
+      <c r="G19" s="667"/>
+      <c r="K19" s="685"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="704" t="s">
+      <c r="R19" s="672" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="705"/>
-      <c r="T19" s="706"/>
+      <c r="S19" s="673"/>
+      <c r="T19" s="674"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="672"/>
+      <c r="AD19" s="679"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13126,11 +13153,14 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E521CC-07D2-4C17-AEEB-9E9C6D433EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C327A0-78A1-4FFA-8A3C-06999DCAF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1781,9 +1781,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>CBS</t>
-  </si>
-  <si>
     <t>X_Media_X</t>
   </si>
   <si>
@@ -1797,6 +1794,9 @@
   </si>
   <si>
     <t xml:space="preserve">Polimer </t>
+  </si>
+  <si>
+    <t>X - India - X</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="710">
+  <cellXfs count="709">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5165,7 +5165,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5458,7 +5457,7 @@
   <dimension ref="B1:U28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5626,7 +5625,7 @@
         <v>228</v>
       </c>
       <c r="Q5" s="19">
-        <v>5040</v>
+        <v>5100</v>
       </c>
       <c r="S5" s="532"/>
     </row>
@@ -5678,7 +5677,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="299"/>
@@ -5736,7 +5735,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="297"/>
@@ -5766,7 +5765,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="297"/>
@@ -5784,7 +5783,7 @@
         <v>227</v>
       </c>
       <c r="Q10" s="64">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S10" s="532"/>
     </row>
@@ -5804,7 +5803,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I11" s="374"/>
       <c r="J11" s="295"/>
@@ -5867,7 +5866,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -5902,7 +5901,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -5938,7 +5937,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -6036,7 +6035,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6066,7 +6065,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6194,7 +6193,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6314,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,8 +6529,26 @@
       <c r="O7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="454" t="s">
+      <c r="P7" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q7" s="127" t="s">
         <v>44</v>
+      </c>
+      <c r="R7" s="24">
+        <v>3</v>
+      </c>
+      <c r="S7" s="24">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6546,6 +6563,12 @@
       <c r="G8" s="525"/>
       <c r="I8" s="542"/>
       <c r="N8" s="80"/>
+      <c r="U8" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="244" t="s">
@@ -6567,6 +6590,12 @@
         <v>550</v>
       </c>
       <c r="N9" s="80"/>
+      <c r="U9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
@@ -6579,7 +6608,7 @@
       <c r="D10" s="108"/>
       <c r="E10" s="68">
         <f>Boat!S8</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="525"/>
       <c r="I10" s="542"/>
@@ -6622,18 +6651,21 @@
       <c r="N11" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="P11" s="454" t="s">
+      <c r="P11" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q11" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="V11" s="6">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>479</v>
-      </c>
+      <c r="R11" s="24">
+        <v>0</v>
+      </c>
+      <c r="S11" s="24">
+        <v>2</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="240" t="s">
@@ -6661,21 +6693,8 @@
       <c r="O12" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="24">
-        <v>5</v>
-      </c>
-      <c r="S12" s="24">
-        <v>3</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="V12" s="6">
-        <v>1</v>
-      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6692,7 +6711,7 @@
       <c r="G13" s="525"/>
       <c r="I13" s="542"/>
       <c r="J13" s="108" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
@@ -6706,19 +6725,13 @@
       <c r="N13" s="456" t="s">
         <v>547</v>
       </c>
-      <c r="U13" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="V13" s="19">
-        <v>1</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>580</v>
-      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
@@ -6738,15 +6751,6 @@
         <v>220</v>
       </c>
       <c r="I14" s="542"/>
-      <c r="Q14" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="24">
-        <v>0</v>
-      </c>
-      <c r="S14" s="24">
-        <v>2</v>
-      </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -6777,15 +6781,9 @@
       <c r="M15" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="U15" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="V15" s="6">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>528</v>
-      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
@@ -6799,12 +6797,8 @@
         <v>44</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="U16" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="V16" s="6">
-        <v>1</v>
-      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="244" t="s">
@@ -6832,12 +6826,8 @@
       <c r="M17" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="U17" s="709" t="s">
-        <v>247</v>
-      </c>
-      <c r="V17" s="709">
-        <v>1</v>
-      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
@@ -6859,17 +6849,40 @@
       <c r="I18" s="542"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="O18" s="539" t="s">
+        <v>540</v>
+      </c>
+      <c r="P18" s="540"/>
+      <c r="Q18" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" s="24">
+        <v>3</v>
+      </c>
+      <c r="S18" s="24">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1</v>
+      </c>
+      <c r="W18" s="6" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I19" s="542"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6901,8 +6914,13 @@
       <c r="M20" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="U20" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="V20" s="19">
+        <v>1</v>
+      </c>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="542"/>
@@ -6933,7 +6951,7 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -6942,10 +6960,6 @@
         <v>44</v>
       </c>
       <c r="I23" s="542"/>
-      <c r="O23" s="539" t="s">
-        <v>540</v>
-      </c>
-      <c r="P23" s="540"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
@@ -6955,10 +6969,10 @@
         <v>44</v>
       </c>
       <c r="R24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7100,7 +7114,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="I2:I29"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="A6:A8"/>
@@ -7798,7 +7812,7 @@
       <c r="D10" s="142"/>
       <c r="E10" s="250">
         <f>Boat!S8</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="593"/>
       <c r="N10" s="475" t="s">
@@ -8543,7 +8557,7 @@
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
@@ -8859,8 +8873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P11" workbookViewId="0">
-      <selection activeCell="AL27" sqref="AL27"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8999,11 +9013,11 @@
       </c>
       <c r="K2" s="637">
         <f>SUM(K4:K29)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="639">
         <f>SUM(L4:L29)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" s="614">
         <f>SUM(K30:K37)* (-1)</f>
@@ -9105,7 +9119,7 @@
       </c>
       <c r="R3" s="159">
         <f>SUM(R4:R29)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" s="642"/>
       <c r="T3" s="560"/>
@@ -9119,7 +9133,7 @@
       </c>
       <c r="W3" s="187">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X3" s="59">
         <f t="shared" si="0"/>
@@ -9127,15 +9141,15 @@
       </c>
       <c r="Y3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="66">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA3" s="66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="66">
         <f t="shared" ref="AB3:AK3" si="1">SUM(AB4:AB29)</f>
@@ -9143,7 +9157,7 @@
       </c>
       <c r="AC3" s="66">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="66">
         <f t="shared" si="1"/>
@@ -9155,7 +9169,7 @@
       </c>
       <c r="AF3" s="66">
         <f>SUM(AF4:AF29)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG3" s="412">
         <f t="shared" si="1"/>
@@ -9163,19 +9177,19 @@
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ3" s="329">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK3" s="330">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN3" s="112"/>
     </row>
@@ -9592,7 +9606,7 @@
       </c>
       <c r="S8" s="340">
         <f>R3</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T8" s="17"/>
       <c r="U8" s="348"/>
@@ -10184,11 +10198,11 @@
       </c>
       <c r="J15" s="363"/>
       <c r="K15" s="309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="311">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="633"/>
       <c r="N15" s="20"/>
@@ -10200,7 +10214,7 @@
       </c>
       <c r="Q15" s="164"/>
       <c r="R15" s="157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="338">
         <v>-2</v>
@@ -10210,48 +10224,46 @@
       <c r="V15" s="345"/>
       <c r="W15" s="190">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="314"/>
       <c r="Y15" s="117">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="308">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC15" s="312">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="318"/>
       <c r="AE15" s="314"/>
       <c r="AF15" s="314">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="373"/>
-      <c r="AH15" s="158">
-        <v>1</v>
-      </c>
+      <c r="AH15" s="158"/>
       <c r="AI15" s="326">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="327">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="328">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="6" t="s">
         <v>232</v>
@@ -10600,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AN19" s="112"/>
     </row>

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C327A0-78A1-4FFA-8A3C-06999DCAF2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB38062-8872-413E-A5A1-53BA74449ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="584">
   <si>
     <t>Zone</t>
   </si>
@@ -1662,12 +1662,6 @@
   </si>
   <si>
     <t>Alliance Partner F12 - KM</t>
-  </si>
-  <si>
-    <t>IWP- Pakistan</t>
-  </si>
-  <si>
-    <t>IWP - UAE</t>
   </si>
   <si>
     <t>SkyNew A</t>
@@ -2124,7 +2118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2425,6 +2419,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="76">
     <border>
@@ -3369,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="709">
+  <cellXfs count="711">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4371,9 +4371,6 @@
     <xf numFmtId="0" fontId="3" fillId="50" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4431,7 +4428,6 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4441,21 +4437,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4598,12 +4587,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4727,6 +4710,141 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4799,140 +4917,71 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4943,130 +4992,43 @@
     <xf numFmtId="0" fontId="3" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5144,26 +5106,70 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5492,10 +5498,10 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="437" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="437" t="s">
+      <c r="D2" s="436" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="436" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="106" t="s">
@@ -5507,13 +5513,13 @@
       <c r="H2" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="444" t="s">
+      <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="527" t="s">
+      <c r="J2" s="520" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="528"/>
+      <c r="K2" s="521"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5523,13 +5529,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="529" t="s">
+      <c r="O2" s="522" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="530"/>
-      <c r="Q2" s="530"/>
-      <c r="R2" s="530"/>
-      <c r="S2" s="531" t="s">
+      <c r="P2" s="523"/>
+      <c r="Q2" s="523"/>
+      <c r="R2" s="523"/>
+      <c r="S2" s="524" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5543,7 +5549,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="524"/>
+      <c r="D3" s="517"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5568,7 +5574,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="532"/>
+      <c r="S3" s="525"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5577,7 +5583,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="525"/>
+      <c r="D4" s="518"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5594,7 +5600,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="532"/>
+      <c r="S4" s="525"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5603,7 +5609,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="526"/>
+      <c r="D5" s="519"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5627,7 +5633,7 @@
       <c r="Q5" s="19">
         <v>5100</v>
       </c>
-      <c r="S5" s="532"/>
+      <c r="S5" s="525"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5659,7 +5665,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="532"/>
+      <c r="S6" s="525"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5677,7 +5683,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="299"/>
@@ -5689,7 +5695,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="532"/>
+      <c r="S7" s="525"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5717,7 +5723,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="532"/>
+      <c r="S8" s="525"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5735,7 +5741,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="297"/>
@@ -5750,7 +5756,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="532"/>
+      <c r="S9" s="525"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5765,7 +5771,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="297"/>
@@ -5785,7 +5791,7 @@
       <c r="Q10" s="64">
         <v>85</v>
       </c>
-      <c r="S10" s="532"/>
+      <c r="S10" s="525"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5803,7 +5809,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I11" s="374"/>
       <c r="J11" s="295"/>
@@ -5819,7 +5825,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="532"/>
+      <c r="S11" s="525"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5830,7 +5836,7 @@
         <v>361</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="523"/>
+      <c r="E12" s="516"/>
       <c r="F12" s="396" t="s">
         <v>42</v>
       </c>
@@ -5846,7 +5852,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="532"/>
+      <c r="S12" s="525"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5857,7 +5863,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F13" s="281" t="s">
         <v>370</v>
@@ -5866,7 +5872,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -5880,10 +5886,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="532"/>
+      <c r="S13" s="525"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="532"/>
+      <c r="S14" s="525"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5895,13 +5901,13 @@
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -5909,20 +5915,20 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="536">
+      <c r="M15" s="529">
         <v>45275</v>
       </c>
-      <c r="N15" s="524" t="s">
+      <c r="N15" s="517" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="532"/>
+      <c r="S15" s="525"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="519" t="s">
+      <c r="B16" s="514" t="s">
         <v>377</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -5937,7 +5943,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -5945,9 +5951,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="537"/>
-      <c r="N16" s="525"/>
-      <c r="S16" s="532"/>
+      <c r="M16" s="530"/>
+      <c r="N16" s="518"/>
+      <c r="S16" s="525"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -5957,7 +5963,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="61"/>
-      <c r="E17" s="523"/>
+      <c r="E17" s="516"/>
       <c r="F17" s="21" t="s">
         <v>225</v>
       </c>
@@ -5967,7 +5973,7 @@
       <c r="H17" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I17" s="438" t="s">
+      <c r="I17" s="437" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="139"/>
@@ -5975,15 +5981,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="538"/>
-      <c r="N17" s="526"/>
+      <c r="M17" s="531"/>
+      <c r="N17" s="519"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="532"/>
+      <c r="S17" s="525"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="532"/>
+      <c r="S18" s="525"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -5992,10 +5998,10 @@
       <c r="C19" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D19" s="438" t="s">
+      <c r="D19" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="522"/>
+      <c r="E19" s="515"/>
       <c r="F19" s="100" t="s">
         <v>427</v>
       </c>
@@ -6011,13 +6017,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="536">
+      <c r="M19" s="529">
         <v>45275</v>
       </c>
-      <c r="N19" s="443" t="s">
+      <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="532"/>
+      <c r="S19" s="525"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6035,7 +6041,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6043,11 +6049,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="537"/>
-      <c r="N20" s="432" t="s">
+      <c r="M20" s="530"/>
+      <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="532"/>
+      <c r="S20" s="525"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6065,7 +6071,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6073,15 +6079,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="537"/>
-      <c r="N21" s="432" t="s">
+      <c r="M21" s="530"/>
+      <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="534" t="s">
+      <c r="P21" s="527" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="535"/>
-      <c r="S21" s="532"/>
+      <c r="Q21" s="528"/>
+      <c r="S21" s="525"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6107,11 +6113,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="537"/>
+      <c r="M22" s="530"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="532"/>
+      <c r="S22" s="525"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6137,11 +6143,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="537"/>
+      <c r="M23" s="530"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="532"/>
+      <c r="S23" s="525"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6151,8 +6157,8 @@
         <v>16</v>
       </c>
       <c r="D24" s="411"/>
-      <c r="E24" s="523"/>
-      <c r="F24" s="439" t="s">
+      <c r="E24" s="516"/>
+      <c r="F24" s="438" t="s">
         <v>428</v>
       </c>
       <c r="G24" s="252" t="s">
@@ -6167,7 +6173,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="537"/>
+      <c r="M24" s="530"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6175,7 +6181,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="532"/>
+      <c r="S24" s="525"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6193,7 +6199,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6201,11 +6207,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="537"/>
+      <c r="M25" s="530"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="532"/>
+      <c r="S25" s="525"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6214,10 +6220,10 @@
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="438" t="s">
+      <c r="D26" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="445"/>
+      <c r="E26" s="444"/>
       <c r="F26" s="396"/>
       <c r="G26" s="2" t="s">
         <v>422</v>
@@ -6231,11 +6237,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="537"/>
+      <c r="M26" s="530"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="532"/>
+      <c r="S26" s="525"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6245,7 +6251,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="61"/>
-      <c r="E27" s="445"/>
+      <c r="E27" s="444"/>
       <c r="F27" s="428"/>
       <c r="G27" s="2" t="s">
         <v>530</v>
@@ -6254,12 +6260,12 @@
         <v>537</v>
       </c>
       <c r="I27" s="61"/>
-      <c r="J27" s="440"/>
-      <c r="K27" s="441"/>
-      <c r="L27" s="442"/>
-      <c r="M27" s="537"/>
+      <c r="J27" s="439"/>
+      <c r="K27" s="440"/>
+      <c r="L27" s="441"/>
+      <c r="M27" s="530"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="532"/>
+      <c r="S27" s="525"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6268,11 +6274,11 @@
       <c r="C28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="438" t="s">
+      <c r="D28" s="437" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="445"/>
-      <c r="F28" s="436" t="s">
+      <c r="E28" s="444"/>
+      <c r="F28" s="435" t="s">
         <v>532</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6287,12 +6293,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="538"/>
+      <c r="M28" s="531"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="533"/>
+      <c r="S28" s="526"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6314,7 +6320,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6340,7 +6346,7 @@
     <col min="19" max="19" width="3.140625" style="20" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6365,7 +6371,7 @@
       <c r="O1" s="218" t="s">
         <v>299</v>
       </c>
-      <c r="P1" s="452" t="s">
+      <c r="P1" s="450" t="s">
         <v>408</v>
       </c>
       <c r="R1" s="21" t="s">
@@ -6376,35 +6382,35 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="547">
+      <c r="A2" s="540">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="549" t="s">
+      <c r="B2" s="542" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="561" t="s">
+      <c r="C2" s="554" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="551" t="s">
+      <c r="D2" s="544" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="553" t="s">
+      <c r="E2" s="546" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="559" t="s">
+      <c r="G2" s="552" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="541" t="s">
+      <c r="I2" s="534" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="449" t="s">
+      <c r="J2" s="448" t="s">
         <v>142</v>
       </c>
       <c r="K2" s="172" t="s">
@@ -6422,19 +6428,19 @@
       <c r="O2" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="453">
+      <c r="P2" s="451">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="548"/>
-      <c r="B3" s="550"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="552"/>
-      <c r="E3" s="554"/>
-      <c r="G3" s="560"/>
+      <c r="A3" s="541"/>
+      <c r="B3" s="543"/>
+      <c r="C3" s="555"/>
+      <c r="D3" s="545"/>
+      <c r="E3" s="547"/>
+      <c r="G3" s="553"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="542"/>
+      <c r="I3" s="535"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6447,10 +6453,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="555" t="s">
+      <c r="C4" s="548" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="542"/>
+      <c r="I4" s="535"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
@@ -6459,7 +6465,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="556"/>
+      <c r="C5" s="549"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6469,14 +6475,14 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="524" t="s">
+      <c r="G5" s="517" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="542"/>
-      <c r="J5" s="450" t="s">
+      <c r="I5" s="535"/>
+      <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
       <c r="K5" s="172" t="s">
@@ -6493,22 +6499,22 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="544" t="s">
+      <c r="A6" s="537" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="557"/>
-      <c r="D6" s="558"/>
+      <c r="C6" s="550"/>
+      <c r="D6" s="551"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="525"/>
-      <c r="I6" s="542"/>
+      <c r="G6" s="518"/>
+      <c r="I6" s="535"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="545"/>
+      <c r="A7" s="538"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6518,8 +6524,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="525"/>
-      <c r="I7" s="542"/>
+      <c r="G7" s="518"/>
+      <c r="I7" s="535"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6530,7 +6536,7 @@
         <v>103</v>
       </c>
       <c r="P7" s="99" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q7" s="127" t="s">
         <v>44</v>
@@ -6552,7 +6558,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="546"/>
+      <c r="A8" s="539"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6560,8 +6566,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="525"/>
-      <c r="I8" s="542"/>
+      <c r="G8" s="518"/>
+      <c r="I8" s="535"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6583,11 +6589,11 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="525"/>
+      <c r="G9" s="518"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="542"/>
+      <c r="I9" s="535"/>
       <c r="M9" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="N9" s="80"/>
       <c r="U9" s="6" t="s">
@@ -6599,7 +6605,7 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>391</v>
@@ -6610,8 +6616,8 @@
         <f>Boat!S8</f>
         <v>45</v>
       </c>
-      <c r="G10" s="525"/>
-      <c r="I10" s="542"/>
+      <c r="G10" s="518"/>
+      <c r="I10" s="535"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6619,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N10" s="80"/>
     </row>
@@ -6627,7 +6633,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="524" t="s">
+      <c r="B11" s="517" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6636,8 +6642,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="525"/>
-      <c r="I11" s="542"/>
+      <c r="G11" s="518"/>
+      <c r="I11" s="535"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6645,14 +6651,14 @@
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16" t="s">
         <v>424</v>
       </c>
       <c r="P11" s="99" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>44</v>
@@ -6671,12 +6677,12 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="526"/>
+      <c r="B12" s="519"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="525"/>
-      <c r="I12" s="542"/>
+      <c r="G12" s="518"/>
+      <c r="I12" s="535"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16" t="s">
@@ -6698,32 +6704,32 @@
       <c r="W12" s="6"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="497" t="s">
+      <c r="A13" s="492" t="s">
         <v>446</v>
       </c>
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="524" t="s">
+      <c r="C13" s="517" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="525"/>
-      <c r="I13" s="542"/>
+      <c r="G13" s="518"/>
+      <c r="I13" s="535"/>
       <c r="J13" s="108" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="N13" s="456" t="s">
-        <v>547</v>
+      <c r="N13" s="453" t="s">
+        <v>545</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -6731,12 +6737,12 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="526"/>
+      <c r="C14" s="519"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6746,18 +6752,18 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="526"/>
+      <c r="G14" s="519"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="542"/>
+      <c r="I14" s="535"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="248" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B15" s="247" t="s">
         <v>286</v>
@@ -6768,7 +6774,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="542"/>
+      <c r="I15" s="535"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6776,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>417</v>
@@ -6792,7 +6798,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="542"/>
+      <c r="I16" s="535"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -6819,7 +6825,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="542"/>
+      <c r="I17" s="535"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6831,49 +6837,47 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C18" s="496" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="491" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="436" t="s">
+      <c r="D18" s="435" t="s">
         <v>538</v>
       </c>
-      <c r="E18" s="495" t="s">
+      <c r="E18" s="490" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="I18" s="542"/>
+      <c r="I18" s="535"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="539" t="s">
+      <c r="O18" s="532" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="540"/>
+      <c r="P18" s="533"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="V18" s="6">
-        <v>1</v>
-      </c>
+      <c r="V18" s="6"/>
       <c r="W18" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="542"/>
+      <c r="I19" s="535"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -6887,7 +6891,7 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -6896,7 +6900,7 @@
         <v>445</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E20" s="428">
         <v>-1</v>
@@ -6904,7 +6908,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="542"/>
+      <c r="I20" s="535"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -6923,7 +6927,7 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="542"/>
+      <c r="I21" s="535"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E22" s="382">
         <v>1</v>
@@ -6947,11 +6951,11 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="542"/>
+      <c r="I22" s="535"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -6959,21 +6963,12 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="542"/>
+      <c r="I23" s="535"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="542"/>
-      <c r="Q24" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="24">
-        <v>2</v>
-      </c>
+      <c r="I24" s="535"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="174" t="s">
@@ -6991,8 +6986,8 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="542"/>
-      <c r="J25" s="450" t="s">
+      <c r="I25" s="535"/>
+      <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -7001,7 +6996,7 @@
       <c r="L25" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="444">
+      <c r="P25" s="443">
         <v>1</v>
       </c>
     </row>
@@ -7009,28 +7004,32 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="542"/>
+      <c r="I26" s="535"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
       <c r="L26" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="M26" s="436" t="s">
+      <c r="M26" s="435" t="s">
         <v>538</v>
       </c>
-      <c r="P26" s="444"/>
-      <c r="Q26" s="451">
-        <v>-4</v>
-      </c>
-      <c r="T26" s="455" t="s">
-        <v>542</v>
-      </c>
+      <c r="P26" s="703"/>
+      <c r="Q26" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" s="24">
+        <v>1</v>
+      </c>
+      <c r="S26" s="24">
+        <v>3</v>
+      </c>
+      <c r="T26" s="706"/>
       <c r="V26">
         <v>-1</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7040,20 +7039,17 @@
       <c r="B27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I27" s="542"/>
+      <c r="I27" s="535"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="454" t="s">
+      <c r="P27" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" s="429" t="s">
-        <v>44</v>
-      </c>
-      <c r="S27" s="520"/>
+      <c r="Q27" s="707"/>
+      <c r="R27" s="708"/>
+      <c r="S27" s="708"/>
+      <c r="T27" s="707"/>
       <c r="U27" s="6"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7063,16 +7059,11 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="542"/>
-      <c r="Q28" s="143">
-        <v>-1</v>
-      </c>
-      <c r="R28" s="521" t="s">
-        <v>44</v>
-      </c>
-      <c r="T28" s="455" t="s">
-        <v>541</v>
-      </c>
+      <c r="I28" s="535"/>
+      <c r="Q28" s="704"/>
+      <c r="R28" s="708"/>
+      <c r="S28" s="705"/>
+      <c r="T28" s="706"/>
       <c r="V28">
         <v>-1</v>
       </c>
@@ -7087,7 +7078,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="543"/>
+      <c r="I29" s="536"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7095,17 +7086,11 @@
       <c r="M29" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="Q29" s="457"/>
-      <c r="R29" s="460">
-        <v>-1</v>
-      </c>
-      <c r="S29" s="521">
-        <v>-1</v>
-      </c>
-      <c r="T29" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="V29">
+      <c r="Q29" s="707"/>
+      <c r="R29" s="709"/>
+      <c r="S29" s="708"/>
+      <c r="T29" s="710"/>
+      <c r="V29" s="6">
         <v>-1</v>
       </c>
       <c r="W29" s="6" t="s">
@@ -7138,7 +7123,7 @@
   <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7166,7 +7151,7 @@
     <col min="21" max="21" width="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="490" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="485" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="1.85546875" customWidth="1"/>
     <col min="27" max="27" width="2.140625" customWidth="1"/>
@@ -7193,16 +7178,16 @@
       <c r="B1" s="79" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="512" t="s">
+      <c r="C1" s="507" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="445" t="s">
+      <c r="G1" s="444" t="s">
         <v>137</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="559" t="s">
+      <c r="I1" s="552" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7235,13 +7220,13 @@
       <c r="U1" s="124"/>
       <c r="V1" s="91"/>
       <c r="W1" s="145"/>
-      <c r="X1" s="487" t="s">
+      <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="605" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z1" s="463">
+      <c r="Y1" s="598" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z1" s="458">
         <v>1</v>
       </c>
       <c r="AA1" s="381"/>
@@ -7256,14 +7241,14 @@
       <c r="AH1" s="409"/>
       <c r="AI1" s="409"/>
       <c r="AJ1" s="409"/>
-      <c r="AK1" s="500" t="s">
+      <c r="AK1" s="495" t="s">
         <v>470</v>
       </c>
       <c r="AL1" s="409" t="s">
         <v>517</v>
       </c>
-      <c r="AM1" s="458"/>
-      <c r="AN1" s="587"/>
+      <c r="AM1" s="454"/>
+      <c r="AN1" s="583"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7272,67 +7257,67 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569">
+      <c r="A2" s="607">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="571" t="s">
+      <c r="B2" s="609" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="561" t="s">
+      <c r="C2" s="554" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="573" t="s">
+      <c r="D2" s="611" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="617" t="s">
+      <c r="E2" s="556" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="592" t="s">
+      <c r="F2" s="564" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="446" t="s">
+      <c r="G2" s="445" t="s">
         <v>180</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="560"/>
+      <c r="I2" s="553"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="619" t="s">
+      <c r="K2" s="558" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="620"/>
-      <c r="M2" s="592" t="s">
+      <c r="L2" s="559"/>
+      <c r="M2" s="564" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="596" t="s">
+      <c r="O2" s="590" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="561" t="s">
+      <c r="Q2" s="554" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="524"/>
-      <c r="S2" s="609" t="s">
+      <c r="R2" s="517"/>
+      <c r="S2" s="577" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
       <c r="U2" s="124"/>
       <c r="V2" s="91"/>
       <c r="W2" s="146"/>
-      <c r="X2" s="488" t="s">
+      <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="606"/>
-      <c r="Z2" s="464">
+      <c r="Y2" s="599"/>
+      <c r="Z2" s="459">
         <v>1</v>
       </c>
       <c r="AA2" s="325"/>
@@ -7347,23 +7332,23 @@
       <c r="AH2" s="80"/>
       <c r="AI2" s="80"/>
       <c r="AJ2" s="80"/>
-      <c r="AK2" s="498" t="s">
+      <c r="AK2" s="493" t="s">
         <v>482</v>
       </c>
       <c r="AL2" s="251" t="s">
         <v>481</v>
       </c>
-      <c r="AM2" s="485"/>
-      <c r="AN2" s="588"/>
+      <c r="AM2" s="480"/>
+      <c r="AN2" s="584"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="570"/>
-      <c r="B3" s="572"/>
-      <c r="C3" s="562"/>
-      <c r="D3" s="574"/>
-      <c r="E3" s="618"/>
-      <c r="F3" s="593"/>
-      <c r="G3" s="447" t="s">
+      <c r="A3" s="608"/>
+      <c r="B3" s="610"/>
+      <c r="C3" s="555"/>
+      <c r="D3" s="612"/>
+      <c r="E3" s="557"/>
+      <c r="F3" s="565"/>
+      <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="82" t="s">
@@ -7381,26 +7366,26 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="593"/>
+      <c r="M3" s="565"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="597"/>
+      <c r="O3" s="591"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="562"/>
-      <c r="R3" s="526"/>
-      <c r="S3" s="610"/>
+      <c r="Q3" s="555"/>
+      <c r="R3" s="519"/>
+      <c r="S3" s="579"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
       <c r="W3" s="145"/>
-      <c r="X3" s="488" t="s">
+      <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="606"/>
-      <c r="Z3" s="465">
+      <c r="Y3" s="599"/>
+      <c r="Z3" s="460">
         <v>1</v>
       </c>
       <c r="AA3" s="325"/>
@@ -7408,7 +7393,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="608" t="s">
+      <c r="AD3" s="574" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7419,17 +7404,17 @@
       <c r="AJ3" s="16"/>
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
-      <c r="AM3" s="485"/>
-      <c r="AN3" s="588"/>
+      <c r="AM3" s="480"/>
+      <c r="AN3" s="584"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="585" t="s">
+      <c r="B4" s="623" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="561" t="s">
+      <c r="C4" s="554" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7438,7 +7423,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="593"/>
+      <c r="F4" s="565"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7455,11 +7440,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="593"/>
+      <c r="M4" s="565"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="597"/>
+      <c r="O4" s="591"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7478,15 +7463,15 @@
       <c r="W4" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="488" t="s">
+      <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="606"/>
-      <c r="Z4" s="466"/>
+      <c r="Y4" s="599"/>
+      <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="608"/>
+      <c r="AD4" s="574"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7495,47 +7480,47 @@
       <c r="AJ4" s="16"/>
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
-      <c r="AM4" s="485"/>
-      <c r="AN4" s="588"/>
+      <c r="AM4" s="480"/>
+      <c r="AN4" s="584"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="559" t="s">
+      <c r="A5" s="552" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="586"/>
-      <c r="C5" s="562"/>
+      <c r="B5" s="624"/>
+      <c r="C5" s="555"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="593"/>
-      <c r="G5" s="577" t="s">
+      <c r="F5" s="565"/>
+      <c r="G5" s="615" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="577"/>
-      <c r="I5" s="577"/>
-      <c r="J5" s="577"/>
-      <c r="K5" s="577"/>
-      <c r="L5" s="578"/>
-      <c r="M5" s="593"/>
+      <c r="H5" s="615"/>
+      <c r="I5" s="615"/>
+      <c r="J5" s="615"/>
+      <c r="K5" s="615"/>
+      <c r="L5" s="616"/>
+      <c r="M5" s="565"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="597"/>
+      <c r="O5" s="591"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
       <c r="W5" s="146"/>
-      <c r="X5" s="488" t="s">
+      <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="606"/>
-      <c r="Z5" s="466">
+      <c r="Y5" s="599"/>
+      <c r="Z5" s="461">
         <v>1</v>
       </c>
       <c r="AA5" s="325"/>
@@ -7556,67 +7541,67 @@
       <c r="AJ5" s="16"/>
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
-      <c r="AM5" s="485"/>
-      <c r="AN5" s="588"/>
+      <c r="AM5" s="480"/>
+      <c r="AN5" s="584"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="560"/>
-      <c r="B6" s="583" t="s">
+      <c r="A6" s="553"/>
+      <c r="B6" s="621" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="557"/>
-      <c r="D6" s="558"/>
-      <c r="F6" s="593"/>
-      <c r="G6" s="579"/>
-      <c r="H6" s="579"/>
-      <c r="I6" s="579"/>
-      <c r="J6" s="579"/>
-      <c r="K6" s="579"/>
-      <c r="L6" s="580"/>
-      <c r="M6" s="593"/>
-      <c r="O6" s="597"/>
+      <c r="C6" s="550"/>
+      <c r="D6" s="551"/>
+      <c r="F6" s="565"/>
+      <c r="G6" s="617"/>
+      <c r="H6" s="617"/>
+      <c r="I6" s="617"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="617"/>
+      <c r="L6" s="618"/>
+      <c r="M6" s="565"/>
+      <c r="O6" s="591"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
         <v>176</v>
       </c>
       <c r="W6" s="146"/>
-      <c r="X6" s="488" t="s">
+      <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="606"/>
-      <c r="Z6" s="464">
+      <c r="Y6" s="599"/>
+      <c r="Z6" s="459">
         <v>1</v>
       </c>
       <c r="AA6" s="325"/>
       <c r="AB6" s="219"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="470" t="s">
+      <c r="AD6" s="465" t="s">
         <v>245</v>
       </c>
       <c r="AE6" s="272"/>
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="602"/>
-      <c r="AJ6" s="498" t="s">
+      <c r="AI6" s="573"/>
+      <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="602" t="s">
+      <c r="AK6" s="573" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
-      <c r="AM6" s="485"/>
-      <c r="AN6" s="588"/>
+      <c r="AM6" s="480"/>
+      <c r="AN6" s="584"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="245" t="s">
-        <v>554</v>
-      </c>
-      <c r="B7" s="584"/>
+        <v>552</v>
+      </c>
+      <c r="B7" s="622"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7626,8 +7611,8 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="593"/>
-      <c r="G7" s="448">
+      <c r="F7" s="565"/>
+      <c r="G7" s="447">
         <v>0</v>
       </c>
       <c r="H7" s="150">
@@ -7639,14 +7624,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="524">
+      <c r="K7" s="517">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="593"/>
-      <c r="O7" s="597"/>
+      <c r="M7" s="565"/>
+      <c r="O7" s="591"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7657,11 +7642,11 @@
       <c r="U7" s="124"/>
       <c r="V7" s="92"/>
       <c r="W7" s="146"/>
-      <c r="X7" s="488" t="s">
+      <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="606"/>
-      <c r="Z7" s="464">
+      <c r="Y7" s="599"/>
+      <c r="Z7" s="459">
         <v>1</v>
       </c>
       <c r="AA7" s="325"/>
@@ -7670,18 +7655,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="608" t="s">
+      <c r="AG7" s="574" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="602"/>
+      <c r="AI7" s="573"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="602"/>
+      <c r="AK7" s="573"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
-      <c r="AM7" s="485"/>
-      <c r="AN7" s="588"/>
+      <c r="AM7" s="480"/>
+      <c r="AN7" s="584"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7698,54 +7683,54 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="593"/>
-      <c r="G8" s="578">
-        <v>0</v>
-      </c>
-      <c r="H8" s="575" t="s">
+      <c r="F8" s="565"/>
+      <c r="G8" s="616">
+        <v>0</v>
+      </c>
+      <c r="H8" s="613" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="524"/>
-      <c r="J8" s="575" t="s">
+      <c r="I8" s="517"/>
+      <c r="J8" s="613" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="581"/>
-      <c r="L8" s="611"/>
-      <c r="M8" s="594"/>
-      <c r="N8" s="614">
+      <c r="K8" s="619"/>
+      <c r="L8" s="575"/>
+      <c r="M8" s="588"/>
+      <c r="N8" s="580">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="597"/>
+      <c r="O8" s="591"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
       <c r="U8" s="124"/>
       <c r="V8" s="92"/>
       <c r="W8" s="146"/>
-      <c r="X8" s="488" t="s">
+      <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="606"/>
-      <c r="Z8" s="466"/>
+      <c r="Y8" s="599"/>
+      <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
       <c r="AC8" s="16"/>
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="608"/>
+      <c r="AG8" s="574"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="602"/>
+      <c r="AI8" s="573"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
-      <c r="AM8" s="485"/>
-      <c r="AN8" s="588"/>
+      <c r="AM8" s="480"/>
+      <c r="AN8" s="584"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B9" s="106" t="s">
         <v>197</v>
@@ -7756,17 +7741,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="593"/>
-      <c r="G9" s="580"/>
-      <c r="H9" s="576"/>
-      <c r="I9" s="526"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="582"/>
-      <c r="L9" s="612"/>
-      <c r="M9" s="595"/>
-      <c r="N9" s="615"/>
-      <c r="O9" s="598"/>
-      <c r="S9" s="609" t="s">
+      <c r="F9" s="565"/>
+      <c r="G9" s="618"/>
+      <c r="H9" s="614"/>
+      <c r="I9" s="519"/>
+      <c r="J9" s="614"/>
+      <c r="K9" s="620"/>
+      <c r="L9" s="576"/>
+      <c r="M9" s="589"/>
+      <c r="N9" s="581"/>
+      <c r="O9" s="592"/>
+      <c r="S9" s="577" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7775,36 +7760,36 @@
         <v>176</v>
       </c>
       <c r="W9" s="48"/>
-      <c r="X9" s="488" t="s">
+      <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="606"/>
-      <c r="Z9" s="467"/>
+      <c r="Y9" s="599"/>
+      <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
       <c r="AC9" s="16"/>
-      <c r="AD9" s="470" t="s">
+      <c r="AD9" s="465" t="s">
         <v>245</v>
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="608"/>
+      <c r="AG9" s="574"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="602"/>
+      <c r="AI9" s="573"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="602" t="s">
+      <c r="AK9" s="573" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
-      <c r="AM9" s="485"/>
-      <c r="AN9" s="588"/>
+      <c r="AM9" s="480"/>
+      <c r="AN9" s="584"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="245" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B10" s="105" t="s">
         <v>199</v>
@@ -7814,20 +7799,20 @@
         <f>Boat!S8</f>
         <v>45</v>
       </c>
-      <c r="F10" s="593"/>
-      <c r="N10" s="475" t="s">
+      <c r="F10" s="565"/>
+      <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="626" t="s">
+      <c r="O10" s="567" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="599" t="s">
+      <c r="P10" s="593" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="613"/>
+      <c r="S10" s="578"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7836,11 +7821,11 @@
         <v>222</v>
       </c>
       <c r="W10" s="146"/>
-      <c r="X10" s="488" t="s">
+      <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="606"/>
-      <c r="Z10" s="466">
+      <c r="Y10" s="599"/>
+      <c r="Z10" s="461">
         <v>0</v>
       </c>
       <c r="AA10" s="325">
@@ -7857,16 +7842,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="608"/>
+      <c r="AG10" s="574"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="602"/>
+      <c r="AI10" s="573"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="602"/>
+      <c r="AK10" s="573"/>
       <c r="AL10" s="272"/>
-      <c r="AM10" s="499" t="s">
+      <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="588"/>
+      <c r="AN10" s="584"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7875,38 +7860,38 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="524" t="s">
+      <c r="B11" s="517" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="514" t="s">
+      <c r="C11" s="509" t="s">
         <v>178</v>
       </c>
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="593"/>
+      <c r="F11" s="565"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="627"/>
-      <c r="P11" s="600"/>
+      <c r="O11" s="568"/>
+      <c r="P11" s="594"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="613"/>
+      <c r="S11" s="578"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
       <c r="U11" s="124"/>
       <c r="V11" s="121"/>
       <c r="W11" s="146"/>
-      <c r="X11" s="488" t="s">
+      <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="606"/>
-      <c r="Z11" s="466"/>
+      <c r="Y11" s="599"/>
+      <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
       </c>
@@ -7919,14 +7904,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="608"/>
+      <c r="AG11" s="574"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
-      <c r="AM11" s="485"/>
-      <c r="AN11" s="588"/>
+      <c r="AM11" s="480"/>
+      <c r="AN11" s="584"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7935,8 +7920,8 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="526"/>
-      <c r="C12" s="515" t="s">
+      <c r="B12" s="519"/>
+      <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
       <c r="D12" s="61" t="s">
@@ -7945,36 +7930,36 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="593"/>
+      <c r="F12" s="565"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="529" t="s">
+      <c r="H12" s="522" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="530"/>
-      <c r="J12" s="530"/>
-      <c r="K12" s="631"/>
+      <c r="I12" s="523"/>
+      <c r="J12" s="523"/>
+      <c r="K12" s="572"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="627"/>
-      <c r="P12" s="600"/>
+      <c r="O12" s="568"/>
+      <c r="P12" s="594"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="610"/>
+      <c r="S12" s="579"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
       <c r="U12" s="124"/>
       <c r="V12" s="146"/>
       <c r="W12" s="146"/>
-      <c r="X12" s="488" t="s">
+      <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="606"/>
-      <c r="Z12" s="464">
+      <c r="Y12" s="599"/>
+      <c r="Z12" s="459">
         <v>1</v>
       </c>
       <c r="AA12" s="325">
@@ -7984,16 +7969,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="616" t="s">
+      <c r="AD12" s="582" t="s">
         <v>245</v>
       </c>
-      <c r="AE12" s="498" t="s">
+      <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="608" t="s">
+      <c r="AF12" s="574" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="608"/>
+      <c r="AG12" s="574"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -8003,43 +7988,43 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="603" t="s">
+      <c r="AM12" s="596" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="588"/>
+      <c r="AN12" s="584"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="504" t="s">
+      <c r="B13" s="499" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="505">
+      <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="593"/>
-      <c r="G13" s="530" t="s">
+      <c r="F13" s="565"/>
+      <c r="G13" s="523" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="530"/>
-      <c r="I13" s="530"/>
-      <c r="J13" s="631"/>
+      <c r="H13" s="523"/>
+      <c r="I13" s="523"/>
+      <c r="J13" s="572"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="627"/>
-      <c r="P13" s="601"/>
+      <c r="O13" s="568"/>
+      <c r="P13" s="595"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
       <c r="U13" s="124"/>
       <c r="V13" s="146"/>
       <c r="W13" s="146"/>
-      <c r="X13" s="488" t="s">
+      <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="606"/>
-      <c r="Z13" s="464">
+      <c r="Y13" s="599"/>
+      <c r="Z13" s="459">
         <v>1</v>
       </c>
       <c r="AA13" s="325">
@@ -8049,8 +8034,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="616"/>
-      <c r="AF13" s="608"/>
+      <c r="AD13" s="582"/>
+      <c r="AF13" s="574"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8061,29 +8046,29 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="603"/>
-      <c r="AN13" s="588"/>
+      <c r="AM13" s="596"/>
+      <c r="AN13" s="584"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="507"/>
-      <c r="B14" s="508"/>
-      <c r="C14" s="516"/>
-      <c r="D14" s="509"/>
-      <c r="E14" s="510"/>
-      <c r="F14" s="593"/>
-      <c r="G14" s="530" t="s">
+      <c r="A14" s="502"/>
+      <c r="B14" s="503"/>
+      <c r="C14" s="511"/>
+      <c r="D14" s="504"/>
+      <c r="E14" s="505"/>
+      <c r="F14" s="565"/>
+      <c r="G14" s="523" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="530"/>
-      <c r="I14" s="530"/>
-      <c r="J14" s="631"/>
+      <c r="H14" s="523"/>
+      <c r="I14" s="523"/>
+      <c r="J14" s="572"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="627"/>
+      <c r="O14" s="568"/>
       <c r="Q14" s="61" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="S14" s="169" t="s">
         <v>28</v>
@@ -8092,37 +8077,37 @@
       <c r="U14" s="124"/>
       <c r="V14" s="93"/>
       <c r="W14" s="146"/>
-      <c r="X14" s="488" t="s">
+      <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="606"/>
-      <c r="Z14" s="464">
+      <c r="Y14" s="599"/>
+      <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="616"/>
+      <c r="AD14" s="582"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="608"/>
+      <c r="AF14" s="574"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="603"/>
-      <c r="AN14" s="588"/>
+      <c r="AM14" s="596"/>
+      <c r="AN14" s="584"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="506" t="s">
+      <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="524" t="s">
+      <c r="C15" s="517" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="593"/>
-      <c r="O15" s="627"/>
+      <c r="F15" s="565"/>
+      <c r="O15" s="568"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8132,11 +8117,11 @@
       <c r="W15" s="147" t="s">
         <v>181</v>
       </c>
-      <c r="X15" s="488" t="s">
+      <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="606"/>
-      <c r="Z15" s="466">
+      <c r="Y15" s="599"/>
+      <c r="Z15" s="461">
         <v>1</v>
       </c>
       <c r="AA15" s="325"/>
@@ -8144,8 +8129,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="616"/>
-      <c r="AF15" s="608"/>
+      <c r="AD15" s="582"/>
+      <c r="AF15" s="574"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8158,8 +8143,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="603"/>
-      <c r="AN15" s="588"/>
+      <c r="AM15" s="596"/>
+      <c r="AN15" s="584"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8169,37 +8154,37 @@
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="526"/>
+      <c r="C16" s="519"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="593"/>
+      <c r="F16" s="565"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="627"/>
-      <c r="R16" s="492" t="s">
+      <c r="O16" s="568"/>
+      <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
       <c r="T16" s="89"/>
       <c r="U16" s="124"/>
       <c r="V16" s="94"/>
       <c r="W16" s="146"/>
-      <c r="X16" s="488" t="s">
+      <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="606"/>
-      <c r="Z16" s="464">
+      <c r="Y16" s="599"/>
+      <c r="Z16" s="459">
         <v>1</v>
       </c>
       <c r="AA16" s="325"/>
@@ -8216,23 +8201,23 @@
       </c>
       <c r="AK16" s="272"/>
       <c r="AL16" s="80"/>
-      <c r="AM16" s="485" t="s">
+      <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="588"/>
+      <c r="AN16" s="584"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="593"/>
+      <c r="F17" s="565"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="627"/>
+      <c r="O17" s="568"/>
       <c r="Q17" s="21" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S17" s="169" t="s">
         <v>183</v>
@@ -8247,11 +8232,11 @@
       <c r="W17" s="147" t="s">
         <v>177</v>
       </c>
-      <c r="X17" s="488" t="s">
+      <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="606"/>
-      <c r="Z17" s="466"/>
+      <c r="Y17" s="599"/>
+      <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
       <c r="AC17" s="76" t="s">
@@ -8274,8 +8259,8 @@
       <c r="AJ17" s="80"/>
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
-      <c r="AM17" s="485"/>
-      <c r="AN17" s="588"/>
+      <c r="AM17" s="480"/>
+      <c r="AN17" s="584"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8284,47 +8269,47 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="244" t="s">
-        <v>576</v>
+      <c r="A18" s="702" t="s">
+        <v>574</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C18" s="511" t="s">
+        <v>564</v>
+      </c>
+      <c r="C18" s="506" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="436" t="s">
+      <c r="D18" s="435" t="s">
         <v>538</v>
       </c>
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="593"/>
+      <c r="F18" s="565"/>
       <c r="G18" s="374" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="627"/>
+      <c r="O18" s="568"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="621" t="s">
-        <v>565</v>
+      <c r="R18" s="560" t="s">
+        <v>563</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="566" t="s">
+      <c r="U18" s="604" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
       <c r="W18" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="X18" s="488" t="s">
+      <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="606"/>
-      <c r="Z18" s="466">
+      <c r="Y18" s="599"/>
+      <c r="Z18" s="461">
         <v>1</v>
       </c>
       <c r="AA18" s="325"/>
@@ -8334,38 +8319,38 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="602" t="s">
+      <c r="AF18" s="573" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="604" t="s">
+      <c r="AJ18" s="597" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
-      <c r="AM18" s="485"/>
-      <c r="AN18" s="588"/>
+      <c r="AM18" s="480"/>
+      <c r="AN18" s="584"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="593"/>
-      <c r="O19" s="627"/>
-      <c r="R19" s="622"/>
+      <c r="F19" s="565"/>
+      <c r="O19" s="568"/>
+      <c r="R19" s="561"/>
       <c r="S19" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="U19" s="567"/>
+        <v>561</v>
+      </c>
+      <c r="U19" s="605"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
-      <c r="X19" s="488" t="s">
+      <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="606"/>
-      <c r="Z19" s="464">
+      <c r="Y19" s="599"/>
+      <c r="Z19" s="459">
         <v>1</v>
       </c>
       <c r="AA19" s="325"/>
@@ -8373,79 +8358,79 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="602"/>
+      <c r="AF19" s="573"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="604"/>
-      <c r="AK19" s="517" t="s">
+      <c r="AJ19" s="597"/>
+      <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
-      <c r="AM19" s="485"/>
-      <c r="AN19" s="588"/>
+      <c r="AM19" s="480"/>
+      <c r="AN19" s="584"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
       </c>
-      <c r="C20" s="513" t="s">
+      <c r="C20" s="508" t="s">
         <v>504</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="E20" s="494">
+        <v>568</v>
+      </c>
+      <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="593"/>
+      <c r="F20" s="565"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="627"/>
-      <c r="Q20" s="629" t="s">
+      <c r="O20" s="568"/>
+      <c r="Q20" s="570" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="461" t="s">
+      <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="568"/>
-      <c r="W20" s="462"/>
-      <c r="X20" s="489" t="s">
+      <c r="U20" s="606"/>
+      <c r="W20" s="457"/>
+      <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="606"/>
-      <c r="Z20" s="468">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="469">
+      <c r="Y20" s="599"/>
+      <c r="Z20" s="463">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="464">
         <v>1</v>
       </c>
       <c r="AB20" s="271"/>
-      <c r="AC20" s="471"/>
-      <c r="AD20" s="471"/>
+      <c r="AC20" s="466"/>
+      <c r="AD20" s="466"/>
       <c r="AE20" s="376"/>
-      <c r="AF20" s="459"/>
+      <c r="AF20" s="455"/>
       <c r="AG20" s="376"/>
       <c r="AH20" s="377"/>
       <c r="AI20" s="378" t="s">
         <v>303</v>
       </c>
       <c r="AJ20" s="376"/>
-      <c r="AK20" s="518"/>
+      <c r="AK20" s="513"/>
       <c r="AL20" s="377" t="s">
         <v>518</v>
       </c>
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="588"/>
+      <c r="AN20" s="584"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8455,12 +8440,12 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="244" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="C21" s="513" t="s">
+        <v>564</v>
+      </c>
+      <c r="C21" s="508" t="s">
         <v>504</v>
       </c>
       <c r="D21" s="174" t="s">
@@ -8469,33 +8454,33 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="593"/>
-      <c r="O21" s="627"/>
-      <c r="Q21" s="630"/>
-      <c r="T21" s="479"/>
+      <c r="F21" s="565"/>
+      <c r="O21" s="568"/>
+      <c r="Q21" s="571"/>
+      <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="563"/>
-      <c r="W21" s="483" t="s">
+      <c r="V21" s="601"/>
+      <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
-      <c r="X21" s="486" t="s">
+      <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="606"/>
-      <c r="Z21" s="502">
+      <c r="Y21" s="599"/>
+      <c r="Z21" s="497">
         <v>3</v>
       </c>
-      <c r="AA21" s="503">
+      <c r="AA21" s="498">
         <v>3</v>
       </c>
-      <c r="AB21" s="472"/>
+      <c r="AB21" s="467"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="470" t="s">
+      <c r="AD21" s="465" t="s">
         <v>245</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="251" t="s">
@@ -8509,35 +8494,35 @@
         <v>256</v>
       </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="485" t="s">
-        <v>575</v>
-      </c>
-      <c r="AN21" s="588"/>
+      <c r="AM21" s="480" t="s">
+        <v>573</v>
+      </c>
+      <c r="AN21" s="584"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="593"/>
+      <c r="F22" s="565"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="627"/>
-      <c r="R22" s="491" t="s">
+      <c r="O22" s="568"/>
+      <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
-      <c r="T22" s="480" t="s">
+      <c r="T22" s="475" t="s">
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="564"/>
-      <c r="W22" s="483" t="s">
+      <c r="V22" s="602"/>
+      <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
-      <c r="X22" s="486" t="s">
+      <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="606"/>
-      <c r="Z22" s="472"/>
+      <c r="Y22" s="599"/>
+      <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="472"/>
+      <c r="AB22" s="467"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
@@ -8545,7 +8530,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="602" t="s">
+      <c r="AJ22" s="573" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8553,16 +8538,16 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="588"/>
+      <c r="AN22" s="584"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="512" t="s">
+      <c r="C23" s="507" t="s">
         <v>142</v>
       </c>
       <c r="D23" s="384" t="s">
@@ -8571,24 +8556,24 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="593"/>
-      <c r="O23" s="627"/>
-      <c r="Q23" s="629" t="s">
+      <c r="F23" s="565"/>
+      <c r="O23" s="568"/>
+      <c r="Q23" s="570" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
-      <c r="U23" s="477" t="s">
+      <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="564"/>
+      <c r="V23" s="602"/>
       <c r="W23" s="148"/>
-      <c r="X23" s="486" t="s">
+      <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="606"/>
+      <c r="Y23" s="599"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="472"/>
+      <c r="AB23" s="467"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
@@ -8596,49 +8581,49 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="602"/>
+      <c r="AJ23" s="573"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="588"/>
+      <c r="AN23" s="584"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="497" t="s">
+      <c r="A24" s="492" t="s">
         <v>446</v>
       </c>
       <c r="B24" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C24" s="514" t="s">
+      <c r="C24" s="509" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="175" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="493">
-        <v>1</v>
-      </c>
-      <c r="F24" s="593"/>
+      <c r="E24" s="488">
+        <v>1</v>
+      </c>
+      <c r="F24" s="565"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="627"/>
-      <c r="Q24" s="630"/>
+      <c r="O24" s="568"/>
+      <c r="Q24" s="571"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="564"/>
+      <c r="V24" s="602"/>
       <c r="W24" s="148"/>
-      <c r="X24" s="486" t="s">
+      <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="606"/>
+      <c r="Y24" s="599"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="472"/>
+      <c r="AB24" s="467"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
@@ -8647,39 +8632,39 @@
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="498" t="s">
+      <c r="AK24" s="493" t="s">
         <v>482</v>
       </c>
       <c r="AL24" s="251" t="s">
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="588"/>
+      <c r="AN24" s="584"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="593"/>
-      <c r="O25" s="627"/>
+      <c r="F25" s="565"/>
+      <c r="O25" s="568"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
       <c r="Q25" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="484" t="s">
+      <c r="T25" s="479" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="454" t="s">
+      <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="565"/>
+      <c r="V25" s="603"/>
       <c r="W25" s="148"/>
-      <c r="X25" s="486" t="s">
+      <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="606"/>
+      <c r="Y25" s="599"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="472"/>
+      <c r="AB25" s="467"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="251" t="s">
@@ -8693,7 +8678,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="588"/>
+      <c r="AN25" s="584"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8702,44 +8687,44 @@
       <c r="B26" s="227" t="s">
         <v>422</v>
       </c>
-      <c r="C26" s="513" t="s">
+      <c r="C26" s="508" t="s">
         <v>504</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="593"/>
+      <c r="F26" s="565"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="627"/>
-      <c r="P26" s="590" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q26" s="591"/>
-      <c r="R26" s="623" t="s">
-        <v>564</v>
+      <c r="O26" s="568"/>
+      <c r="P26" s="586" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q26" s="587"/>
+      <c r="R26" s="562" t="s">
+        <v>562</v>
       </c>
       <c r="T26" s="183"/>
-      <c r="U26" s="476"/>
+      <c r="U26" s="471"/>
       <c r="V26" s="100" t="s">
         <v>44</v>
       </c>
       <c r="W26" s="148"/>
-      <c r="X26" s="486" t="s">
+      <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="606"/>
+      <c r="Y26" s="599"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="472"/>
+      <c r="AB26" s="467"/>
       <c r="AC26" s="76" t="s">
         <v>483</v>
       </c>
-      <c r="AD26" s="470" t="s">
+      <c r="AD26" s="465" t="s">
         <v>475</v>
       </c>
       <c r="AE26" s="6"/>
@@ -8756,82 +8741,76 @@
       <c r="AL26" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="AM26" s="499" t="s">
+      <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="588"/>
+      <c r="AN26" s="584"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
         <v>418</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="625"/>
+      <c r="F27" s="566"/>
       <c r="G27" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="O27" s="628"/>
-      <c r="R27" s="624"/>
-      <c r="S27" s="478" t="s">
+        <v>572</v>
+      </c>
+      <c r="O27" s="569"/>
+      <c r="R27" s="563"/>
+      <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
-      <c r="T27" s="482" t="s">
+      <c r="T27" s="477" t="s">
         <v>44</v>
       </c>
       <c r="U27" s="12"/>
-      <c r="V27" s="481"/>
+      <c r="V27" s="476"/>
       <c r="W27" s="149"/>
-      <c r="X27" s="486" t="s">
-        <v>559</v>
-      </c>
-      <c r="Y27" s="607"/>
+      <c r="X27" s="481" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y27" s="600"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="473"/>
-      <c r="AC27" s="474"/>
-      <c r="AD27" s="474"/>
-      <c r="AE27" s="474"/>
-      <c r="AF27" s="474"/>
-      <c r="AG27" s="474"/>
-      <c r="AH27" s="474"/>
-      <c r="AI27" s="474"/>
-      <c r="AJ27" s="474"/>
-      <c r="AK27" s="501"/>
-      <c r="AL27" s="474"/>
+      <c r="AB27" s="468"/>
+      <c r="AC27" s="469"/>
+      <c r="AD27" s="469"/>
+      <c r="AE27" s="469"/>
+      <c r="AF27" s="469"/>
+      <c r="AG27" s="469"/>
+      <c r="AH27" s="469"/>
+      <c r="AI27" s="469"/>
+      <c r="AJ27" s="469"/>
+      <c r="AK27" s="496"/>
+      <c r="AL27" s="469"/>
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="589"/>
+      <c r="AN27" s="585"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="F2:F27"/>
-    <mergeCell ref="O10:O27"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="AI6:AI10"/>
-    <mergeCell ref="AF12:AF15"/>
-    <mergeCell ref="AG7:AG12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AD12:AD15"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G5:L6"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="AN1:AN27"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="Q2:Q3"/>
@@ -8848,22 +8827,28 @@
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="U18:U20"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G5:L6"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AI6:AI10"/>
+    <mergeCell ref="AF12:AF15"/>
+    <mergeCell ref="AG7:AG12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="F2:F27"/>
+    <mergeCell ref="O10:O27"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8873,8 +8858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" workbookViewId="0">
-      <selection activeCell="AL17" sqref="AL17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8961,16 +8946,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="559" t="s">
+      <c r="T1" s="552" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="647" t="s">
+      <c r="U1" s="629" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="649" t="s">
+      <c r="V1" s="631" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="650"/>
+      <c r="W1" s="632"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -8986,42 +8971,42 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="651" t="s">
+      <c r="AC1" s="633" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="652"/>
-      <c r="AE1" s="653"/>
-      <c r="AF1" s="654" t="s">
+      <c r="AD1" s="634"/>
+      <c r="AE1" s="635"/>
+      <c r="AF1" s="636" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="655"/>
-      <c r="AH1" s="656"/>
-      <c r="AI1" s="643" t="s">
+      <c r="AG1" s="637"/>
+      <c r="AH1" s="638"/>
+      <c r="AI1" s="625" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="644"/>
-      <c r="AK1" s="645"/>
+      <c r="AJ1" s="626"/>
+      <c r="AK1" s="627"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="635">
+      <c r="J2" s="639">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="637">
+      <c r="K2" s="641">
         <f>SUM(K4:K29)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="639">
+      <c r="L2" s="643">
         <f>SUM(L4:L29)</f>
         <v>3</v>
       </c>
-      <c r="M2" s="614">
+      <c r="M2" s="580">
         <f>SUM(K30:K37)* (-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="285" t="s">
         <v>243</v>
@@ -9038,11 +9023,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="641" t="s">
+      <c r="S2" s="645" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="646"/>
-      <c r="U2" s="648"/>
+      <c r="T2" s="628"/>
+      <c r="U2" s="630"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9102,10 +9087,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="636"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="640"/>
-      <c r="M3" s="615"/>
+      <c r="J3" s="640"/>
+      <c r="K3" s="642"/>
+      <c r="L3" s="644"/>
+      <c r="M3" s="581"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9121,8 +9106,8 @@
         <f>SUM(R4:R29)</f>
         <v>45</v>
       </c>
-      <c r="S3" s="642"/>
-      <c r="T3" s="560"/>
+      <c r="S3" s="646"/>
+      <c r="T3" s="553"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9212,7 +9197,7 @@
       <c r="H4" s="111" t="s">
         <v>531</v>
       </c>
-      <c r="I4" s="430" t="s">
+      <c r="I4" s="429" t="s">
         <v>309</v>
       </c>
       <c r="J4" s="360"/>
@@ -9223,7 +9208,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="632" t="s">
+      <c r="M4" s="647" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9293,7 +9278,7 @@
       <c r="AN4" s="112"/>
     </row>
     <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I5" s="431"/>
+      <c r="I5" s="430"/>
       <c r="J5" s="313"/>
       <c r="K5" s="107">
         <v>0</v>
@@ -9302,7 +9287,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="633"/>
+      <c r="M5" s="648"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9377,7 +9362,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="209"/>
-      <c r="I6" s="433" t="s">
+      <c r="I6" s="432" t="s">
         <v>312</v>
       </c>
       <c r="J6" s="361">
@@ -9390,7 +9375,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="633"/>
+      <c r="M6" s="648"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9467,7 +9452,7 @@
       <c r="H7" s="111" t="s">
         <v>432</v>
       </c>
-      <c r="I7" s="431" t="s">
+      <c r="I7" s="430" t="s">
         <v>311</v>
       </c>
       <c r="J7" s="361">
@@ -9480,7 +9465,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="633"/>
+      <c r="M7" s="648"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9551,7 +9536,7 @@
         <v>245</v>
       </c>
       <c r="AM7" s="231" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AN7" s="80"/>
     </row>
@@ -9575,7 +9560,7 @@
       <c r="H8" s="111" t="s">
         <v>431</v>
       </c>
-      <c r="I8" s="433" t="s">
+      <c r="I8" s="432" t="s">
         <v>345</v>
       </c>
       <c r="J8" s="107">
@@ -9588,7 +9573,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="633"/>
+      <c r="M8" s="648"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9663,7 +9648,7 @@
       <c r="AN8" s="80"/>
     </row>
     <row r="9" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="431" t="s">
+      <c r="I9" s="430" t="s">
         <v>359</v>
       </c>
       <c r="J9" s="362"/>
@@ -9674,7 +9659,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="633"/>
+      <c r="M9" s="648"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9763,7 +9748,7 @@
       <c r="H10" s="111" t="s">
         <v>367</v>
       </c>
-      <c r="I10" s="431" t="s">
+      <c r="I10" s="430" t="s">
         <v>363</v>
       </c>
       <c r="J10" s="363"/>
@@ -9774,7 +9759,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="633"/>
+      <c r="M10" s="648"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -9842,7 +9827,7 @@
       <c r="AN10" s="80"/>
     </row>
     <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="431" t="s">
+      <c r="I11" s="430" t="s">
         <v>310</v>
       </c>
       <c r="J11" s="363"/>
@@ -9853,7 +9838,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="633"/>
+      <c r="M11" s="648"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -9915,7 +9900,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="578" t="s">
+      <c r="A12" s="616" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -9924,16 +9909,16 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="629" t="s">
+      <c r="E12" s="570" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>577</v>
-      </c>
-      <c r="I12" s="431" t="s">
+        <v>575</v>
+      </c>
+      <c r="I12" s="430" t="s">
         <v>302</v>
       </c>
       <c r="J12" s="363"/>
@@ -9944,7 +9929,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="633"/>
+      <c r="M12" s="648"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10018,14 +10003,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="580"/>
+      <c r="A13" s="618"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="630"/>
+      <c r="E13" s="571"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10035,7 +10020,7 @@
       <c r="H13" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="I13" s="433" t="s">
+      <c r="I13" s="432" t="s">
         <v>307</v>
       </c>
       <c r="J13" s="363"/>
@@ -10046,7 +10031,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="633"/>
+      <c r="M13" s="648"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10112,7 +10097,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="278"/>
-      <c r="I14" s="431"/>
+      <c r="I14" s="430"/>
       <c r="J14" s="363"/>
       <c r="K14" s="309">
         <v>0</v>
@@ -10121,7 +10106,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="633"/>
+      <c r="M14" s="648"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10193,7 +10178,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="201"/>
-      <c r="I15" s="433" t="s">
+      <c r="I15" s="432" t="s">
         <v>195</v>
       </c>
       <c r="J15" s="363"/>
@@ -10204,7 +10189,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="633"/>
+      <c r="M15" s="648"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10280,7 +10265,7 @@
       <c r="E16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="434"/>
+      <c r="I16" s="433"/>
       <c r="J16" s="363"/>
       <c r="K16" s="107">
         <v>0</v>
@@ -10289,7 +10274,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M16" s="633"/>
+      <c r="M16" s="648"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10367,7 +10352,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="143"/>
-      <c r="I17" s="433" t="s">
+      <c r="I17" s="432" t="s">
         <v>316</v>
       </c>
       <c r="J17" s="363"/>
@@ -10378,7 +10363,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="633"/>
+      <c r="M17" s="648"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10450,7 +10435,7 @@
       <c r="G18" s="34">
         <v>-1</v>
       </c>
-      <c r="I18" s="433" t="s">
+      <c r="I18" s="432" t="s">
         <v>307</v>
       </c>
       <c r="J18" s="364"/>
@@ -10461,7 +10446,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="633"/>
+      <c r="M18" s="648"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10535,7 +10520,7 @@
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="433" t="s">
+      <c r="I19" s="432" t="s">
         <v>309</v>
       </c>
       <c r="J19" s="118">
@@ -10548,7 +10533,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="633"/>
+      <c r="M19" s="648"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10612,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AN19" s="112"/>
     </row>
@@ -10632,7 +10617,7 @@
       <c r="H20" s="112" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="433" t="s">
+      <c r="I20" s="432" t="s">
         <v>195</v>
       </c>
       <c r="J20" s="362"/>
@@ -10643,11 +10628,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="634"/>
-      <c r="N20" s="529" t="s">
+      <c r="M20" s="649"/>
+      <c r="N20" s="522" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="631"/>
+      <c r="O20" s="572"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10726,7 +10711,7 @@
       <c r="H21" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="I21" s="431" t="s">
+      <c r="I21" s="430" t="s">
         <v>308</v>
       </c>
       <c r="J21" s="365"/>
@@ -10812,7 +10797,7 @@
       <c r="AN21" s="112"/>
     </row>
     <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="431" t="s">
+      <c r="I22" s="430" t="s">
         <v>305</v>
       </c>
       <c r="J22" s="366"/>
@@ -10888,13 +10873,13 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="585" t="s">
+      <c r="E23" s="623" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
         <v>2</v>
       </c>
-      <c r="I23" s="431" t="s">
+      <c r="I23" s="430" t="s">
         <v>263</v>
       </c>
       <c r="J23" s="361">
@@ -10974,9 +10959,9 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="586"/>
+      <c r="E24" s="624"/>
       <c r="F24" s="177"/>
-      <c r="I24" s="431" t="s">
+      <c r="I24" s="430" t="s">
         <v>301</v>
       </c>
       <c r="J24" s="361">
@@ -10989,10 +10974,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="529" t="s">
+      <c r="N24" s="522" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="631"/>
+      <c r="O24" s="572"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -11067,7 +11052,7 @@
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="359"/>
-      <c r="I25" s="431" t="s">
+      <c r="I25" s="430" t="s">
         <v>300</v>
       </c>
       <c r="J25" s="367"/>
@@ -11151,7 +11136,7 @@
       <c r="H26" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="I26" s="431" t="s">
+      <c r="I26" s="430" t="s">
         <v>306</v>
       </c>
       <c r="J26" s="361">
@@ -11234,7 +11219,7 @@
         <v>295</v>
       </c>
       <c r="G27" s="181"/>
-      <c r="I27" s="431" t="s">
+      <c r="I27" s="430" t="s">
         <v>261</v>
       </c>
       <c r="J27" s="368"/>
@@ -11309,7 +11294,7 @@
       <c r="AN27" s="112"/>
     </row>
     <row r="28" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="433" t="s">
+      <c r="I28" s="432" t="s">
         <v>316</v>
       </c>
       <c r="J28" s="366"/>
@@ -11383,7 +11368,7 @@
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="272"/>
-      <c r="I29" s="433" t="s">
+      <c r="I29" s="432" t="s">
         <v>366</v>
       </c>
       <c r="J29" s="358"/>
@@ -11466,7 +11451,7 @@
       <c r="H30" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="I30" s="434"/>
+      <c r="I30" s="433"/>
       <c r="J30" s="369"/>
       <c r="K30" s="259">
         <v>-1</v>
@@ -11537,7 +11522,7 @@
       <c r="H31" s="111" t="s">
         <v>436</v>
       </c>
-      <c r="I31" s="431"/>
+      <c r="I31" s="430"/>
       <c r="J31" s="370"/>
       <c r="K31" s="260">
         <v>-1</v>
@@ -11599,7 +11584,7 @@
       <c r="H32" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="I32" s="434"/>
+      <c r="I32" s="433"/>
       <c r="J32" s="370"/>
       <c r="K32" s="264">
         <v>1</v>
@@ -11690,7 +11675,7 @@
       <c r="H33" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="I33" s="434"/>
+      <c r="I33" s="433"/>
       <c r="J33" s="370"/>
       <c r="K33" s="261">
         <v>-1</v>
@@ -11755,7 +11740,7 @@
       <c r="E34" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="431" t="s">
+      <c r="I34" s="430" t="s">
         <v>305</v>
       </c>
       <c r="J34" s="370"/>
@@ -11829,7 +11814,7 @@
     </row>
     <row r="35" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="23"/>
-      <c r="I35" s="431" t="s">
+      <c r="I35" s="430" t="s">
         <v>300</v>
       </c>
       <c r="J35" s="370"/>
@@ -11914,7 +11899,7 @@
       <c r="G36" s="68">
         <v>-1</v>
       </c>
-      <c r="I36" s="431" t="s">
+      <c r="I36" s="430" t="s">
         <v>300</v>
       </c>
       <c r="J36" s="370"/>
@@ -11983,10 +11968,10 @@
       <c r="AN36" s="112"/>
     </row>
     <row r="37" spans="3:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="435"/>
+      <c r="I37" s="434"/>
       <c r="J37" s="371"/>
       <c r="K37" s="263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="311">
         <f t="shared" si="10"/>
@@ -12000,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="232">
         <v>-1</v>
@@ -12010,7 +11995,7 @@
       <c r="V37" s="202"/>
       <c r="W37" s="24">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="65"/>
       <c r="Y37" s="117">
@@ -12019,7 +12004,7 @@
       </c>
       <c r="Z37" s="64">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="64">
         <v>1</v>
@@ -12041,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI37" s="372">
         <f t="shared" si="7"/>
@@ -12062,23 +12047,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="M4:M20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="AC1:AE1"/>
     <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="M4:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12112,15 +12097,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="529" t="s">
+      <c r="B1" s="522" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="631"/>
+      <c r="C1" s="572"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="529" t="s">
+      <c r="J1" s="522" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="631"/>
+      <c r="K1" s="572"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12158,13 +12143,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="657"/>
+      <c r="M2" s="650"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="660" t="s">
+      <c r="Q2" s="653" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12187,13 +12172,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="658"/>
+      <c r="M3" s="651"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="661"/>
+      <c r="Q3" s="654"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12212,13 +12197,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="658"/>
+      <c r="M4" s="651"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="661"/>
+      <c r="Q4" s="654"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12238,13 +12223,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="658"/>
+      <c r="M5" s="651"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="661"/>
+      <c r="Q5" s="654"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12265,13 +12250,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="658"/>
+      <c r="M6" s="651"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="661"/>
+      <c r="Q6" s="654"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12291,13 +12276,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="658"/>
+      <c r="M7" s="651"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="661"/>
+      <c r="Q7" s="654"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12318,13 +12303,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="658"/>
+      <c r="M8" s="651"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="661"/>
+      <c r="Q8" s="654"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12344,13 +12329,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="659"/>
+      <c r="M9" s="652"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="662"/>
+      <c r="Q9" s="655"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12508,10 +12493,10 @@
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="V1" s="529" t="s">
+      <c r="V1" s="522" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="631"/>
+      <c r="W1" s="572"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12530,7 +12515,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="677" t="s">
+      <c r="AD1" s="663" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12547,10 +12532,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="708" t="s">
+      <c r="F2" s="662" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="665" t="s">
+      <c r="G2" s="690" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12578,10 +12563,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="649" t="s">
+      <c r="V2" s="631" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="650"/>
+      <c r="W2" s="632"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12600,7 +12585,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="678"/>
+      <c r="AD2" s="664"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12619,8 +12604,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="582"/>
-      <c r="G3" s="666"/>
+      <c r="F3" s="620"/>
+      <c r="G3" s="691"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12631,13 +12616,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="675" t="s">
+      <c r="O3" s="700" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="696" t="s">
+      <c r="P3" s="682" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="697"/>
+      <c r="Q3" s="683"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12647,15 +12632,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="678"/>
+      <c r="AD3" s="664"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="666"/>
+      <c r="G4" s="691"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="660" t="s">
+      <c r="L4" s="653" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="676"/>
+      <c r="O4" s="701"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12665,12 +12650,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="529" t="s">
+      <c r="Y4" s="522" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="530"/>
-      <c r="AA4" s="631"/>
-      <c r="AD4" s="678"/>
+      <c r="Z4" s="523"/>
+      <c r="AA4" s="572"/>
+      <c r="AD4" s="664"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12685,21 +12670,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="666"/>
+      <c r="G5" s="691"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="683" t="s">
+      <c r="K5" s="669" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="698"/>
+      <c r="L5" s="684"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="676"/>
+      <c r="O5" s="701"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12715,11 +12700,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="686" t="s">
+      <c r="Y5" s="672" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="687"/>
-      <c r="AD5" s="678"/>
+      <c r="Z5" s="673"/>
+      <c r="AD5" s="664"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12729,16 +12714,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="666"/>
+      <c r="G6" s="691"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="684"/>
-      <c r="L6" s="698"/>
-      <c r="O6" s="676"/>
+      <c r="K6" s="670"/>
+      <c r="L6" s="684"/>
+      <c r="O6" s="701"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12751,20 +12736,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="678"/>
+      <c r="AD6" s="664"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="666"/>
+      <c r="G7" s="691"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="684"/>
-      <c r="L7" s="698"/>
+      <c r="K7" s="670"/>
+      <c r="L7" s="684"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="676"/>
+      <c r="O7" s="701"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="678"/>
+      <c r="AD7" s="664"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12777,7 +12762,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="666"/>
+      <c r="G8" s="691"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12787,41 +12772,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="684"/>
-      <c r="L8" s="698"/>
-      <c r="O8" s="676"/>
+      <c r="K8" s="670"/>
+      <c r="L8" s="684"/>
+      <c r="O8" s="701"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="680" t="s">
+      <c r="S8" s="666" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="681"/>
-      <c r="U8" s="681"/>
-      <c r="V8" s="681"/>
-      <c r="W8" s="681"/>
-      <c r="X8" s="681"/>
-      <c r="Y8" s="681"/>
-      <c r="Z8" s="681"/>
-      <c r="AA8" s="681"/>
-      <c r="AB8" s="681"/>
-      <c r="AC8" s="682"/>
-      <c r="AD8" s="678"/>
+      <c r="T8" s="667"/>
+      <c r="U8" s="667"/>
+      <c r="V8" s="667"/>
+      <c r="W8" s="667"/>
+      <c r="X8" s="667"/>
+      <c r="Y8" s="667"/>
+      <c r="Z8" s="667"/>
+      <c r="AA8" s="667"/>
+      <c r="AB8" s="667"/>
+      <c r="AC8" s="668"/>
+      <c r="AD8" s="664"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="702"/>
-      <c r="G9" s="666"/>
+      <c r="C9" s="656"/>
+      <c r="G9" s="691"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="684"/>
-      <c r="L9" s="669" t="s">
+      <c r="K9" s="670"/>
+      <c r="L9" s="694" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="670"/>
-      <c r="N9" s="671"/>
-      <c r="O9" s="676"/>
+      <c r="M9" s="695"/>
+      <c r="N9" s="696"/>
+      <c r="O9" s="701"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="678"/>
+      <c r="AD9" s="664"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="703"/>
+      <c r="C10" s="657"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -12829,7 +12814,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="666"/>
+      <c r="G10" s="691"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -12837,33 +12822,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="684"/>
-      <c r="M10" s="705" t="s">
+      <c r="K10" s="670"/>
+      <c r="M10" s="659" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="706"/>
-      <c r="O10" s="706"/>
-      <c r="P10" s="706"/>
-      <c r="Q10" s="706"/>
-      <c r="R10" s="706"/>
-      <c r="S10" s="706"/>
-      <c r="T10" s="706"/>
-      <c r="U10" s="706"/>
-      <c r="V10" s="706"/>
-      <c r="W10" s="706"/>
-      <c r="X10" s="706"/>
-      <c r="Y10" s="706"/>
-      <c r="Z10" s="706"/>
-      <c r="AA10" s="706"/>
-      <c r="AB10" s="706"/>
-      <c r="AC10" s="707"/>
-      <c r="AD10" s="678"/>
+      <c r="N10" s="660"/>
+      <c r="O10" s="660"/>
+      <c r="P10" s="660"/>
+      <c r="Q10" s="660"/>
+      <c r="R10" s="660"/>
+      <c r="S10" s="660"/>
+      <c r="T10" s="660"/>
+      <c r="U10" s="660"/>
+      <c r="V10" s="660"/>
+      <c r="W10" s="660"/>
+      <c r="X10" s="660"/>
+      <c r="Y10" s="660"/>
+      <c r="Z10" s="660"/>
+      <c r="AA10" s="660"/>
+      <c r="AB10" s="660"/>
+      <c r="AC10" s="661"/>
+      <c r="AD10" s="664"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="704"/>
-      <c r="G11" s="666"/>
+      <c r="C11" s="658"/>
+      <c r="G11" s="691"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="684"/>
+      <c r="K11" s="670"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -12871,17 +12856,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="694" t="s">
+      <c r="Z11" s="680" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="695"/>
+      <c r="AA11" s="681"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="678"/>
+      <c r="AD11" s="664"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -12894,7 +12879,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="666"/>
+      <c r="G12" s="691"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -12902,8 +12887,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="684"/>
-      <c r="L12" s="699" t="s">
+      <c r="K12" s="670"/>
+      <c r="L12" s="685" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -12918,7 +12903,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="524" t="s">
+      <c r="S12" s="517" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -12934,26 +12919,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="688" t="s">
+      <c r="AA12" s="674" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="689"/>
+      <c r="AB12" s="675"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="678"/>
+      <c r="AD12" s="664"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="702"/>
-      <c r="G13" s="666"/>
-      <c r="K13" s="684"/>
-      <c r="L13" s="700"/>
+      <c r="C13" s="656"/>
+      <c r="G13" s="691"/>
+      <c r="K13" s="670"/>
+      <c r="L13" s="686"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="668" t="s">
+      <c r="Q13" s="693" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="591"/>
-      <c r="S13" s="525"/>
+      <c r="R13" s="587"/>
+      <c r="S13" s="518"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -12961,17 +12946,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="690"/>
-      <c r="AB13" s="691"/>
-      <c r="AD13" s="678"/>
+      <c r="AA13" s="676"/>
+      <c r="AB13" s="677"/>
+      <c r="AD13" s="664"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="704"/>
+      <c r="C14" s="658"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="666"/>
+      <c r="G14" s="691"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -12979,8 +12964,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="684"/>
-      <c r="L14" s="700"/>
+      <c r="K14" s="670"/>
+      <c r="L14" s="686"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -12990,7 +12975,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="525"/>
+      <c r="S14" s="518"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -13001,9 +12986,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="690"/>
-      <c r="AB14" s="691"/>
-      <c r="AD14" s="678"/>
+      <c r="AA14" s="676"/>
+      <c r="AB14" s="677"/>
+      <c r="AD14" s="664"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13018,20 +13003,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="666"/>
+      <c r="G15" s="691"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="684"/>
-      <c r="L15" s="701"/>
-      <c r="Q15" s="668" t="s">
+      <c r="K15" s="670"/>
+      <c r="L15" s="687"/>
+      <c r="Q15" s="693" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="591"/>
-      <c r="S15" s="525"/>
+      <c r="R15" s="587"/>
+      <c r="S15" s="518"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13039,14 +13024,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="690"/>
-      <c r="AB15" s="691"/>
-      <c r="AD15" s="678"/>
+      <c r="AA15" s="676"/>
+      <c r="AB15" s="677"/>
+      <c r="AD15" s="664"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="666"/>
-      <c r="K16" s="684"/>
+      <c r="G16" s="691"/>
+      <c r="K16" s="670"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13054,7 +13039,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="525"/>
+      <c r="S16" s="518"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13065,34 +13050,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="690"/>
-      <c r="AB16" s="691"/>
-      <c r="AD16" s="678"/>
+      <c r="AA16" s="676"/>
+      <c r="AB16" s="677"/>
+      <c r="AD16" s="664"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="663" t="s">
+      <c r="F17" s="688" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="666"/>
+      <c r="G17" s="691"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="684"/>
-      <c r="S17" s="525"/>
+      <c r="K17" s="670"/>
+      <c r="S17" s="518"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="690"/>
-      <c r="AB17" s="691"/>
-      <c r="AD17" s="678"/>
+      <c r="AA17" s="676"/>
+      <c r="AB17" s="677"/>
+      <c r="AD17" s="664"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13102,58 +13087,61 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="664"/>
-      <c r="G18" s="666"/>
+      <c r="F18" s="689"/>
+      <c r="G18" s="691"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="684"/>
+      <c r="K18" s="670"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="525"/>
+      <c r="S18" s="518"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="692"/>
-      <c r="AB18" s="693"/>
-      <c r="AD18" s="678"/>
+      <c r="AA18" s="678"/>
+      <c r="AB18" s="679"/>
+      <c r="AD18" s="664"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="667"/>
-      <c r="K19" s="685"/>
+      <c r="G19" s="692"/>
+      <c r="K19" s="671"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="672" t="s">
+      <c r="R19" s="697" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="673"/>
-      <c r="T19" s="674"/>
+      <c r="S19" s="698"/>
+      <c r="T19" s="699"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="679"/>
+      <c r="AD19" s="665"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="M10:AC10"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G2:G19"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="S12:S18"/>
+    <mergeCell ref="O3:O9"/>
     <mergeCell ref="AD1:AD19"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="K5:K19"/>
@@ -13165,14 +13153,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="L4:L8"/>
     <mergeCell ref="L12:L15"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G2:G19"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="S12:S18"/>
-    <mergeCell ref="O3:O9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="M10:AC10"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB38062-8872-413E-A5A1-53BA74449ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93A156-9D00-4636-9662-8C6FF553E044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1763,9 +1763,6 @@
     <t>Zee Rajasthan</t>
   </si>
   <si>
-    <t>!M_15_NOC_X_Spouse_X_Drive_Media_X10X</t>
-  </si>
-  <si>
     <t xml:space="preserve"> WLFJN_X_N-10_X_Left</t>
   </si>
   <si>
@@ -1791,6 +1788,9 @@
   </si>
   <si>
     <t>X - India - X</t>
+  </si>
+  <si>
+    <t>!M_15_NOC_X_Spouse_X_Drive_Media_X104X</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="705">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4593,6 +4593,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5147,29 +5156,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5516,10 +5502,10 @@
       <c r="I2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="520" t="s">
+      <c r="J2" s="523" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="521"/>
+      <c r="K2" s="524"/>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5529,13 +5515,13 @@
       <c r="N2" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="522" t="s">
+      <c r="O2" s="525" t="s">
         <v>385</v>
       </c>
-      <c r="P2" s="523"/>
-      <c r="Q2" s="523"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="524" t="s">
+      <c r="P2" s="526"/>
+      <c r="Q2" s="526"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="527" t="s">
         <v>386</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -5549,7 +5535,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="517"/>
+      <c r="D3" s="520"/>
       <c r="E3" s="374"/>
       <c r="F3" s="281" t="s">
         <v>69</v>
@@ -5574,7 +5560,7 @@
       </c>
       <c r="O3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="525"/>
+      <c r="S3" s="528"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -5583,7 +5569,7 @@
       <c r="C4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="518"/>
+      <c r="D4" s="521"/>
       <c r="E4" s="61"/>
       <c r="F4" s="396" t="s">
         <v>42</v>
@@ -5600,7 +5586,7 @@
       </c>
       <c r="O4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="525"/>
+      <c r="S4" s="528"/>
     </row>
     <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -5609,7 +5595,7 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="519"/>
+      <c r="D5" s="522"/>
       <c r="F5" s="401" t="s">
         <v>42</v>
       </c>
@@ -5633,7 +5619,7 @@
       <c r="Q5" s="19">
         <v>5100</v>
       </c>
-      <c r="S5" s="525"/>
+      <c r="S5" s="528"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -5665,7 +5651,7 @@
       </c>
       <c r="P6" s="16"/>
       <c r="Q6" s="6"/>
-      <c r="S6" s="525"/>
+      <c r="S6" s="528"/>
     </row>
     <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="219" t="s">
@@ -5683,7 +5669,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="299"/>
@@ -5695,7 +5681,7 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="6"/>
-      <c r="S7" s="525"/>
+      <c r="S7" s="528"/>
     </row>
     <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -5723,7 +5709,7 @@
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="6"/>
-      <c r="S8" s="525"/>
+      <c r="S8" s="528"/>
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -5741,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="297"/>
@@ -5756,7 +5742,7 @@
       <c r="O9" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="525"/>
+      <c r="S9" s="528"/>
     </row>
     <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -5771,7 +5757,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="297"/>
@@ -5791,7 +5777,7 @@
       <c r="Q10" s="64">
         <v>85</v>
       </c>
-      <c r="S10" s="525"/>
+      <c r="S10" s="528"/>
     </row>
     <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -5809,7 +5795,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11" s="374"/>
       <c r="J11" s="295"/>
@@ -5825,7 +5811,7 @@
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="142"/>
-      <c r="S11" s="525"/>
+      <c r="S11" s="528"/>
       <c r="T11" s="23"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5852,7 +5838,7 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="142"/>
-      <c r="S12" s="525"/>
+      <c r="S12" s="528"/>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="271" t="s">
@@ -5863,7 +5849,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F13" s="281" t="s">
         <v>370</v>
@@ -5872,7 +5858,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -5886,10 +5872,10 @@
       <c r="N13" s="404" t="s">
         <v>522</v>
       </c>
-      <c r="S13" s="525"/>
+      <c r="S13" s="528"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S14" s="525"/>
+      <c r="S14" s="528"/>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -5901,13 +5887,13 @@
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -5915,17 +5901,17 @@
       <c r="L15" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="529">
+      <c r="M15" s="532">
         <v>45275</v>
       </c>
-      <c r="N15" s="517" t="s">
+      <c r="N15" s="520" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="256" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="525"/>
+      <c r="S15" s="528"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="514" t="s">
@@ -5943,7 +5929,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -5951,9 +5937,9 @@
       <c r="L16" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="530"/>
-      <c r="N16" s="518"/>
-      <c r="S16" s="525"/>
+      <c r="M16" s="533"/>
+      <c r="N16" s="521"/>
+      <c r="S16" s="528"/>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
@@ -5981,15 +5967,15 @@
       <c r="L17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="531"/>
-      <c r="N17" s="519"/>
+      <c r="M17" s="534"/>
+      <c r="N17" s="522"/>
       <c r="O17" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="525"/>
+      <c r="S17" s="528"/>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S18" s="525"/>
+      <c r="S18" s="528"/>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -6017,13 +6003,13 @@
       <c r="L19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="529">
+      <c r="M19" s="532">
         <v>45275</v>
       </c>
       <c r="N19" s="442" t="s">
         <v>522</v>
       </c>
-      <c r="S19" s="525"/>
+      <c r="S19" s="528"/>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="254" t="s">
@@ -6041,7 +6027,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6049,11 +6035,11 @@
       <c r="L20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="530"/>
+      <c r="M20" s="533"/>
       <c r="N20" s="431" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="525"/>
+      <c r="S20" s="528"/>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="254" t="s">
@@ -6071,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6079,15 +6065,15 @@
       <c r="L21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M21" s="530"/>
+      <c r="M21" s="533"/>
       <c r="N21" s="431" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="527" t="s">
+      <c r="P21" s="530" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" s="528"/>
-      <c r="S21" s="525"/>
+      <c r="Q21" s="531"/>
+      <c r="S21" s="528"/>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="288" t="s">
@@ -6113,11 +6099,11 @@
       <c r="L22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="530"/>
+      <c r="M22" s="533"/>
       <c r="N22" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="525"/>
+      <c r="S22" s="528"/>
     </row>
     <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
@@ -6143,11 +6129,11 @@
       <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="530"/>
+      <c r="M23" s="533"/>
       <c r="N23" s="61" t="s">
         <v>523</v>
       </c>
-      <c r="S23" s="525"/>
+      <c r="S23" s="528"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -6173,7 +6159,7 @@
       <c r="L24" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="530"/>
+      <c r="M24" s="533"/>
       <c r="N24" s="61" t="s">
         <v>26</v>
       </c>
@@ -6181,7 +6167,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="16"/>
-      <c r="S24" s="525"/>
+      <c r="S24" s="528"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
@@ -6199,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6207,11 +6193,11 @@
       <c r="L25" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="530"/>
+      <c r="M25" s="533"/>
       <c r="N25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="525"/>
+      <c r="S25" s="528"/>
     </row>
     <row r="26" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
@@ -6237,11 +6223,11 @@
       <c r="L26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="530"/>
+      <c r="M26" s="533"/>
       <c r="N26" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="S26" s="525"/>
+      <c r="S26" s="528"/>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="271" t="s">
@@ -6263,9 +6249,9 @@
       <c r="J27" s="439"/>
       <c r="K27" s="440"/>
       <c r="L27" s="441"/>
-      <c r="M27" s="530"/>
+      <c r="M27" s="533"/>
       <c r="N27" s="61"/>
-      <c r="S27" s="525"/>
+      <c r="S27" s="528"/>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="271" t="s">
@@ -6293,12 +6279,12 @@
       <c r="L28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M28" s="531"/>
+      <c r="M28" s="534"/>
       <c r="N28" s="61" t="s">
         <v>524</v>
       </c>
       <c r="R28" s="16"/>
-      <c r="S28" s="526"/>
+      <c r="S28" s="529"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6320,7 +6306,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6382,32 +6368,32 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="540">
+      <c r="A2" s="543">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="542" t="s">
+      <c r="B2" s="545" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="554" t="s">
+      <c r="C2" s="557" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="544" t="s">
+      <c r="D2" s="547" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="546" t="s">
+      <c r="E2" s="549" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="552" t="s">
+      <c r="G2" s="555" t="s">
         <v>381</v>
       </c>
       <c r="H2" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="534" t="s">
+      <c r="I2" s="537" t="s">
         <v>103</v>
       </c>
       <c r="J2" s="448" t="s">
@@ -6433,14 +6419,14 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="541"/>
-      <c r="B3" s="543"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="547"/>
-      <c r="G3" s="553"/>
+      <c r="A3" s="544"/>
+      <c r="B3" s="546"/>
+      <c r="C3" s="558"/>
+      <c r="D3" s="548"/>
+      <c r="E3" s="550"/>
+      <c r="G3" s="556"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="535"/>
+      <c r="I3" s="538"/>
       <c r="K3" s="24">
         <v>2</v>
       </c>
@@ -6453,10 +6439,10 @@
         <v>390</v>
       </c>
       <c r="B4" s="257"/>
-      <c r="C4" s="548" t="s">
+      <c r="C4" s="551" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="535"/>
+      <c r="I4" s="538"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="234" t="s">
@@ -6465,7 +6451,7 @@
       <c r="B5" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="C5" s="549"/>
+      <c r="C5" s="552"/>
       <c r="D5" s="235" t="s">
         <v>103</v>
       </c>
@@ -6475,13 +6461,13 @@
       <c r="F5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="517" t="s">
+      <c r="G5" s="520" t="s">
         <v>276</v>
       </c>
       <c r="H5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I5" s="535"/>
+      <c r="I5" s="538"/>
       <c r="J5" s="449" t="s">
         <v>273</v>
       </c>
@@ -6499,22 +6485,22 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="537" t="s">
+      <c r="A6" s="540" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="550"/>
-      <c r="D6" s="551"/>
+      <c r="C6" s="553"/>
+      <c r="D6" s="554"/>
       <c r="E6" s="96">
         <v>1</v>
       </c>
-      <c r="G6" s="518"/>
-      <c r="I6" s="535"/>
+      <c r="G6" s="521"/>
+      <c r="I6" s="538"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="538"/>
+      <c r="A7" s="541"/>
       <c r="B7" s="100" t="s">
         <v>155</v>
       </c>
@@ -6524,8 +6510,8 @@
       <c r="D7" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="518"/>
-      <c r="I7" s="535"/>
+      <c r="G7" s="521"/>
+      <c r="I7" s="538"/>
       <c r="M7" s="16" t="s">
         <v>354</v>
       </c>
@@ -6536,7 +6522,7 @@
         <v>103</v>
       </c>
       <c r="P7" s="99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q7" s="127" t="s">
         <v>44</v>
@@ -6558,7 +6544,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="539"/>
+      <c r="A8" s="542"/>
       <c r="B8" s="222" t="s">
         <v>28</v>
       </c>
@@ -6566,8 +6552,8 @@
       <c r="E8" s="30">
         <v>3</v>
       </c>
-      <c r="G8" s="518"/>
-      <c r="I8" s="535"/>
+      <c r="G8" s="521"/>
+      <c r="I8" s="538"/>
       <c r="N8" s="80"/>
       <c r="U8" s="6" t="s">
         <v>466</v>
@@ -6589,9 +6575,9 @@
       <c r="D9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="518"/>
+      <c r="G9" s="521"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="535"/>
+      <c r="I9" s="538"/>
       <c r="M9" s="19" t="s">
         <v>548</v>
       </c>
@@ -6616,8 +6602,8 @@
         <f>Boat!S8</f>
         <v>45</v>
       </c>
-      <c r="G10" s="518"/>
-      <c r="I10" s="535"/>
+      <c r="G10" s="521"/>
+      <c r="I10" s="538"/>
       <c r="J10" s="24" t="s">
         <v>381</v>
       </c>
@@ -6633,7 +6619,7 @@
       <c r="A11" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="517" t="s">
+      <c r="B11" s="520" t="s">
         <v>392</v>
       </c>
       <c r="C11" s="176" t="s">
@@ -6642,8 +6628,8 @@
       <c r="D11" s="229" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="518"/>
-      <c r="I11" s="535"/>
+      <c r="G11" s="521"/>
+      <c r="I11" s="538"/>
       <c r="J11" s="24" t="s">
         <v>195</v>
       </c>
@@ -6658,7 +6644,7 @@
         <v>424</v>
       </c>
       <c r="P11" s="99" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>44</v>
@@ -6677,12 +6663,12 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="519"/>
+      <c r="B12" s="522"/>
       <c r="E12" s="242">
         <v>3</v>
       </c>
-      <c r="G12" s="518"/>
-      <c r="I12" s="535"/>
+      <c r="G12" s="521"/>
+      <c r="I12" s="538"/>
       <c r="J12" s="24" t="s">
         <v>539</v>
       </c>
@@ -6710,14 +6696,14 @@
       <c r="B13" s="227" t="s">
         <v>330</v>
       </c>
-      <c r="C13" s="517" t="s">
+      <c r="C13" s="520" t="s">
         <v>195</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="G13" s="518"/>
-      <c r="I13" s="535"/>
+      <c r="G13" s="521"/>
+      <c r="I13" s="538"/>
       <c r="J13" s="108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
@@ -6737,12 +6723,12 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="519"/>
+      <c r="C14" s="522"/>
       <c r="D14" s="214" t="s">
         <v>154</v>
       </c>
@@ -6752,11 +6738,11 @@
       <c r="F14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="G14" s="519"/>
+      <c r="G14" s="522"/>
       <c r="H14" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="535"/>
+      <c r="I14" s="538"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -6774,7 +6760,7 @@
       <c r="H15" s="289">
         <v>0</v>
       </c>
-      <c r="I15" s="535"/>
+      <c r="I15" s="538"/>
       <c r="J15" s="108" t="s">
         <v>154</v>
       </c>
@@ -6798,7 +6784,7 @@
       <c r="D16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="535"/>
+      <c r="I16" s="538"/>
       <c r="K16" s="100" t="s">
         <v>44</v>
       </c>
@@ -6825,7 +6811,7 @@
       <c r="G17" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I17" s="535"/>
+      <c r="I17" s="538"/>
       <c r="L17" s="2" t="s">
         <v>444</v>
       </c>
@@ -6837,7 +6823,7 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="244" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>564</v>
@@ -6852,18 +6838,18 @@
         <v>44</v>
       </c>
       <c r="G18" s="16"/>
-      <c r="I18" s="535"/>
+      <c r="I18" s="538"/>
       <c r="L18" s="16"/>
       <c r="M18" s="21"/>
-      <c r="O18" s="532" t="s">
+      <c r="O18" s="535" t="s">
         <v>540</v>
       </c>
-      <c r="P18" s="533"/>
+      <c r="P18" s="536"/>
       <c r="Q18" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R18" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S18" s="24">
         <v>0</v>
@@ -6877,7 +6863,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="535"/>
+      <c r="I19" s="538"/>
       <c r="M19" s="21" t="s">
         <v>443</v>
       </c>
@@ -6908,7 +6894,7 @@
       <c r="G20" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I20" s="535"/>
+      <c r="I20" s="538"/>
       <c r="K20" s="19" t="s">
         <v>440</v>
       </c>
@@ -6927,7 +6913,7 @@
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="535"/>
+      <c r="I21" s="538"/>
       <c r="M21" s="227" t="s">
         <v>422</v>
       </c>
@@ -6951,11 +6937,11 @@
       <c r="G22" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I22" s="535"/>
+      <c r="I22" s="538"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -6963,12 +6949,12 @@
       <c r="E23" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="535"/>
+      <c r="I23" s="538"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="535"/>
+      <c r="I24" s="538"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="174" t="s">
@@ -6986,7 +6972,7 @@
       <c r="H25" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="I25" s="535"/>
+      <c r="I25" s="538"/>
       <c r="J25" s="449" t="s">
         <v>274</v>
       </c>
@@ -7004,7 +6990,7 @@
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="535"/>
+      <c r="I26" s="538"/>
       <c r="K26" s="24">
         <v>15</v>
       </c>
@@ -7014,17 +7000,17 @@
       <c r="M26" s="435" t="s">
         <v>538</v>
       </c>
-      <c r="P26" s="703"/>
+      <c r="P26" s="518"/>
       <c r="Q26" s="127" t="s">
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="24">
         <v>3</v>
       </c>
-      <c r="T26" s="706"/>
+      <c r="T26" s="39"/>
       <c r="V26">
         <v>-1</v>
       </c>
@@ -7039,17 +7025,15 @@
       <c r="B27" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I27" s="535"/>
+      <c r="I27" s="538"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P27" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="Q27" s="707"/>
-      <c r="R27" s="708"/>
-      <c r="S27" s="708"/>
-      <c r="T27" s="707"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
       <c r="U27" s="6"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7059,11 +7043,10 @@
       <c r="E28" s="226">
         <v>2</v>
       </c>
-      <c r="I28" s="535"/>
-      <c r="Q28" s="704"/>
-      <c r="R28" s="708"/>
-      <c r="S28" s="705"/>
-      <c r="T28" s="706"/>
+      <c r="I28" s="538"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="112"/>
+      <c r="T28" s="39"/>
       <c r="V28">
         <v>-1</v>
       </c>
@@ -7078,7 +7061,7 @@
       <c r="H29" s="201" t="s">
         <v>272</v>
       </c>
-      <c r="I29" s="536"/>
+      <c r="I29" s="539"/>
       <c r="J29" s="358"/>
       <c r="L29" s="96" t="s">
         <v>278</v>
@@ -7086,10 +7069,9 @@
       <c r="M29" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="Q29" s="707"/>
-      <c r="R29" s="709"/>
-      <c r="S29" s="708"/>
-      <c r="T29" s="710"/>
+      <c r="R29" s="519"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="80"/>
       <c r="V29" s="6">
         <v>-1</v>
       </c>
@@ -7122,8 +7104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="Q9" workbookViewId="0">
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7187,7 +7169,7 @@
       <c r="H1" s="97" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="552" t="s">
+      <c r="I1" s="555" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -7223,7 +7205,7 @@
       <c r="X1" s="482" t="s">
         <v>156</v>
       </c>
-      <c r="Y1" s="598" t="s">
+      <c r="Y1" s="601" t="s">
         <v>556</v>
       </c>
       <c r="Z1" s="458">
@@ -7248,7 +7230,7 @@
         <v>517</v>
       </c>
       <c r="AM1" s="454"/>
-      <c r="AN1" s="583"/>
+      <c r="AN1" s="586"/>
       <c r="AO1" s="375" t="s">
         <v>487</v>
       </c>
@@ -7257,23 +7239,23 @@
       </c>
     </row>
     <row r="2" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="607">
+      <c r="A2" s="610">
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="B2" s="609" t="s">
+      <c r="B2" s="612" t="s">
         <v>379</v>
       </c>
-      <c r="C2" s="554" t="s">
+      <c r="C2" s="557" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="611" t="s">
+      <c r="D2" s="614" t="s">
         <v>362</v>
       </c>
-      <c r="E2" s="556" t="s">
+      <c r="E2" s="559" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="564" t="s">
+      <c r="F2" s="567" t="s">
         <v>103</v>
       </c>
       <c r="G2" s="445" t="s">
@@ -7282,31 +7264,31 @@
       <c r="H2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="553"/>
+      <c r="I2" s="556"/>
       <c r="J2" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="558" t="s">
+      <c r="K2" s="561" t="s">
         <v>349</v>
       </c>
-      <c r="L2" s="559"/>
-      <c r="M2" s="564" t="s">
+      <c r="L2" s="562"/>
+      <c r="M2" s="567" t="s">
         <v>103</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="590" t="s">
+      <c r="O2" s="593" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="554" t="s">
+      <c r="Q2" s="557" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="517"/>
-      <c r="S2" s="577" t="s">
+      <c r="R2" s="520"/>
+      <c r="S2" s="580" t="s">
         <v>149</v>
       </c>
       <c r="T2" s="89"/>
@@ -7316,7 +7298,7 @@
       <c r="X2" s="483" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="599"/>
+      <c r="Y2" s="602"/>
       <c r="Z2" s="459">
         <v>1</v>
       </c>
@@ -7339,15 +7321,15 @@
         <v>481</v>
       </c>
       <c r="AM2" s="480"/>
-      <c r="AN2" s="584"/>
+      <c r="AN2" s="587"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="608"/>
-      <c r="B3" s="610"/>
-      <c r="C3" s="555"/>
-      <c r="D3" s="612"/>
-      <c r="E3" s="557"/>
-      <c r="F3" s="565"/>
+      <c r="A3" s="611"/>
+      <c r="B3" s="613"/>
+      <c r="C3" s="558"/>
+      <c r="D3" s="615"/>
+      <c r="E3" s="560"/>
+      <c r="F3" s="568"/>
       <c r="G3" s="446" t="s">
         <v>28</v>
       </c>
@@ -7366,17 +7348,17 @@
       <c r="L3" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="565"/>
+      <c r="M3" s="568"/>
       <c r="N3" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="591"/>
+      <c r="O3" s="594"/>
       <c r="P3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="555"/>
-      <c r="R3" s="519"/>
-      <c r="S3" s="579"/>
+      <c r="Q3" s="558"/>
+      <c r="R3" s="522"/>
+      <c r="S3" s="582"/>
       <c r="T3" s="89"/>
       <c r="U3" s="124"/>
       <c r="V3" s="120"/>
@@ -7384,7 +7366,7 @@
       <c r="X3" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="Y3" s="599"/>
+      <c r="Y3" s="602"/>
       <c r="Z3" s="460">
         <v>1</v>
       </c>
@@ -7393,7 +7375,7 @@
       <c r="AC3" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="AD3" s="574" t="s">
+      <c r="AD3" s="577" t="s">
         <v>473</v>
       </c>
       <c r="AE3" s="272"/>
@@ -7405,16 +7387,16 @@
       <c r="AK3" s="272"/>
       <c r="AL3" s="16"/>
       <c r="AM3" s="480"/>
-      <c r="AN3" s="584"/>
+      <c r="AN3" s="587"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="623" t="s">
+      <c r="B4" s="626" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="554" t="s">
+      <c r="C4" s="557" t="s">
         <v>155</v>
       </c>
       <c r="D4" s="384" t="s">
@@ -7423,7 +7405,7 @@
       <c r="E4" s="422">
         <v>1</v>
       </c>
-      <c r="F4" s="565"/>
+      <c r="F4" s="568"/>
       <c r="G4" s="427" t="s">
         <v>203</v>
       </c>
@@ -7440,11 +7422,11 @@
         <v>151</v>
       </c>
       <c r="L4" s="214"/>
-      <c r="M4" s="565"/>
+      <c r="M4" s="568"/>
       <c r="N4" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="591"/>
+      <c r="O4" s="594"/>
       <c r="P4" s="2" t="s">
         <v>192</v>
       </c>
@@ -7466,12 +7448,12 @@
       <c r="X4" s="483" t="s">
         <v>159</v>
       </c>
-      <c r="Y4" s="599"/>
+      <c r="Y4" s="602"/>
       <c r="Z4" s="461"/>
       <c r="AA4" s="325"/>
       <c r="AB4" s="219"/>
       <c r="AC4" s="16"/>
-      <c r="AD4" s="574"/>
+      <c r="AD4" s="577"/>
       <c r="AE4" s="272"/>
       <c r="AF4" s="272"/>
       <c r="AG4" s="16"/>
@@ -7481,37 +7463,37 @@
       <c r="AK4" s="272"/>
       <c r="AL4" s="16"/>
       <c r="AM4" s="480"/>
-      <c r="AN4" s="584"/>
+      <c r="AN4" s="587"/>
       <c r="AO4" s="375" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="552" t="s">
+      <c r="A5" s="555" t="s">
         <v>435</v>
       </c>
-      <c r="B5" s="624"/>
-      <c r="C5" s="555"/>
+      <c r="B5" s="627"/>
+      <c r="C5" s="558"/>
       <c r="D5" s="61" t="s">
         <v>154</v>
       </c>
       <c r="E5" s="423">
         <v>1</v>
       </c>
-      <c r="F5" s="565"/>
-      <c r="G5" s="615" t="s">
+      <c r="F5" s="568"/>
+      <c r="G5" s="618" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="615"/>
-      <c r="I5" s="615"/>
-      <c r="J5" s="615"/>
-      <c r="K5" s="615"/>
-      <c r="L5" s="616"/>
-      <c r="M5" s="565"/>
+      <c r="H5" s="618"/>
+      <c r="I5" s="618"/>
+      <c r="J5" s="618"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="619"/>
+      <c r="M5" s="568"/>
       <c r="N5" s="21">
         <v>8</v>
       </c>
-      <c r="O5" s="591"/>
+      <c r="O5" s="594"/>
       <c r="T5" s="89"/>
       <c r="U5" s="124"/>
       <c r="V5" s="120"/>
@@ -7519,7 +7501,7 @@
       <c r="X5" s="483" t="s">
         <v>160</v>
       </c>
-      <c r="Y5" s="599"/>
+      <c r="Y5" s="602"/>
       <c r="Z5" s="461">
         <v>1</v>
       </c>
@@ -7542,24 +7524,24 @@
       <c r="AK5" s="272"/>
       <c r="AL5" s="80"/>
       <c r="AM5" s="480"/>
-      <c r="AN5" s="584"/>
+      <c r="AN5" s="587"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="553"/>
-      <c r="B6" s="621" t="s">
+      <c r="A6" s="556"/>
+      <c r="B6" s="624" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="550"/>
-      <c r="D6" s="551"/>
-      <c r="F6" s="565"/>
-      <c r="G6" s="617"/>
-      <c r="H6" s="617"/>
-      <c r="I6" s="617"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="617"/>
-      <c r="L6" s="618"/>
-      <c r="M6" s="565"/>
-      <c r="O6" s="591"/>
+      <c r="C6" s="553"/>
+      <c r="D6" s="554"/>
+      <c r="F6" s="568"/>
+      <c r="G6" s="620"/>
+      <c r="H6" s="620"/>
+      <c r="I6" s="620"/>
+      <c r="J6" s="620"/>
+      <c r="K6" s="620"/>
+      <c r="L6" s="621"/>
+      <c r="M6" s="568"/>
+      <c r="O6" s="594"/>
       <c r="T6" s="89"/>
       <c r="U6" s="124"/>
       <c r="V6" s="98" t="s">
@@ -7569,7 +7551,7 @@
       <c r="X6" s="483" t="s">
         <v>161</v>
       </c>
-      <c r="Y6" s="599"/>
+      <c r="Y6" s="602"/>
       <c r="Z6" s="459">
         <v>1</v>
       </c>
@@ -7583,16 +7565,16 @@
       <c r="AF6" s="272"/>
       <c r="AG6" s="272"/>
       <c r="AH6" s="272"/>
-      <c r="AI6" s="573"/>
+      <c r="AI6" s="576"/>
       <c r="AJ6" s="493" t="s">
         <v>476</v>
       </c>
-      <c r="AK6" s="573" t="s">
+      <c r="AK6" s="576" t="s">
         <v>256</v>
       </c>
       <c r="AL6" s="272"/>
       <c r="AM6" s="480"/>
-      <c r="AN6" s="584"/>
+      <c r="AN6" s="587"/>
       <c r="AO6" s="375" t="s">
         <v>488</v>
       </c>
@@ -7601,7 +7583,7 @@
       <c r="A7" s="245" t="s">
         <v>552</v>
       </c>
-      <c r="B7" s="622"/>
+      <c r="B7" s="625"/>
       <c r="C7" s="212" t="s">
         <v>383</v>
       </c>
@@ -7611,7 +7593,7 @@
       <c r="E7" s="281">
         <v>3</v>
       </c>
-      <c r="F7" s="565"/>
+      <c r="F7" s="568"/>
       <c r="G7" s="447">
         <v>0</v>
       </c>
@@ -7624,14 +7606,14 @@
       <c r="J7" s="30">
         <v>0</v>
       </c>
-      <c r="K7" s="517">
+      <c r="K7" s="520">
         <v>1</v>
       </c>
       <c r="L7" s="222">
         <v>0</v>
       </c>
-      <c r="M7" s="565"/>
-      <c r="O7" s="591"/>
+      <c r="M7" s="568"/>
+      <c r="O7" s="594"/>
       <c r="R7" s="99" t="s">
         <v>44</v>
       </c>
@@ -7645,7 +7627,7 @@
       <c r="X7" s="483" t="s">
         <v>162</v>
       </c>
-      <c r="Y7" s="599"/>
+      <c r="Y7" s="602"/>
       <c r="Z7" s="459">
         <v>1</v>
       </c>
@@ -7655,18 +7637,18 @@
       <c r="AD7" s="16"/>
       <c r="AE7" s="272"/>
       <c r="AF7" s="272"/>
-      <c r="AG7" s="574" t="s">
+      <c r="AG7" s="577" t="s">
         <v>472</v>
       </c>
       <c r="AH7" s="272"/>
-      <c r="AI7" s="573"/>
+      <c r="AI7" s="576"/>
       <c r="AJ7" s="272"/>
-      <c r="AK7" s="573"/>
+      <c r="AK7" s="576"/>
       <c r="AL7" s="80" t="s">
         <v>515</v>
       </c>
       <c r="AM7" s="480"/>
-      <c r="AN7" s="584"/>
+      <c r="AN7" s="587"/>
       <c r="AP7" s="76" t="s">
         <v>489</v>
       </c>
@@ -7683,25 +7665,25 @@
         <f>SUM(G7:N9)</f>
         <v>16</v>
       </c>
-      <c r="F8" s="565"/>
-      <c r="G8" s="616">
-        <v>0</v>
-      </c>
-      <c r="H8" s="613" t="s">
+      <c r="F8" s="568"/>
+      <c r="G8" s="619">
+        <v>0</v>
+      </c>
+      <c r="H8" s="616" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="517"/>
-      <c r="J8" s="613" t="s">
+      <c r="I8" s="520"/>
+      <c r="J8" s="616" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="619"/>
-      <c r="L8" s="575"/>
-      <c r="M8" s="588"/>
-      <c r="N8" s="580">
+      <c r="K8" s="622"/>
+      <c r="L8" s="578"/>
+      <c r="M8" s="591"/>
+      <c r="N8" s="583">
         <f>N5+N11</f>
         <v>15</v>
       </c>
-      <c r="O8" s="591"/>
+      <c r="O8" s="594"/>
       <c r="T8" s="103" t="s">
         <v>44</v>
       </c>
@@ -7711,7 +7693,7 @@
       <c r="X8" s="483" t="s">
         <v>163</v>
       </c>
-      <c r="Y8" s="599"/>
+      <c r="Y8" s="602"/>
       <c r="Z8" s="461"/>
       <c r="AA8" s="325"/>
       <c r="AB8" s="219"/>
@@ -7719,14 +7701,14 @@
       <c r="AD8" s="16"/>
       <c r="AE8" s="272"/>
       <c r="AF8" s="272"/>
-      <c r="AG8" s="574"/>
+      <c r="AG8" s="577"/>
       <c r="AH8" s="272"/>
-      <c r="AI8" s="573"/>
+      <c r="AI8" s="576"/>
       <c r="AJ8" s="272"/>
       <c r="AK8" s="272"/>
       <c r="AL8" s="272"/>
       <c r="AM8" s="480"/>
-      <c r="AN8" s="584"/>
+      <c r="AN8" s="587"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="245" t="s">
@@ -7741,17 +7723,17 @@
       <c r="D9" s="385" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="565"/>
-      <c r="G9" s="618"/>
-      <c r="H9" s="614"/>
-      <c r="I9" s="519"/>
-      <c r="J9" s="614"/>
-      <c r="K9" s="620"/>
-      <c r="L9" s="576"/>
-      <c r="M9" s="589"/>
-      <c r="N9" s="581"/>
-      <c r="O9" s="592"/>
-      <c r="S9" s="577" t="s">
+      <c r="F9" s="568"/>
+      <c r="G9" s="621"/>
+      <c r="H9" s="617"/>
+      <c r="I9" s="522"/>
+      <c r="J9" s="617"/>
+      <c r="K9" s="623"/>
+      <c r="L9" s="579"/>
+      <c r="M9" s="592"/>
+      <c r="N9" s="584"/>
+      <c r="O9" s="595"/>
+      <c r="S9" s="580" t="s">
         <v>62</v>
       </c>
       <c r="T9" s="89"/>
@@ -7763,7 +7745,7 @@
       <c r="X9" s="483" t="s">
         <v>164</v>
       </c>
-      <c r="Y9" s="599"/>
+      <c r="Y9" s="602"/>
       <c r="Z9" s="462"/>
       <c r="AA9" s="325"/>
       <c r="AB9" s="219"/>
@@ -7773,16 +7755,16 @@
       </c>
       <c r="AE9" s="272"/>
       <c r="AF9" s="272"/>
-      <c r="AG9" s="574"/>
+      <c r="AG9" s="577"/>
       <c r="AH9" s="272"/>
-      <c r="AI9" s="573"/>
+      <c r="AI9" s="576"/>
       <c r="AJ9" s="80"/>
-      <c r="AK9" s="573" t="s">
+      <c r="AK9" s="576" t="s">
         <v>256</v>
       </c>
       <c r="AL9" s="272"/>
       <c r="AM9" s="480"/>
-      <c r="AN9" s="584"/>
+      <c r="AN9" s="587"/>
       <c r="AP9" s="2" t="s">
         <v>527</v>
       </c>
@@ -7799,20 +7781,20 @@
         <f>Boat!S8</f>
         <v>45</v>
       </c>
-      <c r="F10" s="565"/>
+      <c r="F10" s="568"/>
       <c r="N10" s="470" t="s">
         <v>407</v>
       </c>
-      <c r="O10" s="567" t="s">
+      <c r="O10" s="570" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="593" t="s">
+      <c r="P10" s="596" t="s">
         <v>411</v>
       </c>
       <c r="R10" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="578"/>
+      <c r="S10" s="581"/>
       <c r="T10" s="89"/>
       <c r="U10" s="123" t="s">
         <v>177</v>
@@ -7824,7 +7806,7 @@
       <c r="X10" s="483" t="s">
         <v>165</v>
       </c>
-      <c r="Y10" s="599"/>
+      <c r="Y10" s="602"/>
       <c r="Z10" s="461">
         <v>0</v>
       </c>
@@ -7842,16 +7824,16 @@
       <c r="AF10" s="251" t="s">
         <v>318</v>
       </c>
-      <c r="AG10" s="574"/>
+      <c r="AG10" s="577"/>
       <c r="AH10" s="80"/>
-      <c r="AI10" s="573"/>
+      <c r="AI10" s="576"/>
       <c r="AJ10" s="272"/>
-      <c r="AK10" s="573"/>
+      <c r="AK10" s="576"/>
       <c r="AL10" s="272"/>
       <c r="AM10" s="494" t="s">
         <v>325</v>
       </c>
-      <c r="AN10" s="584"/>
+      <c r="AN10" s="587"/>
       <c r="AO10" s="214" t="s">
         <v>95</v>
       </c>
@@ -7860,7 +7842,7 @@
       <c r="A11" s="236" t="s">
         <v>290</v>
       </c>
-      <c r="B11" s="517" t="s">
+      <c r="B11" s="520" t="s">
         <v>288</v>
       </c>
       <c r="C11" s="509" t="s">
@@ -7869,18 +7851,18 @@
       <c r="D11" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="565"/>
+      <c r="F11" s="568"/>
       <c r="M11" s="6"/>
       <c r="N11" s="117">
         <v>7</v>
       </c>
-      <c r="O11" s="568"/>
-      <c r="P11" s="594"/>
+      <c r="O11" s="571"/>
+      <c r="P11" s="597"/>
       <c r="Q11" s="65"/>
       <c r="R11" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="578"/>
+      <c r="S11" s="581"/>
       <c r="T11" s="102" t="s">
         <v>44</v>
       </c>
@@ -7890,7 +7872,7 @@
       <c r="X11" s="483" t="s">
         <v>166</v>
       </c>
-      <c r="Y11" s="599"/>
+      <c r="Y11" s="602"/>
       <c r="Z11" s="461"/>
       <c r="AA11" s="325">
         <v>1</v>
@@ -7904,14 +7886,14 @@
       <c r="AF11" s="272" t="s">
         <v>494</v>
       </c>
-      <c r="AG11" s="574"/>
+      <c r="AG11" s="577"/>
       <c r="AH11" s="272"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="272"/>
       <c r="AK11" s="272"/>
       <c r="AL11" s="272"/>
       <c r="AM11" s="480"/>
-      <c r="AN11" s="584"/>
+      <c r="AN11" s="587"/>
       <c r="AP11" s="76" t="s">
         <v>502</v>
       </c>
@@ -7920,7 +7902,7 @@
       <c r="A12" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="B12" s="519"/>
+      <c r="B12" s="522"/>
       <c r="C12" s="510" t="s">
         <v>394</v>
       </c>
@@ -7930,25 +7912,25 @@
       <c r="E12" s="237">
         <v>3</v>
       </c>
-      <c r="F12" s="565"/>
+      <c r="F12" s="568"/>
       <c r="G12" s="374" t="s">
         <v>411</v>
       </c>
-      <c r="H12" s="522" t="s">
+      <c r="H12" s="525" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="523"/>
-      <c r="J12" s="523"/>
-      <c r="K12" s="572"/>
+      <c r="I12" s="526"/>
+      <c r="J12" s="526"/>
+      <c r="K12" s="575"/>
       <c r="L12" s="213"/>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
-      <c r="O12" s="568"/>
-      <c r="P12" s="594"/>
+      <c r="O12" s="571"/>
+      <c r="P12" s="597"/>
       <c r="R12" s="122" t="s">
         <v>181</v>
       </c>
-      <c r="S12" s="579"/>
+      <c r="S12" s="582"/>
       <c r="T12" s="101" t="s">
         <v>44</v>
       </c>
@@ -7958,7 +7940,7 @@
       <c r="X12" s="483" t="s">
         <v>167</v>
       </c>
-      <c r="Y12" s="599"/>
+      <c r="Y12" s="602"/>
       <c r="Z12" s="459">
         <v>1</v>
       </c>
@@ -7969,16 +7951,16 @@
       <c r="AC12" s="100" t="s">
         <v>499</v>
       </c>
-      <c r="AD12" s="582" t="s">
+      <c r="AD12" s="585" t="s">
         <v>245</v>
       </c>
       <c r="AE12" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="AF12" s="574" t="s">
+      <c r="AF12" s="577" t="s">
         <v>231</v>
       </c>
-      <c r="AG12" s="574"/>
+      <c r="AG12" s="577"/>
       <c r="AH12" s="251" t="s">
         <v>264</v>
       </c>
@@ -7988,10 +7970,10 @@
       <c r="AJ12" s="272"/>
       <c r="AK12" s="272"/>
       <c r="AL12" s="272"/>
-      <c r="AM12" s="596" t="s">
+      <c r="AM12" s="599" t="s">
         <v>254</v>
       </c>
-      <c r="AN12" s="584"/>
+      <c r="AN12" s="587"/>
       <c r="AO12" s="375" t="s">
         <v>97</v>
       </c>
@@ -8003,17 +7985,17 @@
       <c r="E13" s="500">
         <v>-3</v>
       </c>
-      <c r="F13" s="565"/>
-      <c r="G13" s="523" t="s">
+      <c r="F13" s="568"/>
+      <c r="G13" s="526" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="523"/>
-      <c r="I13" s="523"/>
-      <c r="J13" s="572"/>
+      <c r="H13" s="526"/>
+      <c r="I13" s="526"/>
+      <c r="J13" s="575"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="568"/>
-      <c r="P13" s="595"/>
+      <c r="O13" s="571"/>
+      <c r="P13" s="598"/>
       <c r="T13" s="105" t="s">
         <v>44</v>
       </c>
@@ -8023,7 +8005,7 @@
       <c r="X13" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="Y13" s="599"/>
+      <c r="Y13" s="602"/>
       <c r="Z13" s="459">
         <v>1</v>
       </c>
@@ -8034,8 +8016,8 @@
         <v>519</v>
       </c>
       <c r="AC13" s="16"/>
-      <c r="AD13" s="582"/>
-      <c r="AF13" s="574"/>
+      <c r="AD13" s="585"/>
+      <c r="AF13" s="577"/>
       <c r="AG13" s="80"/>
       <c r="AH13" s="251" t="s">
         <v>314</v>
@@ -8046,8 +8028,8 @@
       <c r="AJ13" s="80"/>
       <c r="AK13" s="272"/>
       <c r="AL13" s="272"/>
-      <c r="AM13" s="596"/>
-      <c r="AN13" s="584"/>
+      <c r="AM13" s="599"/>
+      <c r="AN13" s="587"/>
     </row>
     <row r="14" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="502"/>
@@ -8055,18 +8037,18 @@
       <c r="C14" s="511"/>
       <c r="D14" s="504"/>
       <c r="E14" s="505"/>
-      <c r="F14" s="565"/>
-      <c r="G14" s="523" t="s">
+      <c r="F14" s="568"/>
+      <c r="G14" s="526" t="s">
         <v>447</v>
       </c>
-      <c r="H14" s="523"/>
-      <c r="I14" s="523"/>
-      <c r="J14" s="572"/>
+      <c r="H14" s="526"/>
+      <c r="I14" s="526"/>
+      <c r="J14" s="575"/>
       <c r="K14" s="2">
         <v>12</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="568"/>
+      <c r="O14" s="571"/>
       <c r="Q14" s="61" t="s">
         <v>560</v>
       </c>
@@ -8080,34 +8062,34 @@
       <c r="X14" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="Y14" s="599"/>
+      <c r="Y14" s="602"/>
       <c r="Z14" s="459">
         <v>1</v>
       </c>
       <c r="AA14" s="325"/>
       <c r="AB14" s="219"/>
       <c r="AC14" s="16"/>
-      <c r="AD14" s="582"/>
+      <c r="AD14" s="585"/>
       <c r="AE14" s="272"/>
-      <c r="AF14" s="574"/>
+      <c r="AF14" s="577"/>
       <c r="AG14" s="272"/>
       <c r="AH14" s="272"/>
       <c r="AI14" s="70"/>
       <c r="AJ14" s="272"/>
       <c r="AK14" s="272"/>
       <c r="AL14" s="272"/>
-      <c r="AM14" s="596"/>
-      <c r="AN14" s="584"/>
+      <c r="AM14" s="599"/>
+      <c r="AN14" s="587"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="501" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="517" t="s">
+      <c r="C15" s="520" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="565"/>
-      <c r="O15" s="568"/>
+      <c r="F15" s="568"/>
+      <c r="O15" s="571"/>
       <c r="R15" s="99" t="s">
         <v>44</v>
       </c>
@@ -8120,7 +8102,7 @@
       <c r="X15" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="Y15" s="599"/>
+      <c r="Y15" s="602"/>
       <c r="Z15" s="461">
         <v>1</v>
       </c>
@@ -8129,8 +8111,8 @@
       <c r="AC15" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="AD15" s="582"/>
-      <c r="AF15" s="574"/>
+      <c r="AD15" s="585"/>
+      <c r="AF15" s="577"/>
       <c r="AG15" s="80"/>
       <c r="AH15" s="251" t="s">
         <v>466</v>
@@ -8143,8 +8125,8 @@
       </c>
       <c r="AK15" s="272"/>
       <c r="AL15" s="272"/>
-      <c r="AM15" s="596"/>
-      <c r="AN15" s="584"/>
+      <c r="AM15" s="599"/>
+      <c r="AN15" s="587"/>
       <c r="AP15" s="76" t="s">
         <v>74</v>
       </c>
@@ -8159,20 +8141,20 @@
       <c r="B16" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="519"/>
+      <c r="C16" s="522"/>
       <c r="D16" s="61" t="s">
         <v>511</v>
       </c>
       <c r="E16" s="237">
         <v>1</v>
       </c>
-      <c r="F16" s="565"/>
+      <c r="F16" s="568"/>
       <c r="G16" s="374" t="s">
         <v>506</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
-      <c r="O16" s="568"/>
+      <c r="O16" s="571"/>
       <c r="R16" s="487" t="s">
         <v>185</v>
       </c>
@@ -8183,7 +8165,7 @@
       <c r="X16" s="483" t="s">
         <v>171</v>
       </c>
-      <c r="Y16" s="599"/>
+      <c r="Y16" s="602"/>
       <c r="Z16" s="459">
         <v>1</v>
       </c>
@@ -8204,18 +8186,18 @@
       <c r="AM16" s="480" t="s">
         <v>324</v>
       </c>
-      <c r="AN16" s="584"/>
+      <c r="AN16" s="587"/>
       <c r="AP16" s="76" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="F17" s="565"/>
+      <c r="F17" s="568"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="568"/>
+      <c r="O17" s="571"/>
       <c r="Q17" s="21" t="s">
         <v>558</v>
       </c>
@@ -8235,7 +8217,7 @@
       <c r="X17" s="483" t="s">
         <v>172</v>
       </c>
-      <c r="Y17" s="599"/>
+      <c r="Y17" s="602"/>
       <c r="Z17" s="461"/>
       <c r="AA17" s="325"/>
       <c r="AB17" s="219"/>
@@ -8260,7 +8242,7 @@
       <c r="AK17" s="272"/>
       <c r="AL17" s="80"/>
       <c r="AM17" s="480"/>
-      <c r="AN17" s="584"/>
+      <c r="AN17" s="587"/>
       <c r="AO17" s="214" t="s">
         <v>516</v>
       </c>
@@ -8269,8 +8251,8 @@
       </c>
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="702" t="s">
-        <v>574</v>
+      <c r="A18" s="517" t="s">
+        <v>583</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>564</v>
@@ -8284,21 +8266,21 @@
       <c r="E18" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="565"/>
+      <c r="F18" s="568"/>
       <c r="G18" s="374" t="s">
         <v>555</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="O18" s="568"/>
+      <c r="O18" s="571"/>
       <c r="Q18" s="112"/>
-      <c r="R18" s="560" t="s">
+      <c r="R18" s="563" t="s">
         <v>563</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="U18" s="604" t="s">
+      <c r="U18" s="607" t="s">
         <v>44</v>
       </c>
       <c r="V18" s="120"/>
@@ -8308,7 +8290,7 @@
       <c r="X18" s="483" t="s">
         <v>173</v>
       </c>
-      <c r="Y18" s="599"/>
+      <c r="Y18" s="602"/>
       <c r="Z18" s="461">
         <v>1</v>
       </c>
@@ -8319,37 +8301,37 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
       <c r="AE18" s="272"/>
-      <c r="AF18" s="573" t="s">
+      <c r="AF18" s="576" t="s">
         <v>493</v>
       </c>
       <c r="AG18" s="272"/>
       <c r="AH18" s="70"/>
       <c r="AI18" s="70"/>
-      <c r="AJ18" s="597" t="s">
+      <c r="AJ18" s="600" t="s">
         <v>322</v>
       </c>
       <c r="AK18" s="272"/>
       <c r="AL18" s="80"/>
       <c r="AM18" s="480"/>
-      <c r="AN18" s="584"/>
+      <c r="AN18" s="587"/>
       <c r="AP18" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="565"/>
-      <c r="O19" s="568"/>
-      <c r="R19" s="561"/>
+      <c r="F19" s="568"/>
+      <c r="O19" s="571"/>
+      <c r="R19" s="564"/>
       <c r="S19" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="U19" s="605"/>
+      <c r="U19" s="608"/>
       <c r="V19" s="146"/>
       <c r="W19" s="146"/>
       <c r="X19" s="483" t="s">
         <v>174</v>
       </c>
-      <c r="Y19" s="599"/>
+      <c r="Y19" s="602"/>
       <c r="Z19" s="459">
         <v>1</v>
       </c>
@@ -8358,17 +8340,17 @@
       <c r="AC19" s="16"/>
       <c r="AD19" s="16"/>
       <c r="AE19" s="272"/>
-      <c r="AF19" s="573"/>
+      <c r="AF19" s="576"/>
       <c r="AG19" s="272"/>
       <c r="AH19" s="272"/>
       <c r="AI19" s="70"/>
-      <c r="AJ19" s="597"/>
+      <c r="AJ19" s="600"/>
       <c r="AK19" s="512" t="s">
         <v>256</v>
       </c>
       <c r="AL19" s="80"/>
       <c r="AM19" s="480"/>
-      <c r="AN19" s="584"/>
+      <c r="AN19" s="587"/>
       <c r="AP19" s="76" t="s">
         <v>486</v>
       </c>
@@ -8389,23 +8371,23 @@
       <c r="E20" s="489">
         <v>-1</v>
       </c>
-      <c r="F20" s="565"/>
+      <c r="F20" s="568"/>
       <c r="G20" s="374" t="s">
         <v>509</v>
       </c>
-      <c r="O20" s="568"/>
-      <c r="Q20" s="570" t="s">
+      <c r="O20" s="571"/>
+      <c r="Q20" s="573" t="s">
         <v>48</v>
       </c>
       <c r="T20" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="U20" s="606"/>
+      <c r="U20" s="609"/>
       <c r="W20" s="457"/>
       <c r="X20" s="484" t="s">
         <v>175</v>
       </c>
-      <c r="Y20" s="599"/>
+      <c r="Y20" s="602"/>
       <c r="Z20" s="463">
         <v>1</v>
       </c>
@@ -8430,7 +8412,7 @@
       <c r="AM20" s="427" t="s">
         <v>254</v>
       </c>
-      <c r="AN20" s="584"/>
+      <c r="AN20" s="587"/>
       <c r="AO20" s="375" t="s">
         <v>478</v>
       </c>
@@ -8454,19 +8436,19 @@
       <c r="E21" s="281">
         <v>1</v>
       </c>
-      <c r="F21" s="565"/>
-      <c r="O21" s="568"/>
-      <c r="Q21" s="571"/>
+      <c r="F21" s="568"/>
+      <c r="O21" s="571"/>
+      <c r="Q21" s="574"/>
       <c r="T21" s="474"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="601"/>
+      <c r="V21" s="604"/>
       <c r="W21" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X21" s="481" t="s">
         <v>187</v>
       </c>
-      <c r="Y21" s="599"/>
+      <c r="Y21" s="602"/>
       <c r="Z21" s="497">
         <v>3</v>
       </c>
@@ -8497,14 +8479,14 @@
       <c r="AM21" s="480" t="s">
         <v>573</v>
       </c>
-      <c r="AN21" s="584"/>
+      <c r="AN21" s="587"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="565"/>
+      <c r="F22" s="568"/>
       <c r="G22" s="374" t="s">
         <v>507</v>
       </c>
-      <c r="O22" s="568"/>
+      <c r="O22" s="571"/>
       <c r="R22" s="486" t="s">
         <v>44</v>
       </c>
@@ -8512,14 +8494,14 @@
         <v>44</v>
       </c>
       <c r="U22" s="15"/>
-      <c r="V22" s="602"/>
+      <c r="V22" s="605"/>
       <c r="W22" s="478" t="s">
         <v>176</v>
       </c>
       <c r="X22" s="481" t="s">
         <v>188</v>
       </c>
-      <c r="Y22" s="599"/>
+      <c r="Y22" s="602"/>
       <c r="Z22" s="467"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="467"/>
@@ -8530,7 +8512,7 @@
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
-      <c r="AJ22" s="573" t="s">
+      <c r="AJ22" s="576" t="s">
         <v>490</v>
       </c>
       <c r="AK22" s="272"/>
@@ -8538,11 +8520,11 @@
         <v>496</v>
       </c>
       <c r="AM22" s="318"/>
-      <c r="AN22" s="584"/>
+      <c r="AN22" s="587"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
@@ -8556,21 +8538,21 @@
       <c r="E23" s="238">
         <v>1</v>
       </c>
-      <c r="F23" s="565"/>
-      <c r="O23" s="568"/>
-      <c r="Q23" s="570" t="s">
+      <c r="F23" s="568"/>
+      <c r="O23" s="571"/>
+      <c r="Q23" s="573" t="s">
         <v>145</v>
       </c>
       <c r="T23" s="17"/>
       <c r="U23" s="472" t="s">
         <v>44</v>
       </c>
-      <c r="V23" s="602"/>
+      <c r="V23" s="605"/>
       <c r="W23" s="148"/>
       <c r="X23" s="481" t="s">
         <v>189</v>
       </c>
-      <c r="Y23" s="599"/>
+      <c r="Y23" s="602"/>
       <c r="Z23" s="17"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="467"/>
@@ -8581,13 +8563,13 @@
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
-      <c r="AJ23" s="573"/>
+      <c r="AJ23" s="576"/>
       <c r="AK23" s="272"/>
       <c r="AL23" s="80" t="s">
         <v>526</v>
       </c>
       <c r="AM23" s="318"/>
-      <c r="AN23" s="584"/>
+      <c r="AN23" s="587"/>
     </row>
     <row r="24" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="492" t="s">
@@ -8605,22 +8587,22 @@
       <c r="E24" s="488">
         <v>1</v>
       </c>
-      <c r="F24" s="565"/>
+      <c r="F24" s="568"/>
       <c r="G24" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="O24" s="568"/>
-      <c r="Q24" s="571"/>
+      <c r="O24" s="571"/>
+      <c r="Q24" s="574"/>
       <c r="T24" s="17"/>
       <c r="U24" s="240" t="s">
         <v>44</v>
       </c>
-      <c r="V24" s="602"/>
+      <c r="V24" s="605"/>
       <c r="W24" s="148"/>
       <c r="X24" s="481" t="s">
         <v>186</v>
       </c>
-      <c r="Y24" s="599"/>
+      <c r="Y24" s="602"/>
       <c r="Z24" s="17"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="467"/>
@@ -8639,11 +8621,11 @@
         <v>481</v>
       </c>
       <c r="AM24" s="318"/>
-      <c r="AN24" s="584"/>
+      <c r="AN24" s="587"/>
     </row>
     <row r="25" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="565"/>
-      <c r="O25" s="568"/>
+      <c r="F25" s="568"/>
+      <c r="O25" s="571"/>
       <c r="P25" s="214" t="s">
         <v>285</v>
       </c>
@@ -8656,12 +8638,12 @@
       <c r="U25" s="452" t="s">
         <v>44</v>
       </c>
-      <c r="V25" s="603"/>
+      <c r="V25" s="606"/>
       <c r="W25" s="148"/>
       <c r="X25" s="481" t="s">
         <v>190</v>
       </c>
-      <c r="Y25" s="599"/>
+      <c r="Y25" s="602"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="467"/>
@@ -8678,7 +8660,7 @@
       <c r="AK25" s="142"/>
       <c r="AL25" s="6"/>
       <c r="AM25" s="318"/>
-      <c r="AN25" s="584"/>
+      <c r="AN25" s="587"/>
     </row>
     <row r="26" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="244" t="s">
@@ -8696,16 +8678,16 @@
       <c r="E26" s="424">
         <v>1</v>
       </c>
-      <c r="F26" s="565"/>
+      <c r="F26" s="568"/>
       <c r="G26" s="374" t="s">
         <v>505</v>
       </c>
-      <c r="O26" s="568"/>
-      <c r="P26" s="586" t="s">
+      <c r="O26" s="571"/>
+      <c r="P26" s="589" t="s">
         <v>549</v>
       </c>
-      <c r="Q26" s="587"/>
-      <c r="R26" s="562" t="s">
+      <c r="Q26" s="590"/>
+      <c r="R26" s="565" t="s">
         <v>562</v>
       </c>
       <c r="T26" s="183"/>
@@ -8717,7 +8699,7 @@
       <c r="X26" s="481" t="s">
         <v>182</v>
       </c>
-      <c r="Y26" s="599"/>
+      <c r="Y26" s="602"/>
       <c r="Z26" s="17"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="467"/>
@@ -8744,7 +8726,7 @@
       <c r="AM26" s="494" t="s">
         <v>474</v>
       </c>
-      <c r="AN26" s="584"/>
+      <c r="AN26" s="587"/>
     </row>
     <row r="27" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="21" t="s">
@@ -8756,12 +8738,12 @@
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="566"/>
+      <c r="F27" s="569"/>
       <c r="G27" s="61" t="s">
         <v>572</v>
       </c>
-      <c r="O27" s="569"/>
-      <c r="R27" s="563"/>
+      <c r="O27" s="572"/>
+      <c r="R27" s="566"/>
       <c r="S27" s="473" t="s">
         <v>54</v>
       </c>
@@ -8774,7 +8756,7 @@
       <c r="X27" s="481" t="s">
         <v>557</v>
       </c>
-      <c r="Y27" s="600"/>
+      <c r="Y27" s="603"/>
       <c r="Z27" s="163"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="468"/>
@@ -8791,7 +8773,7 @@
       <c r="AM27" s="427" t="s">
         <v>326</v>
       </c>
-      <c r="AN27" s="585"/>
+      <c r="AN27" s="588"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -8858,8 +8840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8946,16 +8928,16 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="6"/>
-      <c r="T1" s="552" t="s">
+      <c r="T1" s="555" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="629" t="s">
+      <c r="U1" s="632" t="s">
         <v>237</v>
       </c>
-      <c r="V1" s="631" t="s">
+      <c r="V1" s="634" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="632"/>
+      <c r="W1" s="635"/>
       <c r="X1" s="324">
         <f>68-(S8+W3+V3+Q3)</f>
         <v>0</v>
@@ -8971,42 +8953,42 @@
       <c r="AB1" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="633" t="s">
+      <c r="AC1" s="636" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="634"/>
-      <c r="AE1" s="635"/>
-      <c r="AF1" s="636" t="s">
+      <c r="AD1" s="637"/>
+      <c r="AE1" s="638"/>
+      <c r="AF1" s="639" t="s">
         <v>298</v>
       </c>
-      <c r="AG1" s="637"/>
-      <c r="AH1" s="638"/>
-      <c r="AI1" s="625" t="s">
+      <c r="AG1" s="640"/>
+      <c r="AH1" s="641"/>
+      <c r="AI1" s="628" t="s">
         <v>462</v>
       </c>
-      <c r="AJ1" s="626"/>
-      <c r="AK1" s="627"/>
+      <c r="AJ1" s="629"/>
+      <c r="AK1" s="630"/>
       <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="639">
+      <c r="J2" s="642">
         <f>SUM(J5:J30)</f>
         <v>2</v>
       </c>
-      <c r="K2" s="641">
+      <c r="K2" s="644">
         <f>SUM(K4:K29)</f>
         <v>2</v>
       </c>
-      <c r="L2" s="643">
+      <c r="L2" s="646">
         <f>SUM(L4:L29)</f>
         <v>3</v>
       </c>
-      <c r="M2" s="580">
+      <c r="M2" s="583">
         <f>SUM(K30:K37)* (-1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="285" t="s">
         <v>243</v>
@@ -9023,11 +9005,11 @@
       <c r="R2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="645" t="s">
+      <c r="S2" s="648" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="628"/>
-      <c r="U2" s="630"/>
+      <c r="T2" s="631"/>
+      <c r="U2" s="633"/>
       <c r="V2" s="61" t="s">
         <v>456</v>
       </c>
@@ -9087,10 +9069,10 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J3" s="640"/>
-      <c r="K3" s="642"/>
-      <c r="L3" s="644"/>
-      <c r="M3" s="581"/>
+      <c r="J3" s="643"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="647"/>
+      <c r="M3" s="584"/>
       <c r="N3" s="177">
         <f>(J2+K2)-W3</f>
         <v>0</v>
@@ -9106,8 +9088,8 @@
         <f>SUM(R4:R29)</f>
         <v>45</v>
       </c>
-      <c r="S3" s="646"/>
-      <c r="T3" s="553"/>
+      <c r="S3" s="649"/>
+      <c r="T3" s="556"/>
       <c r="U3" s="331">
         <f>R3+V3+W3+Q3</f>
         <v>68</v>
@@ -9162,7 +9144,7 @@
       </c>
       <c r="AH3" s="100">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI3" s="100">
         <f t="shared" si="1"/>
@@ -9208,7 +9190,7 @@
         <f>AA4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="647" t="s">
+      <c r="M4" s="650" t="s">
         <v>200</v>
       </c>
       <c r="N4" s="20"/>
@@ -9258,9 +9240,7 @@
         <v>0</v>
       </c>
       <c r="AG4" s="413"/>
-      <c r="AH4" s="419">
-        <v>2</v>
-      </c>
+      <c r="AH4" s="419"/>
       <c r="AI4" s="326">
         <f>AB4+AG4+Y4</f>
         <v>0</v>
@@ -9287,7 +9267,7 @@
         <f>AA5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="648"/>
+      <c r="M5" s="651"/>
       <c r="N5" s="20"/>
       <c r="O5" s="2" t="s">
         <v>347</v>
@@ -9375,7 +9355,7 @@
         <f>AA6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="648"/>
+      <c r="M6" s="651"/>
       <c r="N6" s="19" t="s">
         <v>342</v>
       </c>
@@ -9465,7 +9445,7 @@
         <f t="shared" ref="L7:L37" si="10">AA7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="648"/>
+      <c r="M7" s="651"/>
       <c r="N7" s="20"/>
       <c r="O7" s="2" t="s">
         <v>342</v>
@@ -9573,7 +9553,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M8" s="648"/>
+      <c r="M8" s="651"/>
       <c r="N8" s="21" t="s">
         <v>238</v>
       </c>
@@ -9659,7 +9639,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M9" s="648"/>
+      <c r="M9" s="651"/>
       <c r="N9" s="21" t="s">
         <v>342</v>
       </c>
@@ -9759,7 +9739,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M10" s="648"/>
+      <c r="M10" s="651"/>
       <c r="N10" s="20"/>
       <c r="O10" s="2" t="s">
         <v>347</v>
@@ -9838,7 +9818,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M11" s="648"/>
+      <c r="M11" s="651"/>
       <c r="N11" s="21" t="s">
         <v>342</v>
       </c>
@@ -9900,7 +9880,7 @@
       <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="616" t="s">
+      <c r="A12" s="619" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="30">
@@ -9909,14 +9889,14 @@
       <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="570" t="s">
+      <c r="E12" s="573" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="277">
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I12" s="430" t="s">
         <v>302</v>
@@ -9929,7 +9909,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M12" s="648"/>
+      <c r="M12" s="651"/>
       <c r="N12" s="21" t="s">
         <v>342</v>
       </c>
@@ -10003,14 +9983,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="618"/>
+      <c r="A13" s="621"/>
       <c r="B13" s="153">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="571"/>
+      <c r="E13" s="574"/>
       <c r="F13" s="177">
         <v>0</v>
       </c>
@@ -10031,7 +10011,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M13" s="648"/>
+      <c r="M13" s="651"/>
       <c r="N13" s="21" t="s">
         <v>342</v>
       </c>
@@ -10106,7 +10086,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M14" s="648"/>
+      <c r="M14" s="651"/>
       <c r="N14" s="20"/>
       <c r="O14" s="210" t="s">
         <v>346</v>
@@ -10189,7 +10169,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M15" s="648"/>
+      <c r="M15" s="651"/>
       <c r="N15" s="20"/>
       <c r="O15" s="210" t="s">
         <v>346</v>
@@ -10274,7 +10254,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M16" s="648"/>
+      <c r="M16" s="651"/>
       <c r="N16" s="21" t="s">
         <v>342</v>
       </c>
@@ -10363,7 +10343,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M17" s="648"/>
+      <c r="M17" s="651"/>
       <c r="N17" s="20"/>
       <c r="O17" s="2" t="s">
         <v>348</v>
@@ -10446,7 +10426,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M18" s="648"/>
+      <c r="M18" s="651"/>
       <c r="N18" s="21" t="s">
         <v>342</v>
       </c>
@@ -10533,7 +10513,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="M19" s="648"/>
+      <c r="M19" s="651"/>
       <c r="N19" s="20"/>
       <c r="O19" s="2" t="s">
         <v>341</v>
@@ -10597,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AN19" s="112"/>
     </row>
@@ -10628,11 +10608,11 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M20" s="649"/>
-      <c r="N20" s="522" t="s">
+      <c r="M20" s="652"/>
+      <c r="N20" s="525" t="s">
         <v>342</v>
       </c>
-      <c r="O20" s="572"/>
+      <c r="O20" s="575"/>
       <c r="P20" s="334" t="s">
         <v>86</v>
       </c>
@@ -10873,7 +10853,7 @@
       <c r="AN22" s="112"/>
     </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="623" t="s">
+      <c r="E23" s="626" t="s">
         <v>294</v>
       </c>
       <c r="F23" s="185">
@@ -10959,7 +10939,7 @@
       <c r="C24" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E24" s="624"/>
+      <c r="E24" s="627"/>
       <c r="F24" s="177"/>
       <c r="I24" s="430" t="s">
         <v>301</v>
@@ -10974,10 +10954,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N24" s="522" t="s">
+      <c r="N24" s="525" t="s">
         <v>342</v>
       </c>
-      <c r="O24" s="572"/>
+      <c r="O24" s="575"/>
       <c r="P24" s="334" t="s">
         <v>254</v>
       </c>
@@ -11587,11 +11567,11 @@
       <c r="I32" s="433"/>
       <c r="J32" s="370"/>
       <c r="K32" s="264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="311">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="20"/>
       <c r="P32" s="17" t="s">
@@ -11601,7 +11581,7 @@
         <v>2</v>
       </c>
       <c r="R32" s="157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S32" s="15">
         <v>-2</v>
@@ -11615,50 +11595,48 @@
       </c>
       <c r="W32" s="190">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" s="65"/>
       <c r="Y32" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="64">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC32" s="387">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="391"/>
       <c r="AE32" s="392"/>
       <c r="AF32" s="346">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="373">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="348">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="348"/>
       <c r="AI32" s="372">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="327">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="328">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="6" t="s">
         <v>467</v>
@@ -11975,7 +11953,7 @@
       </c>
       <c r="L37" s="311">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="20"/>
       <c r="P37" s="265" t="s">
@@ -12000,27 +11978,27 @@
       <c r="X37" s="65"/>
       <c r="Y37" s="117">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="64">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="319">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC37" s="387">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="393"/>
       <c r="AE37" s="394"/>
       <c r="AF37" s="388">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="416">
         <v>0</v>
@@ -12030,15 +12008,15 @@
       </c>
       <c r="AI37" s="372">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="327">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="328">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="6" t="s">
         <v>486</v>
@@ -12097,15 +12075,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="522" t="s">
+      <c r="B1" s="525" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="572"/>
+      <c r="C1" s="575"/>
       <c r="D1" s="214"/>
-      <c r="J1" s="522" t="s">
+      <c r="J1" s="525" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="572"/>
+      <c r="K1" s="575"/>
       <c r="L1" s="205" t="s">
         <v>337</v>
       </c>
@@ -12143,13 +12121,13 @@
         <v>34</v>
       </c>
       <c r="L2" s="206"/>
-      <c r="M2" s="650"/>
+      <c r="M2" s="653"/>
       <c r="N2" s="154">
         <v>2</v>
       </c>
       <c r="O2" s="155"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="653" t="s">
+      <c r="Q2" s="656" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="19">
@@ -12172,13 +12150,13 @@
       <c r="K3" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="M3" s="651"/>
+      <c r="M3" s="654"/>
       <c r="N3" s="17">
         <v>1</v>
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="654"/>
+      <c r="Q3" s="657"/>
       <c r="R3" s="231"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12197,13 +12175,13 @@
       <c r="K4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="651"/>
+      <c r="M4" s="654"/>
       <c r="N4" s="17"/>
       <c r="O4" s="15">
         <v>1</v>
       </c>
       <c r="P4" s="10"/>
-      <c r="Q4" s="654"/>
+      <c r="Q4" s="657"/>
       <c r="R4" s="231"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12223,13 +12201,13 @@
         <v>13</v>
       </c>
       <c r="L5" s="206"/>
-      <c r="M5" s="651"/>
+      <c r="M5" s="654"/>
       <c r="N5" s="17">
         <v>1</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="654"/>
+      <c r="Q5" s="657"/>
       <c r="R5" s="19">
         <v>-1</v>
       </c>
@@ -12250,13 +12228,13 @@
       <c r="K6" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="M6" s="651"/>
+      <c r="M6" s="654"/>
       <c r="N6" s="17">
         <v>1</v>
       </c>
       <c r="O6" s="15"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="654"/>
+      <c r="Q6" s="657"/>
       <c r="R6" s="231"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12276,13 +12254,13 @@
         <v>334</v>
       </c>
       <c r="L7" s="208"/>
-      <c r="M7" s="651"/>
+      <c r="M7" s="654"/>
       <c r="N7" s="17">
         <v>1</v>
       </c>
       <c r="O7" s="15"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="654"/>
+      <c r="Q7" s="657"/>
       <c r="R7" s="19">
         <v>-1</v>
       </c>
@@ -12303,13 +12281,13 @@
       <c r="K8" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="M8" s="651"/>
+      <c r="M8" s="654"/>
       <c r="N8" s="17">
         <v>1</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="10"/>
-      <c r="Q8" s="654"/>
+      <c r="Q8" s="657"/>
       <c r="R8" s="231"/>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12329,13 +12307,13 @@
         <v>336</v>
       </c>
       <c r="L9" s="186"/>
-      <c r="M9" s="652"/>
+      <c r="M9" s="655"/>
       <c r="N9" s="163"/>
       <c r="O9" s="18"/>
       <c r="P9" s="13">
         <v>1</v>
       </c>
-      <c r="Q9" s="655"/>
+      <c r="Q9" s="658"/>
       <c r="R9" s="232"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
@@ -12493,10 +12471,10 @@
         <f ca="1">TODAY()</f>
         <v>45275</v>
       </c>
-      <c r="V1" s="522" t="s">
+      <c r="V1" s="525" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="572"/>
+      <c r="W1" s="575"/>
       <c r="X1" s="62" t="s">
         <v>102</v>
       </c>
@@ -12515,7 +12493,7 @@
       <c r="AC1" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="663" t="s">
+      <c r="AD1" s="666" t="s">
         <v>213</v>
       </c>
       <c r="AE1" s="116" t="s">
@@ -12532,10 +12510,10 @@
       <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="662" t="s">
+      <c r="F2" s="665" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="690" t="s">
+      <c r="G2" s="693" t="s">
         <v>44</v>
       </c>
       <c r="H2" s="40" t="s">
@@ -12563,10 +12541,10 @@
       <c r="U2" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="V2" s="631" t="s">
+      <c r="V2" s="634" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="632"/>
+      <c r="W2" s="635"/>
       <c r="X2" s="64" t="s">
         <v>110</v>
       </c>
@@ -12585,7 +12563,7 @@
       <c r="AC2" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="664"/>
+      <c r="AD2" s="667"/>
       <c r="AE2" s="64" t="s">
         <v>99</v>
       </c>
@@ -12604,8 +12582,8 @@
       <c r="E3" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="620"/>
-      <c r="G3" s="691"/>
+      <c r="F3" s="623"/>
+      <c r="G3" s="694"/>
       <c r="H3" s="40" t="s">
         <v>81</v>
       </c>
@@ -12616,13 +12594,13 @@
         <v>82</v>
       </c>
       <c r="N3" s="44"/>
-      <c r="O3" s="700" t="s">
+      <c r="O3" s="703" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="682" t="s">
+      <c r="P3" s="685" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" s="683"/>
+      <c r="Q3" s="686"/>
       <c r="S3" s="57" t="s">
         <v>220</v>
       </c>
@@ -12632,15 +12610,15 @@
       <c r="W3" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="664"/>
+      <c r="AD3" s="667"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="691"/>
+      <c r="G4" s="694"/>
       <c r="H4" s="6"/>
-      <c r="L4" s="653" t="s">
+      <c r="L4" s="656" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="701"/>
+      <c r="O4" s="704"/>
       <c r="T4" s="55" t="s">
         <v>98</v>
       </c>
@@ -12650,12 +12628,12 @@
       <c r="X4" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="522" t="s">
+      <c r="Y4" s="525" t="s">
         <v>195</v>
       </c>
-      <c r="Z4" s="523"/>
-      <c r="AA4" s="572"/>
-      <c r="AD4" s="664"/>
+      <c r="Z4" s="526"/>
+      <c r="AA4" s="575"/>
+      <c r="AD4" s="667"/>
     </row>
     <row r="5" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52" t="s">
@@ -12670,21 +12648,21 @@
       <c r="F5" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="691"/>
+      <c r="G5" s="694"/>
       <c r="H5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="669" t="s">
+      <c r="K5" s="672" t="s">
         <v>217</v>
       </c>
-      <c r="L5" s="684"/>
+      <c r="L5" s="687"/>
       <c r="M5" s="2" t="s">
         <v>215</v>
       </c>
       <c r="N5" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="701"/>
+      <c r="O5" s="704"/>
       <c r="P5" s="108" t="s">
         <v>216</v>
       </c>
@@ -12700,11 +12678,11 @@
       <c r="U5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="Y5" s="672" t="s">
+      <c r="Y5" s="675" t="s">
         <v>287</v>
       </c>
-      <c r="Z5" s="673"/>
-      <c r="AD5" s="664"/>
+      <c r="Z5" s="676"/>
+      <c r="AD5" s="667"/>
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="109"/>
@@ -12714,16 +12692,16 @@
       <c r="E6" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="691"/>
+      <c r="G6" s="694"/>
       <c r="H6" s="46" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="23">
         <v>15</v>
       </c>
-      <c r="K6" s="670"/>
-      <c r="L6" s="684"/>
-      <c r="O6" s="701"/>
+      <c r="K6" s="673"/>
+      <c r="L6" s="687"/>
+      <c r="O6" s="704"/>
       <c r="S6" s="104" t="s">
         <v>20</v>
       </c>
@@ -12736,20 +12714,20 @@
       <c r="V6" s="21">
         <v>-1</v>
       </c>
-      <c r="AD6" s="664"/>
+      <c r="AD6" s="667"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="110"/>
-      <c r="G7" s="691"/>
+      <c r="G7" s="694"/>
       <c r="H7" s="6"/>
-      <c r="K7" s="670"/>
-      <c r="L7" s="684"/>
+      <c r="K7" s="673"/>
+      <c r="L7" s="687"/>
       <c r="N7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="701"/>
+      <c r="O7" s="704"/>
       <c r="P7" s="73"/>
-      <c r="AD7" s="664"/>
+      <c r="AD7" s="667"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="130"/>
@@ -12762,7 +12740,7 @@
       <c r="F8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="691"/>
+      <c r="G8" s="694"/>
       <c r="H8" s="50" t="s">
         <v>76</v>
       </c>
@@ -12772,41 +12750,41 @@
       <c r="J8" s="111">
         <v>115</v>
       </c>
-      <c r="K8" s="670"/>
-      <c r="L8" s="684"/>
-      <c r="O8" s="701"/>
+      <c r="K8" s="673"/>
+      <c r="L8" s="687"/>
+      <c r="O8" s="704"/>
       <c r="P8" s="49"/>
-      <c r="S8" s="666" t="s">
+      <c r="S8" s="669" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="667"/>
-      <c r="U8" s="667"/>
-      <c r="V8" s="667"/>
-      <c r="W8" s="667"/>
-      <c r="X8" s="667"/>
-      <c r="Y8" s="667"/>
-      <c r="Z8" s="667"/>
-      <c r="AA8" s="667"/>
-      <c r="AB8" s="667"/>
-      <c r="AC8" s="668"/>
-      <c r="AD8" s="664"/>
+      <c r="T8" s="670"/>
+      <c r="U8" s="670"/>
+      <c r="V8" s="670"/>
+      <c r="W8" s="670"/>
+      <c r="X8" s="670"/>
+      <c r="Y8" s="670"/>
+      <c r="Z8" s="670"/>
+      <c r="AA8" s="670"/>
+      <c r="AB8" s="670"/>
+      <c r="AC8" s="671"/>
+      <c r="AD8" s="667"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="656"/>
-      <c r="G9" s="691"/>
+      <c r="C9" s="659"/>
+      <c r="G9" s="694"/>
       <c r="H9" s="6"/>
-      <c r="K9" s="670"/>
-      <c r="L9" s="694" t="s">
+      <c r="K9" s="673"/>
+      <c r="L9" s="697" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="695"/>
-      <c r="N9" s="696"/>
-      <c r="O9" s="701"/>
+      <c r="M9" s="698"/>
+      <c r="N9" s="699"/>
+      <c r="O9" s="704"/>
       <c r="P9" s="75"/>
-      <c r="AD9" s="664"/>
+      <c r="AD9" s="667"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="657"/>
+      <c r="C10" s="660"/>
       <c r="D10" s="23"/>
       <c r="E10" s="45" t="s">
         <v>88</v>
@@ -12814,7 +12792,7 @@
       <c r="F10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="691"/>
+      <c r="G10" s="694"/>
       <c r="H10" s="51"/>
       <c r="I10" s="21" t="s">
         <v>81</v>
@@ -12822,33 +12800,33 @@
       <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="670"/>
-      <c r="M10" s="659" t="s">
+      <c r="K10" s="673"/>
+      <c r="M10" s="662" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="660"/>
-      <c r="O10" s="660"/>
-      <c r="P10" s="660"/>
-      <c r="Q10" s="660"/>
-      <c r="R10" s="660"/>
-      <c r="S10" s="660"/>
-      <c r="T10" s="660"/>
-      <c r="U10" s="660"/>
-      <c r="V10" s="660"/>
-      <c r="W10" s="660"/>
-      <c r="X10" s="660"/>
-      <c r="Y10" s="660"/>
-      <c r="Z10" s="660"/>
-      <c r="AA10" s="660"/>
-      <c r="AB10" s="660"/>
-      <c r="AC10" s="661"/>
-      <c r="AD10" s="664"/>
+      <c r="N10" s="663"/>
+      <c r="O10" s="663"/>
+      <c r="P10" s="663"/>
+      <c r="Q10" s="663"/>
+      <c r="R10" s="663"/>
+      <c r="S10" s="663"/>
+      <c r="T10" s="663"/>
+      <c r="U10" s="663"/>
+      <c r="V10" s="663"/>
+      <c r="W10" s="663"/>
+      <c r="X10" s="663"/>
+      <c r="Y10" s="663"/>
+      <c r="Z10" s="663"/>
+      <c r="AA10" s="663"/>
+      <c r="AB10" s="663"/>
+      <c r="AC10" s="664"/>
+      <c r="AD10" s="667"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="658"/>
-      <c r="G11" s="691"/>
+      <c r="C11" s="661"/>
+      <c r="G11" s="694"/>
       <c r="H11" s="6"/>
-      <c r="K11" s="670"/>
+      <c r="K11" s="673"/>
       <c r="R11" s="52" t="s">
         <v>44</v>
       </c>
@@ -12856,17 +12834,17 @@
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="Z11" s="680" t="s">
+      <c r="Z11" s="683" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="681"/>
+      <c r="AA11" s="684"/>
       <c r="AB11" s="52" t="s">
         <v>44</v>
       </c>
       <c r="AC11" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="AD11" s="664"/>
+      <c r="AD11" s="667"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="129"/>
@@ -12879,7 +12857,7 @@
       <c r="F12" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="691"/>
+      <c r="G12" s="694"/>
       <c r="H12" s="128"/>
       <c r="I12" s="19" t="s">
         <v>81</v>
@@ -12887,8 +12865,8 @@
       <c r="J12" s="3">
         <v>15</v>
       </c>
-      <c r="K12" s="670"/>
-      <c r="L12" s="685" t="s">
+      <c r="K12" s="673"/>
+      <c r="L12" s="688" t="s">
         <v>93</v>
       </c>
       <c r="M12" s="21" t="s">
@@ -12903,7 +12881,7 @@
       <c r="Q12" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="517" t="s">
+      <c r="S12" s="520" t="s">
         <v>107</v>
       </c>
       <c r="T12" s="2" t="s">
@@ -12919,26 +12897,26 @@
         <v>116</v>
       </c>
       <c r="Y12" s="6"/>
-      <c r="AA12" s="674" t="s">
+      <c r="AA12" s="677" t="s">
         <v>126</v>
       </c>
-      <c r="AB12" s="675"/>
+      <c r="AB12" s="678"/>
       <c r="AC12" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="AD12" s="664"/>
+      <c r="AD12" s="667"/>
     </row>
     <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="656"/>
-      <c r="G13" s="691"/>
-      <c r="K13" s="670"/>
-      <c r="L13" s="686"/>
+      <c r="C13" s="659"/>
+      <c r="G13" s="694"/>
+      <c r="K13" s="673"/>
+      <c r="L13" s="689"/>
       <c r="M13" s="47"/>
-      <c r="Q13" s="693" t="s">
+      <c r="Q13" s="696" t="s">
         <v>210</v>
       </c>
-      <c r="R13" s="587"/>
-      <c r="S13" s="518"/>
+      <c r="R13" s="590"/>
+      <c r="S13" s="521"/>
       <c r="T13" s="6"/>
       <c r="U13" s="96" t="s">
         <v>132</v>
@@ -12946,17 +12924,17 @@
       <c r="X13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA13" s="676"/>
-      <c r="AB13" s="677"/>
-      <c r="AD13" s="664"/>
+      <c r="AA13" s="679"/>
+      <c r="AB13" s="680"/>
+      <c r="AD13" s="667"/>
     </row>
     <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="658"/>
+      <c r="C14" s="661"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="691"/>
+      <c r="G14" s="694"/>
       <c r="H14" s="125"/>
       <c r="I14" s="99" t="s">
         <v>44</v>
@@ -12964,8 +12942,8 @@
       <c r="J14" s="111">
         <v>115</v>
       </c>
-      <c r="K14" s="670"/>
-      <c r="L14" s="686"/>
+      <c r="K14" s="673"/>
+      <c r="L14" s="689"/>
       <c r="M14" s="21" t="s">
         <v>111</v>
       </c>
@@ -12975,7 +12953,7 @@
       <c r="R14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="518"/>
+      <c r="S14" s="521"/>
       <c r="T14" s="77" t="s">
         <v>130</v>
       </c>
@@ -12986,9 +12964,9 @@
       <c r="Y14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AA14" s="676"/>
-      <c r="AB14" s="677"/>
-      <c r="AD14" s="664"/>
+      <c r="AA14" s="679"/>
+      <c r="AB14" s="680"/>
+      <c r="AD14" s="667"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="130" t="s">
@@ -13003,20 +12981,20 @@
       <c r="F15" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="691"/>
+      <c r="G15" s="694"/>
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="670"/>
-      <c r="L15" s="687"/>
-      <c r="Q15" s="693" t="s">
+      <c r="K15" s="673"/>
+      <c r="L15" s="690"/>
+      <c r="Q15" s="696" t="s">
         <v>211</v>
       </c>
-      <c r="R15" s="587"/>
-      <c r="S15" s="518"/>
+      <c r="R15" s="590"/>
+      <c r="S15" s="521"/>
       <c r="T15" s="6"/>
       <c r="V15" s="68" t="s">
         <v>44</v>
@@ -13024,14 +13002,14 @@
       <c r="X15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AA15" s="676"/>
-      <c r="AB15" s="677"/>
-      <c r="AD15" s="664"/>
+      <c r="AA15" s="679"/>
+      <c r="AB15" s="680"/>
+      <c r="AD15" s="667"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="132"/>
-      <c r="G16" s="691"/>
-      <c r="K16" s="670"/>
+      <c r="G16" s="694"/>
+      <c r="K16" s="673"/>
       <c r="N16" s="47"/>
       <c r="O16" s="61" t="s">
         <v>109</v>
@@ -13039,7 +13017,7 @@
       <c r="R16" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="S16" s="518"/>
+      <c r="S16" s="521"/>
       <c r="T16" s="76" t="s">
         <v>129</v>
       </c>
@@ -13050,34 +13028,34 @@
       <c r="Z16" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="AA16" s="676"/>
-      <c r="AB16" s="677"/>
-      <c r="AD16" s="664"/>
+      <c r="AA16" s="679"/>
+      <c r="AB16" s="680"/>
+      <c r="AD16" s="667"/>
     </row>
     <row r="17" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="109"/>
       <c r="E17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="688" t="s">
+      <c r="F17" s="691" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="691"/>
+      <c r="G17" s="694"/>
       <c r="H17" s="54"/>
       <c r="I17" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="670"/>
-      <c r="S17" s="518"/>
+      <c r="K17" s="673"/>
+      <c r="S17" s="521"/>
       <c r="V17" s="68" t="s">
         <v>44</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="676"/>
-      <c r="AB17" s="677"/>
-      <c r="AD17" s="664"/>
+      <c r="AA17" s="679"/>
+      <c r="AB17" s="680"/>
+      <c r="AD17" s="667"/>
     </row>
     <row r="18" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="130"/>
@@ -13087,50 +13065,50 @@
       <c r="E18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="689"/>
-      <c r="G18" s="691"/>
+      <c r="F18" s="692"/>
+      <c r="G18" s="694"/>
       <c r="H18" s="108" t="s">
         <v>76</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="670"/>
+      <c r="K18" s="673"/>
       <c r="O18" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="518"/>
+      <c r="S18" s="521"/>
       <c r="U18" s="76" t="s">
         <v>133</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" s="678"/>
-      <c r="AB18" s="679"/>
-      <c r="AD18" s="664"/>
+      <c r="AA18" s="681"/>
+      <c r="AB18" s="682"/>
+      <c r="AD18" s="667"/>
     </row>
     <row r="19" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="692"/>
-      <c r="K19" s="671"/>
+      <c r="G19" s="695"/>
+      <c r="K19" s="674"/>
       <c r="Q19" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="R19" s="697" t="s">
+      <c r="R19" s="700" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="698"/>
-      <c r="T19" s="699"/>
+      <c r="S19" s="701"/>
+      <c r="T19" s="702"/>
       <c r="V19" s="77" t="s">
         <v>115</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="AD19" s="665"/>
+      <c r="AD19" s="668"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/System_2.1.2.xlsx
+++ b/System_2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work_For_\Work\Running AppS\System_Work_RW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93A156-9D00-4636-9662-8C6FF553E044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA062B-5B18-4B84-8B71-CA9CD85335E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="585">
   <si>
     <t>Zone</t>
   </si>
@@ -1703,9 +1703,6 @@
     <t>!M_25_NOC_X_EmployerLeft3_X_Halt_RJ</t>
   </si>
   <si>
-    <t xml:space="preserve">Parliament - </t>
-  </si>
-  <si>
     <t>Rw- Indore</t>
   </si>
   <si>
@@ -1791,6 +1788,12 @@
   </si>
   <si>
     <t>!M_15_NOC_X_Spouse_X_Drive_Media_X104X</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCS </t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="705">
+  <cellXfs count="706">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5156,6 +5159,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5669,7 +5675,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I7" s="61"/>
       <c r="J7" s="299"/>
@@ -5727,7 +5733,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I9" s="61"/>
       <c r="J9" s="297"/>
@@ -5757,7 +5763,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I10" s="61"/>
       <c r="J10" s="297"/>
@@ -5795,7 +5801,7 @@
         <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I11" s="374"/>
       <c r="J11" s="295"/>
@@ -5849,7 +5855,7 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F13" s="281" t="s">
         <v>370</v>
@@ -5858,7 +5864,7 @@
         <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I13" s="61"/>
       <c r="J13" s="184"/>
@@ -5887,13 +5893,13 @@
       <c r="D15" s="61"/>
       <c r="E15" s="66"/>
       <c r="F15" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G15" s="136" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I15" s="61"/>
       <c r="J15" s="136"/>
@@ -5929,7 +5935,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I16" s="61"/>
       <c r="J16" s="203"/>
@@ -6027,7 +6033,7 @@
         <v>391</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I20" s="61"/>
       <c r="J20" s="167"/>
@@ -6057,7 +6063,7 @@
         <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="8"/>
@@ -6185,7 +6191,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I25" s="61"/>
       <c r="J25" s="139"/>
@@ -6303,10 +6309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB54FD83-008D-4F8B-87AC-83E7F70047CB}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6522,7 +6528,7 @@
         <v>103</v>
       </c>
       <c r="P7" s="99" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q7" s="127" t="s">
         <v>44</v>
@@ -6644,7 +6650,7 @@
         <v>424</v>
       </c>
       <c r="P11" s="99" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="Q11" s="127" t="s">
         <v>44</v>
@@ -6703,7 +6709,7 @@
       <c r="G13" s="521"/>
       <c r="I13" s="538"/>
       <c r="J13" s="108" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K13" s="100" t="s">
         <v>44</v>
@@ -6723,7 +6729,7 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="244" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14" s="178" t="s">
         <v>150</v>
@@ -6822,21 +6828,6 @@
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="244" t="s">
-        <v>583</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="C18" s="491" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="435" t="s">
-        <v>538</v>
-      </c>
-      <c r="E18" s="490" t="s">
-        <v>44</v>
-      </c>
       <c r="G18" s="16"/>
       <c r="I18" s="538"/>
       <c r="L18" s="16"/>
@@ -6849,7 +6840,7 @@
         <v>44</v>
       </c>
       <c r="R18" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="24">
         <v>0</v>
@@ -6870,14 +6861,12 @@
       <c r="U19" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="V19" s="6">
-        <v>1</v>
-      </c>
+      <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -6886,7 +6875,7 @@
         <v>445</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E20" s="428">
         <v>-1</v>
@@ -6907,9 +6896,7 @@
       <c r="U20" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="V20" s="19">
-        <v>1</v>
-      </c>
+      <c r="V20" s="19"/>
       <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6929,7 +6916,7 @@
         <v>445</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E22" s="382">
         <v>1</v>
@@ -6941,7 +6928,7 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>417</v>
@@ -6987,6 +6974,21 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="244" t="s">
+        <v>582</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C26" s="491" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="435" t="s">
+        <v>538</v>
+      </c>
+      <c r="E26" s="490" t="s">
+        <v>44</v>
+      </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
       <c r="H26" s="6"/>
@@ -7005,7 +7007,7 @@
         <v>44</v>
       </c>
       <c r="R26" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S26" s="24">
         <v>3</v>
@@ -7019,12 +7021,6 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="246" t="s">
-        <v>388</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="I27" s="538"/>
       <c r="O27" s="2" t="s">
         <v>99</v>
@@ -7035,6 +7031,12 @@
       <c r="R27" s="112"/>
       <c r="S27" s="112"/>
       <c r="U27" s="6"/>
+      <c r="V27">
+        <v>-1</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="176" t="s">
@@ -7047,11 +7049,11 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="112"/>
       <c r="T28" s="39"/>
-      <c r="V28">
+      <c r="V28" s="6">
         <v>-1</v>
       </c>
       <c r="W28" s="19" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7072,11 +7074,13 @@
       <c r="R29" s="519"/>
       <c r="S29" s="112"/>
       <c r="T29" s="80"/>
-      <c r="V29" s="6">
-        <v>-1</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>235</v>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="246" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7104,7 +7108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CFE6D2-5300-4D31-9A66-EC93F2A54B69}">
   <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
@@ -7206,7 +7210,7 @@
         <v>156</v>
       </c>
       <c r="Y1" s="601" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Z1" s="458">
         <v>1</v>
@@ -8050,7 +8054,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="571"/>
       <c r="Q14" s="61" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S14" s="169" t="s">
         <v>28</v>
@@ -8136,7 +8140,7 @@
     </row>
     <row r="16" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>417</v>
@@ -8199,7 +8203,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="571"/>
       <c r="Q17" s="21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S17" s="169" t="s">
         <v>183</v>
@@ -8252,10 +8256,10 @@
     </row>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="517" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C18" s="506" t="s">
         <v>540</v>
@@ -8268,14 +8272,14 @@
       </c>
       <c r="F18" s="568"/>
       <c r="G18" s="374" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="O18" s="571"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="563" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="T18" s="100" t="s">
         <v>44</v>
@@ -8323,7 +8327,7 @@
       <c r="O19" s="571"/>
       <c r="R19" s="564"/>
       <c r="S19" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U19" s="608"/>
       <c r="V19" s="146"/>
@@ -8357,7 +8361,7 @@
     </row>
     <row r="20" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="244" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" s="227" t="s">
         <v>530</v>
@@ -8366,7 +8370,7 @@
         <v>504</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E20" s="489">
         <v>-1</v>
@@ -8422,10 +8426,10 @@
     </row>
     <row r="21" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="244" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C21" s="508" t="s">
         <v>504</v>
@@ -8462,7 +8466,7 @@
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG21" s="6"/>
       <c r="AH21" s="251" t="s">
@@ -8477,7 +8481,7 @@
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="480" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AN21" s="587"/>
     </row>
@@ -8524,7 +8528,7 @@
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="244" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B23" s="178" t="s">
         <v>367</v>
@@ -8673,7 +8677,7 @@
         <v>504</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E26" s="424">
         <v>1</v>
@@ -8688,7 +8692,7 @@
       </c>
       <c r="Q26" s="590"/>
       <c r="R26" s="565" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T26" s="183"/>
       <c r="U26" s="471"/>
@@ -8733,14 +8737,14 @@
         <v>418</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E27" s="281" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="569"/>
       <c r="G27" s="61" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O27" s="572"/>
       <c r="R27" s="566"/>
@@ -8754,7 +8758,7 @@
       <c r="V27" s="476"/>
       <c r="W27" s="149"/>
       <c r="X27" s="481" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="Y27" s="603"/>
       <c r="Z27" s="163"/>
@@ -8840,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2029A93E-B53C-4201-9F17-439C144F3CF1}">
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9253,9 +9257,15 @@
         <f>IF((AI4-AJ4)&gt;AJ4,(AI4-AJ4),AJ4)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="112"/>
+      <c r="AL4" s="333" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM4" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN4" s="112" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I5" s="430"/>
@@ -9512,12 +9522,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AM7" s="231" t="s">
-        <v>554</v>
-      </c>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="231"/>
       <c r="AN7" s="80"/>
     </row>
     <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9703,9 +9709,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="6" t="s">
-        <v>264</v>
-      </c>
+      <c r="AL9" s="6"/>
       <c r="AM9" s="19"/>
       <c r="AN9" s="112"/>
     </row>
@@ -9896,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I12" s="430" t="s">
         <v>302</v>
@@ -10577,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="AL19" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AN19" s="112"/>
     </row>
@@ -11076,7 +11080,9 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="308"/>
+      <c r="AA25" s="308">
+        <v>0</v>
+      </c>
       <c r="AB25" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11165,12 +11171,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="308"/>
+      <c r="AA26" s="308">
+        <v>0</v>
+      </c>
       <c r="AB26" s="308">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="312"/>
+      <c r="AC26" s="312">
+        <v>0</v>
+      </c>
       <c r="AD26" s="318"/>
       <c r="AE26" s="316"/>
       <c r="AF26" s="314">
@@ -11191,8 +11201,15 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="6"/>
-      <c r="AN26" s="112"/>
+      <c r="AL26" s="705" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM26" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN26" s="112" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="31" t="s">
@@ -12418,7 +12435,7 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12702,9 +12719,6 @@
       <c r="K6" s="673"/>
       <c r="L6" s="687"/>
       <c r="O6" s="704"/>
-      <c r="S6" s="104" t="s">
-        <v>20</v>
-      </c>
       <c r="T6" s="2" t="s">
         <v>101</v>
       </c>
@@ -12831,6 +12845,9 @@
         <v>44</v>
       </c>
       <c r="S11" s="70"/>
+      <c r="U11" s="104" t="s">
+        <v>20</v>
+      </c>
       <c r="Y11" s="68" t="s">
         <v>121</v>
       </c>
